--- a/src/attributions/attributions_saliency_traj_316.xlsx
+++ b/src/attributions/attributions_saliency_traj_316.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.035882757349782e-08</v>
+        <v>7.516846380895004e-06</v>
       </c>
       <c r="B4" t="n">
-        <v>9.819942903277479e-08</v>
+        <v>3.824716623057611e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.130321056867615e-08</v>
+        <v>4.057896148879081e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>6.364367521882741e-08</v>
+        <v>5.825132575409953e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>4.99827343958259e-08</v>
+        <v>2.398293872829527e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>1.370387394672434e-07</v>
+        <v>3.080751412198879e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.001200757855258e-07</v>
+        <v>3.66256472261739e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>7.905136811814373e-08</v>
+        <v>5.327307007974014e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.03636480730529e-07</v>
+        <v>2.08230903808726e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4.81959787634878e-08</v>
+        <v>1.304485158470925e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.329761912278627e-07</v>
+        <v>2.880591637222096e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>9.134112133324379e-08</v>
+        <v>1.034095475915819e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>5.533087232834077e-08</v>
+        <v>4.423776317707961e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75479343056395e-07</v>
+        <v>2.954799128929153e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>3.041451535068518e-08</v>
+        <v>2.038394450210035e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>5.705766881192176e-08</v>
+        <v>2.186106939916499e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.133538063413653e-08</v>
+        <v>1.054821404977702e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.348198139794476e-07</v>
+        <v>7.720526809862349e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>3.804923665029492e-08</v>
+        <v>1.328546886725235e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.815971018004348e-08</v>
+        <v>2.706726718315622e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>2.80068377378484e-08</v>
+        <v>9.00390020319719e-08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.387556108374156e-08</v>
+        <v>4.391126822156366e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.255641706165989e-07</v>
+        <v>9.444387615076266e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>6.004464836451007e-08</v>
+        <v>4.994311439077137e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.612079689853999e-10</v>
+        <v>2.131982455466641e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.435034757690801e-08</v>
+        <v>4.115252068004338e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.644386374432543e-09</v>
+        <v>9.155688189821376e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.609851712520594e-08</v>
+        <v>2.303252358615282e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.258316721461597e-08</v>
+        <v>2.014540143591148e-07</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.543213722423388e-08</v>
+        <v>1.32116372242308e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.032372232145917e-08</v>
+        <v>7.254679076140746e-06</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.904374316718531e-08</v>
+        <v>6.270433004829101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.201838687047712e-08</v>
+        <v>2.816711685227347e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.644971932232238e-09</v>
+        <v>7.370715593424393e-07</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.175002204538259e-09</v>
+        <v>1.434269279343425e-06</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.15507750218103e-09</v>
+        <v>6.285809490691463e-07</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.18238818314876e-09</v>
+        <v>2.004558155022096e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.231231460176787e-08</v>
+        <v>2.317112830496626e-06</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.452260154470423e-08</v>
+        <v>4.076380264450563e-06</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.116224054470877e-08</v>
+        <v>4.475346031540539e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.799014981429536e-08</v>
+        <v>1.92317975233891e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.739560921507291e-08</v>
+        <v>7.252278919622768e-06</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.47445655077172e-08</v>
+        <v>4.953448751621181e-06</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.237933038884421e-08</v>
+        <v>4.87408351546037e-06</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.802250603257562e-08</v>
+        <v>8.815846740617417e-06</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.509317281213953e-08</v>
+        <v>8.763424830249278e-07</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.136642495680462e-07</v>
+        <v>1.654225707170554e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.322962089351677e-08</v>
+        <v>8.172155503416434e-06</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.783626353510044e-08</v>
+        <v>2.681872047105571e-06</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.814610114564857e-08</v>
+        <v>1.391420028085122e-07</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.180421023150302e-07</v>
+        <v>7.784939953126013e-06</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.569087780874725e-08</v>
+        <v>1.014246663544327e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.656132794409132e-08</v>
+        <v>5.355819212127244e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>7.558586645473042e-09</v>
+        <v>1.326755500485888e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>6.287835674356756e-08</v>
+        <v>1.083918141375761e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.061139170450588e-08</v>
+        <v>7.354282388405409e-06</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.442943790650133e-08</v>
+        <v>3.100418780377368e-06</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.549546765517334e-09</v>
+        <v>7.413821094814921e-07</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.117504577763384e-08</v>
+        <v>9.67484538705321e-06</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.815206207567144e-09</v>
+        <v>1.518207500339486e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.845306212861942e-10</v>
+        <v>9.480625521973707e-06</v>
       </c>
       <c r="BJ4" t="n">
-        <v>6.997074031289685e-10</v>
+        <v>4.542803708318388e-06</v>
       </c>
       <c r="BK4" t="n">
-        <v>6.06298158345453e-08</v>
+        <v>9.290988600696437e-06</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.500484062144096e-08</v>
+        <v>1.202397697852575e-06</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.037996615911197e-08</v>
+        <v>8.261759489869291e-07</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.748316501628324e-08</v>
+        <v>8.661127139930613e-07</v>
       </c>
       <c r="BO4" t="n">
-        <v>5.875406827726692e-09</v>
+        <v>1.160198848992877e-06</v>
       </c>
       <c r="BP4" t="n">
-        <v>7.324565842736774e-08</v>
+        <v>6.398871846613474e-06</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.355087864141069e-08</v>
+        <v>5.750371201429516e-07</v>
       </c>
       <c r="BR4" t="n">
-        <v>9.946530710180923e-09</v>
+        <v>3.467949227342615e-06</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.018892253374815e-08</v>
+        <v>3.150419161102036e-07</v>
       </c>
       <c r="BT4" t="n">
-        <v>6.30317416039361e-08</v>
+        <v>3.397442014829721e-06</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.142767030477444e-08</v>
+        <v>2.606001544336323e-06</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.858827923863828e-08</v>
+        <v>1.075519230653299e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.736551607540605e-08</v>
+        <v>2.980171075250837e-06</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.694432386211702e-08</v>
+        <v>1.744171413520235e-06</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.732438903445654e-08</v>
+        <v>5.335624337021727e-06</v>
       </c>
       <c r="BZ4" t="n">
-        <v>5.114092260782854e-08</v>
+        <v>5.599633823294425e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>4.600011749289479e-08</v>
+        <v>1.156343500952062e-06</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.011812938462754e-10</v>
+        <v>2.145525741070742e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>6.182922618336306e-08</v>
+        <v>5.12461247126339e-06</v>
       </c>
       <c r="CD4" t="n">
-        <v>7.15705672504896e-09</v>
+        <v>1.73270359482558e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.475376951835642e-08</v>
+        <v>5.245710781309754e-06</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.648449459741187e-09</v>
+        <v>2.304281906617689e-06</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.519166031333953e-08</v>
+        <v>7.753621957817813e-07</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.612709432663451e-08</v>
+        <v>3.467278020252706e-06</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.014154709684135e-08</v>
+        <v>5.719370619772235e-06</v>
       </c>
       <c r="CJ4" t="n">
-        <v>5.957667692513269e-09</v>
+        <v>2.218142299170722e-06</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.101008244106197e-08</v>
+        <v>6.328808126454533e-07</v>
       </c>
       <c r="CL4" t="n">
-        <v>7.265863466443534e-09</v>
+        <v>4.130007255298551e-06</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.569289764802306e-08</v>
+        <v>3.498040541671799e-06</v>
       </c>
       <c r="CN4" t="n">
-        <v>5.534806746254617e-08</v>
+        <v>5.63905450690072e-06</v>
       </c>
       <c r="CO4" t="n">
-        <v>3.156225147904479e-08</v>
+        <v>4.986268777429359e-06</v>
       </c>
       <c r="CP4" t="n">
-        <v>4.686335230985605e-08</v>
+        <v>6.678612407995388e-06</v>
       </c>
       <c r="CQ4" t="n">
-        <v>6.982027400681545e-08</v>
+        <v>4.516245098784566e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>5.133685121450071e-08</v>
+        <v>7.211818910946022e-07</v>
       </c>
       <c r="CS4" t="n">
-        <v>4.915546725214881e-08</v>
+        <v>4.080879079992883e-06</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.182460351856207e-08</v>
+        <v>3.416708977965754e-07</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.507529745481406e-08</v>
+        <v>9.233110176865011e-06</v>
       </c>
       <c r="CV4" t="n">
-        <v>8.752738978046182e-09</v>
+        <v>1.146501631410501e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>5.07224697798847e-08</v>
+        <v>6.381809726008214e-06</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.72068688186755e-08</v>
+        <v>1.472557187298662e-06</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.875881139312696e-08</v>
+        <v>1.605743932486803e-06</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.210391158996572e-08</v>
+        <v>4.213689862808678e-06</v>
       </c>
       <c r="DA4" t="n">
-        <v>9.814673518349082e-09</v>
+        <v>5.753622644988354e-06</v>
       </c>
       <c r="DB4" t="n">
-        <v>5.454468432475323e-09</v>
+        <v>9.283039617002942e-07</v>
       </c>
       <c r="DC4" t="n">
-        <v>3.932575154408369e-08</v>
+        <v>2.667817966539587e-07</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.526682602559504e-08</v>
+        <v>4.341020940046292e-06</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.513648666990775e-08</v>
+        <v>2.212645995314233e-06</v>
       </c>
       <c r="DF4" t="n">
-        <v>6.84568632891569e-08</v>
+        <v>4.274361344869249e-06</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.66179923155596e-08</v>
+        <v>2.892904831242049e-06</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.18989802899705e-07</v>
+        <v>7.515820470871404e-06</v>
       </c>
       <c r="DI4" t="n">
-        <v>4.241428541718051e-08</v>
+        <v>5.49987498743576e-06</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.103250895084784e-07</v>
+        <v>1.902186886582058e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>3.964058592487163e-08</v>
+        <v>8.279879693873227e-06</v>
       </c>
       <c r="DL4" t="n">
-        <v>9.981515347590175e-08</v>
+        <v>4.084095053258352e-07</v>
       </c>
       <c r="DM4" t="n">
-        <v>3.437543583117986e-09</v>
+        <v>1.369132132822415e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>6.45036513091668e-09</v>
+        <v>4.759025159728481e-06</v>
       </c>
       <c r="DO4" t="n">
-        <v>5.121809820707313e-08</v>
+        <v>2.688844688236713e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>3.158609374054322e-09</v>
+        <v>1.171605049421487e-06</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.16762402974291e-08</v>
+        <v>4.732635716209188e-06</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.769983093424798e-08</v>
+        <v>2.707739440666046e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>6.392147611222754e-08</v>
+        <v>2.950692987724324e-07</v>
       </c>
       <c r="DT4" t="n">
-        <v>3.929684910808362e-10</v>
+        <v>8.126400643959641e-06</v>
       </c>
       <c r="DU4" t="n">
-        <v>5.08923854170007e-08</v>
+        <v>7.307114628929412e-07</v>
       </c>
       <c r="DV4" t="n">
-        <v>4.584921597938774e-08</v>
+        <v>2.868014462364954e-06</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.246700787049804e-08</v>
+        <v>2.760142706392799e-06</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.486483203194666e-08</v>
+        <v>1.804757289392001e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.760329304545394e-08</v>
+        <v>1.480102582718246e-07</v>
       </c>
       <c r="DZ4" t="n">
-        <v>4.05562907701551e-08</v>
+        <v>2.936420969490428e-06</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.344703275980464e-08</v>
+        <v>2.444277015456464e-06</v>
       </c>
       <c r="EB4" t="n">
-        <v>2.701339951727277e-08</v>
+        <v>5.227783503869432e-07</v>
       </c>
       <c r="EC4" t="n">
-        <v>5.466581853852404e-09</v>
+        <v>2.601870164653519e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>2.112932406816981e-08</v>
+        <v>5.269338544167113e-06</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.868035053893436e-08</v>
+        <v>4.990287379769143e-06</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.383190717518801e-08</v>
+        <v>1.929474365169881e-06</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.387635416629564e-08</v>
+        <v>3.741193268069765e-06</v>
       </c>
       <c r="EH4" t="n">
-        <v>7.798871770603455e-09</v>
+        <v>2.555335640863632e-07</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.988337317015976e-08</v>
+        <v>6.817635949118994e-06</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.864803150259831e-08</v>
+        <v>4.985731266060611e-06</v>
       </c>
       <c r="EK4" t="n">
-        <v>8.323898903483951e-09</v>
+        <v>3.026917511306237e-06</v>
       </c>
       <c r="EL4" t="n">
-        <v>4.652855167819325e-08</v>
+        <v>4.012056251667673e-06</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.640352742526829e-08</v>
+        <v>2.016124511783346e-07</v>
       </c>
       <c r="EN4" t="n">
-        <v>3.857776320614903e-08</v>
+        <v>1.594413333805278e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>5.756456999961301e-08</v>
+        <v>2.8451588605094e-06</v>
       </c>
       <c r="EP4" t="n">
-        <v>6.68221611377362e-09</v>
+        <v>3.089897290919907e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3.48648256931483e-08</v>
+        <v>1.579212721480872e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>3.465473241703876e-08</v>
+        <v>1.931969336510519e-06</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.587415532355863e-08</v>
+        <v>1.004420118988492e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>3.037899531932453e-08</v>
+        <v>1.518047247373033e-05</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.401702836607456e-08</v>
+        <v>5.969236099190312e-06</v>
       </c>
       <c r="EV4" t="n">
-        <v>7.652214861764151e-09</v>
+        <v>3.961705715482822e-06</v>
       </c>
       <c r="EW4" t="n">
-        <v>2.326557435594623e-08</v>
+        <v>7.735461622360162e-06</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.717533670841931e-08</v>
+        <v>1.266485355699842e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>5.711336115155063e-08</v>
+        <v>6.440875949920155e-06</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1.284151540659195e-08</v>
+        <v>4.41362715264404e-07</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.29487247590987e-08</v>
+        <v>4.017731498606736e-07</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.8034195409532e-08</v>
+        <v>5.044013505539624e-06</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.249238934519781e-09</v>
+        <v>4.488524609769229e-06</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.018120521223409e-08</v>
+        <v>3.291292841822724e-06</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.955537681259557e-08</v>
+        <v>4.248107075000007e-07</v>
       </c>
       <c r="FF4" t="n">
-        <v>2.170705215576163e-08</v>
+        <v>6.08136997470865e-06</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.371762874986416e-08</v>
+        <v>1.922570845636073e-06</v>
       </c>
       <c r="FH4" t="n">
-        <v>4.581807999670673e-08</v>
+        <v>3.573768026399193e-06</v>
       </c>
       <c r="FI4" t="n">
-        <v>6.625617743338807e-08</v>
+        <v>3.087562390646781e-06</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3.689568472964311e-08</v>
+        <v>4.887662726105191e-06</v>
       </c>
       <c r="FK4" t="n">
-        <v>6.561134568983107e-08</v>
+        <v>2.206581484642811e-06</v>
       </c>
       <c r="FL4" t="n">
-        <v>2.748143934638847e-08</v>
+        <v>3.285620095994091e-06</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.185461862007742e-08</v>
+        <v>2.695408511499409e-06</v>
       </c>
       <c r="FN4" t="n">
-        <v>6.628551574294761e-08</v>
+        <v>2.287517645527259e-06</v>
       </c>
       <c r="FO4" t="n">
-        <v>1.855514142334869e-08</v>
+        <v>3.355133912918973e-06</v>
       </c>
       <c r="FP4" t="n">
-        <v>2.076233052150656e-08</v>
+        <v>8.29880036690156e-07</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3.610752230542857e-08</v>
+        <v>5.952913852524944e-06</v>
       </c>
       <c r="FR4" t="n">
-        <v>2.544636146240009e-08</v>
+        <v>5.208170023252023e-06</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.203155347046959e-08</v>
+        <v>2.442303411953617e-06</v>
       </c>
       <c r="FT4" t="n">
-        <v>8.355080183264363e-09</v>
+        <v>2.825772753567435e-06</v>
       </c>
       <c r="FU4" t="n">
-        <v>2.27941203689852e-08</v>
+        <v>1.169834558822913e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>2.560565093290279e-10</v>
+        <v>2.284297124788282e-06</v>
       </c>
       <c r="FW4" t="n">
-        <v>5.450217344105113e-08</v>
+        <v>4.29664623879944e-06</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.041862939312523e-08</v>
+        <v>4.285603608877864e-06</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.896328072348297e-08</v>
+        <v>4.794907454197528e-06</v>
       </c>
       <c r="FZ4" t="n">
-        <v>4.839037615056441e-09</v>
+        <v>5.295715709507931e-06</v>
       </c>
       <c r="GA4" t="n">
-        <v>2.276503430209686e-08</v>
+        <v>1.217682097376382e-06</v>
       </c>
       <c r="GB4" t="n">
-        <v>2.211469229962404e-08</v>
+        <v>2.613842298160307e-06</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.443169761472518e-08</v>
+        <v>1.071957558451686e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>6.508650063352661e-09</v>
+        <v>6.754836476829951e-07</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.089194601178178e-08</v>
+        <v>1.842560095610679e-06</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.360290990959356e-09</v>
+        <v>1.828251356528199e-06</v>
       </c>
       <c r="GG4" t="n">
-        <v>4.376765616598277e-08</v>
+        <v>3.239333409510436e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.457057573541533e-08</v>
+        <v>8.885370334610343e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>3.916302304673991e-08</v>
+        <v>9.979616152122617e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.329671839300772e-08</v>
+        <v>5.16781146870926e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>7.000901547371541e-08</v>
+        <v>0.0002038491074927151</v>
       </c>
       <c r="E5" t="n">
-        <v>3.843171114681354e-08</v>
+        <v>0.0002324177330592647</v>
       </c>
       <c r="F5" t="n">
-        <v>2.396478571142779e-09</v>
+        <v>0.0001014374720398337</v>
       </c>
       <c r="G5" t="n">
-        <v>1.129430327040382e-09</v>
+        <v>7.29275998310186e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.282649885250066e-08</v>
+        <v>6.646430847467855e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.95852107257133e-08</v>
+        <v>0.0001737160782795399</v>
       </c>
       <c r="J5" t="n">
-        <v>1.55588573136356e-08</v>
+        <v>0.0001099180954042822</v>
       </c>
       <c r="K5" t="n">
-        <v>1.183519682257383e-08</v>
+        <v>5.626125494018197e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.525186732465045e-08</v>
+        <v>0.0001029070117510855</v>
       </c>
       <c r="M5" t="n">
-        <v>7.542944047145284e-08</v>
+        <v>0.0002838973596226424</v>
       </c>
       <c r="N5" t="n">
-        <v>4.673015752132414e-08</v>
+        <v>0.0003850472567137331</v>
       </c>
       <c r="O5" t="n">
-        <v>7.449275862825289e-09</v>
+        <v>0.0001777047000359744</v>
       </c>
       <c r="P5" t="n">
-        <v>1.20601644226781e-08</v>
+        <v>1.024940138449892e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.209982952194878e-08</v>
+        <v>1.601625626790337e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>3.367749101812478e-08</v>
+        <v>0.0002276129671372473</v>
       </c>
       <c r="S5" t="n">
-        <v>2.452788194773348e-09</v>
+        <v>1.354138112219516e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.484180067734542e-08</v>
+        <v>1.35486334329471e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>3.290230088381918e-09</v>
+        <v>0.0001102427777368575</v>
       </c>
       <c r="V5" t="n">
-        <v>1.996550125227259e-08</v>
+        <v>1.648559191380627e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>2.193549519802218e-08</v>
+        <v>3.869759893859737e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>1.176817931991536e-08</v>
+        <v>9.398402471560985e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.130424192614555e-08</v>
+        <v>5.528645488084294e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.306596342232069e-08</v>
+        <v>9.895086986944079e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.971304588101248e-09</v>
+        <v>0.0001527443964732811</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.156339024532826e-08</v>
+        <v>6.915014091646299e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.039905844242185e-08</v>
+        <v>9.537467121845111e-06</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.503749030324798e-08</v>
+        <v>0.0001822140184231102</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.85624643936444e-08</v>
+        <v>9.691072773421183e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.830170314245152e-08</v>
+        <v>9.82646452030167e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.302658425572645e-08</v>
+        <v>3.128630851279013e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.465110420819428e-10</v>
+        <v>2.56385810644133e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.333426258298687e-09</v>
+        <v>1.198141944769304e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.463484000652215e-09</v>
+        <v>0.0001941614027600735</v>
       </c>
       <c r="AK5" t="n">
-        <v>5.549377402047639e-09</v>
+        <v>5.298744508763775e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.598445345673554e-09</v>
+        <v>6.39532518107444e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.57320964536234e-09</v>
+        <v>1.308781793341041e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.473577395307075e-10</v>
+        <v>8.815963155939244e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.185708834038905e-09</v>
+        <v>0.0001560213277116418</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.352192797962289e-09</v>
+        <v>0.000117311836220324</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.992912501691535e-09</v>
+        <v>1.066196273313835e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.037312546969815e-08</v>
+        <v>4.834134597331285e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>6.636359461964503e-09</v>
+        <v>1.532520400360227e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.578509672446216e-08</v>
+        <v>1.535321098344866e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.135123449737875e-08</v>
+        <v>0.0002458301023580134</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.143846568804292e-09</v>
+        <v>6.267492426559329e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.771863070298423e-09</v>
+        <v>3.841142461169511e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.681148020793444e-08</v>
+        <v>0.000191457336768508</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.714936542247415e-08</v>
+        <v>0.0001072209852281958</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.407286909227423e-08</v>
+        <v>5.877473449800164e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>3.428425543461344e-08</v>
+        <v>7.609570457134396e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.724052805547217e-08</v>
+        <v>0.0002531269856262952</v>
       </c>
       <c r="BC5" t="n">
-        <v>9.421474711501787e-10</v>
+        <v>0.0001326137571595609</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.445253472454056e-09</v>
+        <v>0.0001027614853228442</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.136637781788522e-09</v>
+        <v>2.167469574487768e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.868965757827027e-08</v>
+        <v>9.11036622710526e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.288834550194906e-08</v>
+        <v>6.335585203487426e-05</v>
       </c>
       <c r="BH5" t="n">
-        <v>7.619916253531756e-09</v>
+        <v>9.287651482736692e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>7.274447710869936e-09</v>
+        <v>0.0001028049155138433</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.0455416532551e-09</v>
+        <v>5.348127888282761e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.25449089899621e-09</v>
+        <v>0.0003616656176745892</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.322841303164068e-08</v>
+        <v>8.338282350450754e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.720563685443267e-08</v>
+        <v>2.951374881376978e-05</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.354738182219762e-09</v>
+        <v>2.374690666329116e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.076667111021834e-08</v>
+        <v>9.645652608014643e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.608179012180244e-08</v>
+        <v>0.0002696386654861271</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.152475981314183e-08</v>
+        <v>4.356504359748214e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.611258487743683e-10</v>
+        <v>3.626670513767749e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.329943349366204e-08</v>
+        <v>5.44131216884125e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>9.913201814981676e-09</v>
+        <v>9.413525549462065e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.033323915322626e-08</v>
+        <v>5.196698111831211e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.506904905885676e-09</v>
+        <v>0.0001385243376716971</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.430402374325013e-08</v>
+        <v>7.318306597881019e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.017447187085963e-08</v>
+        <v>1.063531635736581e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>3.606349885387772e-09</v>
+        <v>8.452991460217163e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.3448612889988e-08</v>
+        <v>2.919700636994094e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.456849862968568e-09</v>
+        <v>3.57703429472167e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.759664769451774e-08</v>
+        <v>3.84927807317581e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.713581099238581e-08</v>
+        <v>0.0002392769820289686</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.919941621826183e-09</v>
+        <v>3.83187725674361e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>8.866112288785644e-09</v>
+        <v>1.937655179062858e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.626361433362035e-09</v>
+        <v>6.996742740739137e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.041572250670697e-08</v>
+        <v>2.06906897801673e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.317204034734232e-08</v>
+        <v>2.925687113020103e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>2.486669981038858e-09</v>
+        <v>6.870523793622851e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>5.653740142719244e-09</v>
+        <v>1.879884621303063e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>9.778962528628199e-09</v>
+        <v>5.284718645270914e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>9.839589587556929e-09</v>
+        <v>0.0001295622641919181</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.226835522061265e-09</v>
+        <v>0.0001411858684150502</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.111122357628119e-09</v>
+        <v>4.095022813999094e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.806418836736157e-08</v>
+        <v>1.641144262976013e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.946114380757535e-08</v>
+        <v>5.910748222959228e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>4.852838131341741e-10</v>
+        <v>0.0003003351157531142</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.667351139962193e-08</v>
+        <v>3.788110916502774e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.662541881941593e-09</v>
+        <v>1.785592758096755e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>6.932168616913259e-09</v>
+        <v>0.0001232521317433566</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.82753179256423e-09</v>
+        <v>6.441932782763615e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.240523405168005e-09</v>
+        <v>3.648655547294766e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.530067272881297e-08</v>
+        <v>2.069497713819146e-05</v>
       </c>
       <c r="CX5" t="n">
-        <v>9.998732952709588e-10</v>
+        <v>2.697495801839978e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>8.873032086853527e-09</v>
+        <v>1.649888145038858e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>6.470130653468686e-09</v>
+        <v>2.87056464003399e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>2.214811223311131e-09</v>
+        <v>0.0001076959088095464</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.760031758697323e-09</v>
+        <v>1.225992127729114e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>4.356366378743814e-09</v>
+        <v>5.489067007147241e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>7.379950428543225e-09</v>
+        <v>9.351410699309781e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>1.300100915813118e-08</v>
+        <v>3.874534013448283e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>3.45209265617541e-08</v>
+        <v>0.0001066018303390592</v>
       </c>
       <c r="DG5" t="n">
-        <v>6.255158613299727e-10</v>
+        <v>4.576396895572543e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>3.184136954104133e-09</v>
+        <v>0.0001953159953700379</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.962575879588258e-08</v>
+        <v>5.826410779263824e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.096736568229062e-08</v>
+        <v>0.000165723540703766</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.458060894243829e-09</v>
+        <v>3.888468199875206e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>2.592570069737121e-08</v>
+        <v>6.371257768478245e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>8.177682531140817e-09</v>
+        <v>3.28860551235266e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.378664820668064e-09</v>
+        <v>5.499799044628162e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>3.737158138505947e-09</v>
+        <v>5.505403169081546e-05</v>
       </c>
       <c r="DP5" t="n">
-        <v>6.633738447447968e-09</v>
+        <v>2.337477417313494e-05</v>
       </c>
       <c r="DQ5" t="n">
-        <v>5.657341262121918e-09</v>
+        <v>1.669432094786316e-06</v>
       </c>
       <c r="DR5" t="n">
-        <v>8.147076790976371e-09</v>
+        <v>2.944457810372114e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.095608842012098e-08</v>
+        <v>3.582060162443668e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>7.815375013819903e-09</v>
+        <v>0.0001100467125070281</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.529339677119879e-08</v>
+        <v>2.054216201941017e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>5.655333978893395e-10</v>
+        <v>0.0001654098596191034</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.757216759936455e-09</v>
+        <v>5.062422133050859e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.764184531793944e-08</v>
+        <v>7.622931298101321e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>5.773406641651491e-09</v>
+        <v>5.679126479662955e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.692875883918532e-08</v>
+        <v>2.954014598799404e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.328860399496534e-08</v>
+        <v>1.576489739818498e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>1.05161550578714e-08</v>
+        <v>0.0001789877569535747</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.90278348632944e-10</v>
+        <v>1.280060314456932e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>8.953074726036903e-09</v>
+        <v>3.25261389662046e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.942009968975867e-09</v>
+        <v>1.655876621953212e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>9.050451943437565e-09</v>
+        <v>6.814076186856255e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.602571935739206e-09</v>
+        <v>4.938263009535149e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>3.219859490144472e-09</v>
+        <v>4.788985097547993e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>1.648415626220867e-08</v>
+        <v>5.956141831120476e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>4.779503459673151e-10</v>
+        <v>0.0001078066125046462</v>
       </c>
       <c r="EK5" t="n">
-        <v>8.135959461696984e-09</v>
+        <v>6.912828393978998e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>4.817864329709209e-09</v>
+        <v>5.858559597982094e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>1.046228881307343e-08</v>
+        <v>3.773695425479673e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>3.07132896892881e-09</v>
+        <v>8.714318391866982e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>5.431335381445024e-09</v>
+        <v>3.804158768616617e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.115737902068759e-08</v>
+        <v>5.338892879080959e-05</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1.952955841488802e-08</v>
+        <v>3.987537638749927e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>6.680030750771948e-09</v>
+        <v>6.697633580188267e-06</v>
       </c>
       <c r="ES5" t="n">
-        <v>1.428472362619004e-08</v>
+        <v>3.875582478940487e-06</v>
       </c>
       <c r="ET5" t="n">
-        <v>5.621921150833487e-09</v>
+        <v>6.75408446113579e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>4.694853394937581e-09</v>
+        <v>9.504622539679985e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>8.660803629823022e-09</v>
+        <v>0.0001089771321858279</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.355356576444478e-09</v>
+        <v>8.388971764361486e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>4.600698488843591e-09</v>
+        <v>6.015790131641552e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.169891916674715e-08</v>
+        <v>4.350442031864077e-05</v>
       </c>
       <c r="EZ5" t="n">
-        <v>3.459331709976254e-10</v>
+        <v>2.944461630249862e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>5.837046401779844e-09</v>
+        <v>1.702582085272297e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.392137960465334e-08</v>
+        <v>5.830383088323288e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.952641381919307e-09</v>
+        <v>3.932198887923732e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>2.516257202600514e-09</v>
+        <v>2.576706356194336e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>7.85628628818813e-09</v>
+        <v>4.842209455091506e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>7.964193748932757e-09</v>
+        <v>8.691353286849335e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>1.908098568037531e-09</v>
+        <v>2.929029142251238e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>4.051023516637997e-09</v>
+        <v>8.470085595035926e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.463865739737003e-08</v>
+        <v>4.65047123725526e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>5.81188164261448e-09</v>
+        <v>1.53558466990944e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>1.755138256953614e-10</v>
+        <v>3.374866355443373e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>2.466213544494167e-08</v>
+        <v>7.865849329391494e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>6.629479187836296e-09</v>
+        <v>6.730766472173855e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>6.239699423815637e-09</v>
+        <v>7.418000313919038e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>2.790679154429654e-08</v>
+        <v>5.036874426878057e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>9.912149323554331e-09</v>
+        <v>9.220117499353364e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>2.910186935878301e-08</v>
+        <v>0.0001892726286314428</v>
       </c>
       <c r="FR5" t="n">
-        <v>1.604849364511551e-09</v>
+        <v>6.204059172887355e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.736446447215712e-08</v>
+        <v>1.817689189920202e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>3.253916958101399e-08</v>
+        <v>0.000396388495573774</v>
       </c>
       <c r="FU5" t="n">
-        <v>6.966270671426855e-09</v>
+        <v>0.0001941866794368252</v>
       </c>
       <c r="FV5" t="n">
-        <v>8.298770559633795e-09</v>
+        <v>4.128685759496875e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>1.301676633147508e-08</v>
+        <v>5.708161188522354e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>2.532536136357066e-08</v>
+        <v>1.597856862645131e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>1.649181236018649e-09</v>
+        <v>6.754853529855609e-07</v>
       </c>
       <c r="FZ5" t="n">
-        <v>6.190725265753372e-09</v>
+        <v>3.567986277630553e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.366733659580177e-08</v>
+        <v>9.801245323615149e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>2.899318118920746e-08</v>
+        <v>5.834964395035058e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>2.291861633807457e-08</v>
+        <v>9.946624777512625e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>1.229068402608391e-08</v>
+        <v>6.581303023267537e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>4.493525107562846e-09</v>
+        <v>0.0001387504598824307</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.323411868980884e-08</v>
+        <v>0.0001579101226525381</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.695074836050026e-08</v>
+        <v>0.0001205590015160851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.134777761946381e-14</v>
+        <v>1.973732196347555e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>1.534655106986971e-13</v>
+        <v>3.866196038870839e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>1.077105391640229e-13</v>
+        <v>5.444828730105655e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>8.907629543914233e-14</v>
+        <v>3.508570216581575e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>2.722693218885214e-13</v>
+        <v>4.497519967117114e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>2.772580071346703e-14</v>
+        <v>4.849621291214135e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.161474531260296e-13</v>
+        <v>3.299728859929019e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>5.73916795706432e-14</v>
+        <v>7.992010750967893e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>9.986733255683625e-14</v>
+        <v>7.350062332989182e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>9.956876360732447e-14</v>
+        <v>2.422062152618309e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>2.565270858147922e-13</v>
+        <v>6.437664069380844e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>1.302239972756844e-13</v>
+        <v>9.269915608456358e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>2.999925747268831e-14</v>
+        <v>9.753380254551303e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>6.059214951613032e-14</v>
+        <v>4.818592969968449e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>1.810061974437394e-13</v>
+        <v>2.373132929278654e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.939564231879382e-13</v>
+        <v>7.41106077839504e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.738587622733851e-13</v>
+        <v>2.452571607136633e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>2.929363023852771e-13</v>
+        <v>1.72111526808294e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>2.873522004110535e-15</v>
+        <v>1.55230281961849e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>1.107471099282822e-14</v>
+        <v>1.298779125136207e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.232033951855532e-13</v>
+        <v>1.970392986549996e-07</v>
       </c>
       <c r="V6" t="n">
-        <v>8.983686495720681e-15</v>
+        <v>1.497765879321378e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.716185566395413e-13</v>
+        <v>3.258658125560032e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>5.151778899043901e-15</v>
+        <v>1.152735933374061e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.15524370182462e-14</v>
+        <v>7.712899332545931e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.121353579653164e-13</v>
+        <v>7.677980420339736e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.642767511247147e-14</v>
+        <v>2.788207666526432e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.624841192119646e-15</v>
+        <v>8.924644134822302e-09</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.932945431118571e-14</v>
+        <v>4.363751941127703e-06</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.827719135514207e-15</v>
+        <v>3.076035454796511e-06</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.020382034617497e-13</v>
+        <v>1.552439698571106e-06</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.814237914629993e-13</v>
+        <v>5.875233455299167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.08862275273393e-14</v>
+        <v>3.617305083025713e-06</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.309914768885326e-13</v>
+        <v>5.068025529908482e-06</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.468721926847424e-13</v>
+        <v>3.741987939065439e-06</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.483606589974628e-15</v>
+        <v>3.097875605817535e-06</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.41242601410051e-14</v>
+        <v>1.216160171679803e-06</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.741233397299565e-14</v>
+        <v>1.574686848471174e-06</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.881461939099837e-14</v>
+        <v>7.494936653529294e-07</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.074031475193325e-13</v>
+        <v>2.62203093370772e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.073662168828322e-13</v>
+        <v>2.611307536426466e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.596839655684464e-14</v>
+        <v>6.889363248774316e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.969059171496196e-14</v>
+        <v>1.961270982064889e-06</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.384005348214697e-14</v>
+        <v>3.218501205992652e-06</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.441511484088318e-14</v>
+        <v>9.307129289481963e-08</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.045685009393692e-13</v>
+        <v>1.326886831520824e-06</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.012263511201595e-13</v>
+        <v>7.524533884861739e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.322817311977621e-14</v>
+        <v>9.563668754708488e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.084781999811547e-13</v>
+        <v>1.347944817098323e-06</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.417627780170213e-13</v>
+        <v>5.795202014269307e-06</v>
       </c>
       <c r="AY6" t="n">
-        <v>6.998390175748728e-14</v>
+        <v>4.424562121130293e-06</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8.208019462404344e-15</v>
+        <v>6.547333214257378e-06</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.445739446006183e-14</v>
+        <v>4.443469606485451e-06</v>
       </c>
       <c r="BB6" t="n">
-        <v>9.428798074338079e-16</v>
+        <v>3.914297394658206e-06</v>
       </c>
       <c r="BC6" t="n">
-        <v>7.576289584847878e-14</v>
+        <v>2.816623236867599e-06</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.115604020435814e-14</v>
+        <v>4.726628503703978e-06</v>
       </c>
       <c r="BE6" t="n">
-        <v>6.722878479500753e-15</v>
+        <v>4.704770617536269e-08</v>
       </c>
       <c r="BF6" t="n">
-        <v>7.348874113410897e-14</v>
+        <v>5.829792826261837e-08</v>
       </c>
       <c r="BG6" t="n">
-        <v>6.438591521919224e-14</v>
+        <v>4.005935807072092e-06</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.676870448052981e-13</v>
+        <v>4.276435447536642e-06</v>
       </c>
       <c r="BI6" t="n">
-        <v>7.907682077505293e-14</v>
+        <v>1.113361577154137e-06</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.062667748935597e-13</v>
+        <v>2.958236109407153e-07</v>
       </c>
       <c r="BK6" t="n">
-        <v>9.006577899933407e-14</v>
+        <v>3.594893541958299e-06</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.28050171919851e-13</v>
+        <v>3.672208777061314e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.76125312022119e-14</v>
+        <v>2.945422011180199e-06</v>
       </c>
       <c r="BN6" t="n">
-        <v>8.080366345648848e-14</v>
+        <v>2.071762992272852e-06</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.321185457044127e-13</v>
+        <v>2.847652922355337e-06</v>
       </c>
       <c r="BP6" t="n">
-        <v>5.925112695403731e-14</v>
+        <v>1.016733676806325e-06</v>
       </c>
       <c r="BQ6" t="n">
-        <v>7.179796003336982e-15</v>
+        <v>1.317184228355472e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.759725855700681e-14</v>
+        <v>3.513670890242793e-06</v>
       </c>
       <c r="BS6" t="n">
-        <v>4.007062829334065e-14</v>
+        <v>7.339146463891666e-07</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.639481362224979e-14</v>
+        <v>4.568626081891125e-06</v>
       </c>
       <c r="BU6" t="n">
-        <v>4.01788655514726e-14</v>
+        <v>1.116596649808343e-06</v>
       </c>
       <c r="BV6" t="n">
-        <v>5.816696543913327e-14</v>
+        <v>4.661312686948804e-07</v>
       </c>
       <c r="BW6" t="n">
-        <v>5.39977473000032e-14</v>
+        <v>1.818486111915263e-06</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.088491140754586e-13</v>
+        <v>1.913336063807947e-06</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.166495421306771e-13</v>
+        <v>4.015129434264963e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.189198343748074e-13</v>
+        <v>4.264092012817855e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.070261873646183e-14</v>
+        <v>1.373129862258793e-06</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.397556929124549e-15</v>
+        <v>1.660288035054691e-06</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.384291867402449e-16</v>
+        <v>1.295593278882734e-06</v>
       </c>
       <c r="CD6" t="n">
-        <v>4.368060817563912e-15</v>
+        <v>1.796612707494205e-07</v>
       </c>
       <c r="CE6" t="n">
-        <v>4.972461177077218e-14</v>
+        <v>7.818389349267818e-07</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.697882963782107e-14</v>
+        <v>6.230141593732696e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.307567792446744e-14</v>
+        <v>1.119030571317126e-06</v>
       </c>
       <c r="CH6" t="n">
-        <v>5.910648760796416e-14</v>
+        <v>1.086781082904054e-07</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.415067471836548e-14</v>
+        <v>1.859041276475182e-07</v>
       </c>
       <c r="CJ6" t="n">
-        <v>5.281772198426071e-14</v>
+        <v>6.09177220667334e-07</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.690346047069109e-14</v>
+        <v>2.702458914427552e-07</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.077508240509943e-14</v>
+        <v>1.0927395805993e-06</v>
       </c>
       <c r="CM6" t="n">
-        <v>9.365652784559808e-14</v>
+        <v>3.243206947445287e-08</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.103697618324781e-13</v>
+        <v>2.752297859842656e-06</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.780093000086636e-13</v>
+        <v>3.010266880210111e-07</v>
       </c>
       <c r="CP6" t="n">
-        <v>6.467516680628421e-15</v>
+        <v>1.68719361681724e-06</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.289551283681703e-13</v>
+        <v>4.767187419929542e-06</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.572160842546442e-14</v>
+        <v>1.323393917118665e-06</v>
       </c>
       <c r="CS6" t="n">
-        <v>4.845581062589387e-14</v>
+        <v>6.525048092953512e-07</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.764602782812098e-13</v>
+        <v>4.406516893595835e-07</v>
       </c>
       <c r="CU6" t="n">
-        <v>3.335193585066523e-14</v>
+        <v>6.547068096551811e-06</v>
       </c>
       <c r="CV6" t="n">
-        <v>6.566544996557816e-15</v>
+        <v>1.183126983050897e-07</v>
       </c>
       <c r="CW6" t="n">
-        <v>5.317998781140601e-14</v>
+        <v>1.053362211678177e-06</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.406915252842334e-14</v>
+        <v>1.450274282888131e-07</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.064565880792416e-14</v>
+        <v>9.849229627434397e-07</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.568139842835896e-14</v>
+        <v>1.763189061421144e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.407756391655617e-14</v>
+        <v>6.422355909307953e-07</v>
       </c>
       <c r="DB6" t="n">
-        <v>3.350907740303985e-14</v>
+        <v>1.493958734499756e-07</v>
       </c>
       <c r="DC6" t="n">
-        <v>4.426102903241566e-14</v>
+        <v>1.484412024410631e-07</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.137109205623724e-14</v>
+        <v>7.393906003017037e-07</v>
       </c>
       <c r="DE6" t="n">
-        <v>4.473391397434058e-14</v>
+        <v>1.352392700937344e-06</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.05828316758743e-13</v>
+        <v>3.608180122682825e-06</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.294727771857575e-15</v>
+        <v>4.354554050678416e-07</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.400060758516633e-13</v>
+        <v>3.586673528843676e-06</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.860864282559945e-14</v>
+        <v>6.274387374105572e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>6.245360267354352e-14</v>
+        <v>7.263313364092028e-06</v>
       </c>
       <c r="DK6" t="n">
-        <v>9.152573853974874e-14</v>
+        <v>2.480285274941707e-06</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.359771399211257e-13</v>
+        <v>1.102192868529528e-06</v>
       </c>
       <c r="DM6" t="n">
-        <v>8.158983878054846e-14</v>
+        <v>4.184408226137748e-06</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.698969029427077e-14</v>
+        <v>1.197593178403622e-06</v>
       </c>
       <c r="DO6" t="n">
-        <v>9.917450703982728e-14</v>
+        <v>9.237518270310829e-07</v>
       </c>
       <c r="DP6" t="n">
-        <v>5.622459691833476e-14</v>
+        <v>8.131053164106561e-09</v>
       </c>
       <c r="DQ6" t="n">
-        <v>7.123128313319543e-14</v>
+        <v>1.004673436000303e-06</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.501986552107005e-14</v>
+        <v>5.202637112233788e-06</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.397495942752347e-13</v>
+        <v>1.188765736515052e-06</v>
       </c>
       <c r="DT6" t="n">
-        <v>8.16718247935791e-14</v>
+        <v>2.834045744748437e-06</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.324007499773835e-13</v>
+        <v>8.101201842691808e-08</v>
       </c>
       <c r="DV6" t="n">
-        <v>3.91033912064756e-14</v>
+        <v>3.237738383177202e-06</v>
       </c>
       <c r="DW6" t="n">
-        <v>4.563464542231901e-15</v>
+        <v>1.409007381880656e-06</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.840205487789592e-14</v>
+        <v>1.213975110658794e-06</v>
       </c>
       <c r="DY6" t="n">
-        <v>8.481928741722704e-15</v>
+        <v>4.395330392981123e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.47952925410276e-13</v>
+        <v>2.40905569626193e-06</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.198685451570501e-14</v>
+        <v>2.203135863965144e-06</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.721038437771128e-14</v>
+        <v>9.030119372255285e-07</v>
       </c>
       <c r="EC6" t="n">
-        <v>2.455252221965267e-14</v>
+        <v>7.194370255092508e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>4.472671419428892e-14</v>
+        <v>1.497818743700918e-06</v>
       </c>
       <c r="EE6" t="n">
-        <v>3.31674046409082e-14</v>
+        <v>1.089329998649191e-06</v>
       </c>
       <c r="EF6" t="n">
-        <v>4.074191206843505e-15</v>
+        <v>6.043682105882908e-07</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.869838105964666e-14</v>
+        <v>1.739081312734925e-06</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.862631210836248e-14</v>
+        <v>2.199384425694006e-07</v>
       </c>
       <c r="EI6" t="n">
-        <v>2.484828749010903e-14</v>
+        <v>4.505470769800013e-06</v>
       </c>
       <c r="EJ6" t="n">
-        <v>5.82478130398828e-14</v>
+        <v>9.685768418421503e-07</v>
       </c>
       <c r="EK6" t="n">
-        <v>2.511448876960738e-15</v>
+        <v>3.708584699779749e-06</v>
       </c>
       <c r="EL6" t="n">
-        <v>8.343783427849569e-14</v>
+        <v>3.020455778823816e-06</v>
       </c>
       <c r="EM6" t="n">
-        <v>4.971821158982273e-14</v>
+        <v>1.324461322838033e-06</v>
       </c>
       <c r="EN6" t="n">
-        <v>5.38351406910529e-14</v>
+        <v>6.692872034363972e-07</v>
       </c>
       <c r="EO6" t="n">
-        <v>8.307432839511561e-14</v>
+        <v>1.35930326905509e-06</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.64596863570974e-14</v>
+        <v>1.208135699926061e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.093215601935497e-14</v>
+        <v>9.769838698048261e-07</v>
       </c>
       <c r="ER6" t="n">
-        <v>5.3764094955569e-14</v>
+        <v>1.414251187270565e-07</v>
       </c>
       <c r="ES6" t="n">
-        <v>3.528711475580745e-14</v>
+        <v>8.555326758141746e-08</v>
       </c>
       <c r="ET6" t="n">
-        <v>6.125643595204745e-15</v>
+        <v>1.627463234399329e-06</v>
       </c>
       <c r="EU6" t="n">
-        <v>7.121651087859532e-14</v>
+        <v>2.139508069376461e-06</v>
       </c>
       <c r="EV6" t="n">
-        <v>6.726018261229635e-14</v>
+        <v>5.043284545536153e-07</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.786953221570402e-15</v>
+        <v>7.941997637317399e-07</v>
       </c>
       <c r="EX6" t="n">
-        <v>5.607209033024751e-15</v>
+        <v>2.247196846383304e-07</v>
       </c>
       <c r="EY6" t="n">
-        <v>5.08271979463449e-14</v>
+        <v>8.648370339869871e-07</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.176446735850269e-14</v>
+        <v>5.254954658084898e-07</v>
       </c>
       <c r="FA6" t="n">
-        <v>3.026814638772829e-14</v>
+        <v>1.665670879447134e-06</v>
       </c>
       <c r="FB6" t="n">
-        <v>4.58739796637634e-14</v>
+        <v>3.658752802948584e-07</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.068152405246011e-14</v>
+        <v>1.773442619423804e-07</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.578296784313012e-14</v>
+        <v>5.578727950705797e-07</v>
       </c>
       <c r="FE6" t="n">
-        <v>4.857810185468665e-14</v>
+        <v>4.242590989633754e-07</v>
       </c>
       <c r="FF6" t="n">
-        <v>2.805416150579963e-14</v>
+        <v>2.415091557850246e-07</v>
       </c>
       <c r="FG6" t="n">
-        <v>6.012507522022356e-14</v>
+        <v>5.08170614921255e-07</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.822465229742298e-14</v>
+        <v>1.47521484450408e-06</v>
       </c>
       <c r="FI6" t="n">
-        <v>2.815738602294972e-14</v>
+        <v>1.201898385261302e-06</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.217791074083779e-14</v>
+        <v>3.231282789784018e-06</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.035448446819534e-13</v>
+        <v>2.189958649978507e-06</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.017036661051657e-13</v>
+        <v>1.954545723492629e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.694416566148764e-14</v>
+        <v>8.606688197687618e-07</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.516241830441106e-13</v>
+        <v>1.137027993536321e-06</v>
       </c>
       <c r="FO6" t="n">
-        <v>3.60861310993478e-14</v>
+        <v>2.711178012759774e-06</v>
       </c>
       <c r="FP6" t="n">
-        <v>3.152287323315503e-14</v>
+        <v>2.462899374222616e-06</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.02967168211926e-13</v>
+        <v>1.48256185639184e-06</v>
       </c>
       <c r="FR6" t="n">
-        <v>5.570148969890124e-14</v>
+        <v>3.623362545113196e-06</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.996750068891315e-14</v>
+        <v>3.297699322502012e-07</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.516480134082816e-13</v>
+        <v>4.9022364692064e-06</v>
       </c>
       <c r="FU6" t="n">
-        <v>9.693466732421663e-14</v>
+        <v>6.526309334731195e-06</v>
       </c>
       <c r="FV6" t="n">
-        <v>8.656196961477625e-14</v>
+        <v>7.841019851184683e-07</v>
       </c>
       <c r="FW6" t="n">
-        <v>4.656584633947608e-14</v>
+        <v>2.822781652866979e-07</v>
       </c>
       <c r="FX6" t="n">
-        <v>4.173072816666436e-14</v>
+        <v>4.543827287761815e-07</v>
       </c>
       <c r="FY6" t="n">
-        <v>7.660821778917963e-15</v>
+        <v>1.410278628100059e-06</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.404076236787705e-13</v>
+        <v>2.023879233092885e-06</v>
       </c>
       <c r="GA6" t="n">
-        <v>4.162758327061131e-14</v>
+        <v>3.099122068306315e-06</v>
       </c>
       <c r="GB6" t="n">
-        <v>8.388743259063469e-14</v>
+        <v>1.406039132234582e-06</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.825690374843933e-14</v>
+        <v>1.535044361844484e-06</v>
       </c>
       <c r="GD6" t="n">
-        <v>2.668058746754364e-14</v>
+        <v>1.456953441447695e-06</v>
       </c>
       <c r="GE6" t="n">
-        <v>5.413339115617651e-14</v>
+        <v>5.563827926380327e-06</v>
       </c>
       <c r="GF6" t="n">
-        <v>2.813496167270411e-14</v>
+        <v>5.513395990419667e-06</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.194066224547615e-14</v>
+        <v>6.281939477048581e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.931259928118379e-07</v>
+        <v>2.894118833474124e-10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.256659286103968e-07</v>
+        <v>3.909277623836971e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>7.540090791735565e-07</v>
+        <v>2.673969101696372e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.026194579229923e-06</v>
+        <v>1.229676915848188e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>8.186177069546829e-07</v>
+        <v>3.448420715645995e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>2.825814817697392e-07</v>
+        <v>2.27923777074146e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>5.716597684113367e-08</v>
+        <v>8.025983766479783e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4936571801627e-07</v>
+        <v>2.065377036064575e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>4.89887383992027e-07</v>
+        <v>8.032813303415764e-11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.44283080266905e-07</v>
+        <v>1.478691058487414e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>3.546099662798952e-07</v>
+        <v>2.207245636265398e-10</v>
       </c>
       <c r="L7" t="n">
-        <v>7.953382237246842e-07</v>
+        <v>3.270727022552933e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.770708877302241e-06</v>
+        <v>2.455141090429436e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>1.892441900963604e-06</v>
+        <v>1.431606166946153e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>7.198875096037227e-07</v>
+        <v>1.142788641494974e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>4.340170107752783e-07</v>
+        <v>3.416106841847011e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.527338539148332e-07</v>
+        <v>9.810213058569772e-11</v>
       </c>
       <c r="R7" t="n">
-        <v>6.832408416812541e-07</v>
+        <v>2.96400071153613e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>2.171986182020191e-07</v>
+        <v>9.839784542720054e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>2.445681275276002e-07</v>
+        <v>4.577331569333154e-11</v>
       </c>
       <c r="U7" t="n">
-        <v>4.241612998612254e-07</v>
+        <v>9.011619922505432e-11</v>
       </c>
       <c r="V7" t="n">
-        <v>2.786258903597627e-07</v>
+        <v>1.309680142114189e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.840169261413394e-06</v>
+        <v>3.631754896815664e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>1.7151344877675e-07</v>
+        <v>3.992136066166552e-10</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.211463781686689e-08</v>
+        <v>1.501071766885076e-10</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.677760673781449e-07</v>
+        <v>1.019151013581521e-10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.802283560754404e-08</v>
+        <v>4.164135702922067e-11</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.273911938274978e-07</v>
+        <v>5.885332499122597e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.251673040769674e-07</v>
+        <v>1.096350094043075e-11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.020734986122989e-07</v>
+        <v>3.256897251890933e-10</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.305482891846623e-07</v>
+        <v>5.394095170530022e-10</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.865170642962767e-07</v>
+        <v>2.431555512494299e-10</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.585036244478033e-07</v>
+        <v>2.20051477040073e-10</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.140038984383864e-08</v>
+        <v>1.052075232488292e-10</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.000847700855957e-07</v>
+        <v>2.206747284905219e-10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.697572191820655e-09</v>
+        <v>2.708280544272412e-10</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.361517878554878e-07</v>
+        <v>3.483640459434056e-11</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.138622565122205e-07</v>
+        <v>4.958550237077475e-11</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.770275730450521e-07</v>
+        <v>1.318303105568575e-12</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.914588084327988e-07</v>
+        <v>2.38881053826745e-10</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.99098496473016e-08</v>
+        <v>4.67930805214678e-10</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.457939664665901e-07</v>
+        <v>6.522105078232698e-11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.309442023346492e-08</v>
+        <v>1.208236843908139e-10</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.665889422194596e-09</v>
+        <v>2.126565312732254e-10</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.590514114331199e-08</v>
+        <v>4.872005576750382e-12</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.782381329780037e-07</v>
+        <v>1.100684265953333e-10</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.303655032344977e-08</v>
+        <v>5.106229328255552e-10</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.096564450468577e-07</v>
+        <v>1.156366599697201e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.262053388018103e-06</v>
+        <v>8.0385587075682e-11</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.745300520246019e-08</v>
+        <v>2.158963702258987e-10</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.689965216655764e-07</v>
+        <v>2.19721837946274e-10</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.731308654801978e-07</v>
+        <v>6.19526929757086e-11</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.640120323529118e-07</v>
+        <v>2.773127283361987e-10</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.881380846200045e-07</v>
+        <v>3.778004020738024e-10</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.690776739200373e-07</v>
+        <v>1.076864847293635e-10</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.467949175548711e-07</v>
+        <v>1.635693108736902e-10</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.576891742795851e-07</v>
+        <v>2.517250852207553e-10</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.259824784938246e-06</v>
+        <v>6.518757755813454e-12</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.279883683011576e-07</v>
+        <v>3.085014188553004e-10</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.416459210508037e-07</v>
+        <v>8.645145710417523e-11</v>
       </c>
       <c r="BI7" t="n">
-        <v>3.374432253622217e-07</v>
+        <v>5.724568041820532e-11</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.364979050957118e-08</v>
+        <v>2.240056612423658e-10</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.172624746776819e-08</v>
+        <v>4.6052389679474e-10</v>
       </c>
       <c r="BL7" t="n">
-        <v>5.131341822561808e-07</v>
+        <v>9.809206225064315e-11</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.872421648840827e-07</v>
+        <v>3.578379259572273e-10</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.565195131865039e-07</v>
+        <v>1.913416994292483e-11</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.160069729166935e-07</v>
+        <v>1.208554367693182e-10</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.046425381900917e-06</v>
+        <v>8.248483007733398e-10</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.654977890870214e-07</v>
+        <v>3.43766098920284e-10</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.747374310274608e-07</v>
+        <v>2.53964932417361e-10</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.305273542584473e-07</v>
+        <v>3.076470467267001e-10</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.064345696022428e-07</v>
+        <v>6.412786968112982e-12</v>
       </c>
       <c r="BU7" t="n">
-        <v>5.599094379249436e-07</v>
+        <v>3.893951827649289e-11</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.899927326576289e-07</v>
+        <v>2.382989083837828e-10</v>
       </c>
       <c r="BW7" t="n">
-        <v>8.487042890692464e-08</v>
+        <v>5.639404915269708e-11</v>
       </c>
       <c r="BX7" t="n">
-        <v>8.284273462777492e-07</v>
+        <v>1.667687793416306e-10</v>
       </c>
       <c r="BY7" t="n">
-        <v>4.72012118279963e-08</v>
+        <v>5.921790280360995e-10</v>
       </c>
       <c r="BZ7" t="n">
-        <v>8.737086432120122e-07</v>
+        <v>1.461363530186333e-10</v>
       </c>
       <c r="CA7" t="n">
-        <v>2.230544851045124e-07</v>
+        <v>1.19323800840121e-10</v>
       </c>
       <c r="CB7" t="n">
-        <v>2.255124513794726e-07</v>
+        <v>1.120019355038693e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>6.025537402365444e-08</v>
+        <v>1.686005501877474e-10</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.562507290804206e-07</v>
+        <v>5.823536791682571e-11</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.148063546452249e-07</v>
+        <v>6.605057473185738e-11</v>
       </c>
       <c r="CF7" t="n">
-        <v>9.576149295753567e-08</v>
+        <v>4.400981662433523e-11</v>
       </c>
       <c r="CG7" t="n">
-        <v>5.271613190416247e-07</v>
+        <v>6.344248737466529e-11</v>
       </c>
       <c r="CH7" t="n">
-        <v>2.662320355284464e-07</v>
+        <v>4.539175979534349e-11</v>
       </c>
       <c r="CI7" t="n">
-        <v>8.226058412219572e-08</v>
+        <v>1.072088667841697e-10</v>
       </c>
       <c r="CJ7" t="n">
-        <v>8.132190920662197e-09</v>
+        <v>1.335742350061508e-10</v>
       </c>
       <c r="CK7" t="n">
-        <v>2.861610681748061e-08</v>
+        <v>5.769575442404751e-11</v>
       </c>
       <c r="CL7" t="n">
-        <v>2.392101237091993e-07</v>
+        <v>1.170697011554367e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>4.699623801229791e-08</v>
+        <v>8.015640234892984e-11</v>
       </c>
       <c r="CN7" t="n">
-        <v>8.159440767485648e-08</v>
+        <v>1.562764223583812e-10</v>
       </c>
       <c r="CO7" t="n">
-        <v>7.255123080085468e-08</v>
+        <v>1.288420481415642e-10</v>
       </c>
       <c r="CP7" t="n">
-        <v>9.303408319283335e-07</v>
+        <v>1.272437710753138e-10</v>
       </c>
       <c r="CQ7" t="n">
-        <v>7.230954679471324e-08</v>
+        <v>2.950991950800841e-10</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.042675648932345e-06</v>
+        <v>2.59872678931572e-12</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.565228160416154e-07</v>
+        <v>4.44503378549399e-10</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.327853631025391e-08</v>
+        <v>3.350347221875438e-10</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.737170573003823e-08</v>
+        <v>2.226972217744816e-10</v>
       </c>
       <c r="CV7" t="n">
-        <v>2.165276669074956e-07</v>
+        <v>2.427567868945602e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>6.995144730126412e-08</v>
+        <v>6.163006910364643e-11</v>
       </c>
       <c r="CX7" t="n">
-        <v>4.240894568852127e-08</v>
+        <v>2.774276294803535e-11</v>
       </c>
       <c r="CY7" t="n">
-        <v>4.406911102705635e-07</v>
+        <v>1.220366863119438e-11</v>
       </c>
       <c r="CZ7" t="n">
-        <v>2.510677745704015e-07</v>
+        <v>2.01520779230524e-11</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.575196209723799e-08</v>
+        <v>1.074076938500923e-10</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.217520389535821e-08</v>
+        <v>1.725452419831797e-10</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.055924390262589e-08</v>
+        <v>5.588271512202425e-11</v>
       </c>
       <c r="DD7" t="n">
-        <v>2.312362994416617e-07</v>
+        <v>2.888226463548804e-11</v>
       </c>
       <c r="DE7" t="n">
-        <v>6.693404657198698e-07</v>
+        <v>2.127477499724861e-10</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.835403224959009e-07</v>
+        <v>7.092542109177202e-10</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.379678107899963e-07</v>
+        <v>2.315116709450393e-10</v>
       </c>
       <c r="DH7" t="n">
-        <v>6.154813831926731e-07</v>
+        <v>7.2454520161358e-10</v>
       </c>
       <c r="DI7" t="n">
-        <v>5.15745284701552e-07</v>
+        <v>6.152553466698407e-10</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.845518451977114e-07</v>
+        <v>4.134261266663941e-10</v>
       </c>
       <c r="DK7" t="n">
-        <v>3.039459954834456e-07</v>
+        <v>4.64614402506669e-10</v>
       </c>
       <c r="DL7" t="n">
-        <v>5.070692736808269e-07</v>
+        <v>3.935834158586005e-10</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.305158801618745e-07</v>
+        <v>1.302245256074031e-10</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.483765146303995e-07</v>
+        <v>4.937194750254115e-12</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.94661041064137e-07</v>
+        <v>1.948120831318789e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.912033837925264e-07</v>
+        <v>9.347312507346217e-11</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.522412276244722e-07</v>
+        <v>2.000826310188941e-10</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.736863393693056e-07</v>
+        <v>1.86468243623672e-10</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.814498631347305e-07</v>
+        <v>4.763885813607871e-11</v>
       </c>
       <c r="DT7" t="n">
-        <v>2.087957682306296e-07</v>
+        <v>2.951948130380799e-10</v>
       </c>
       <c r="DU7" t="n">
-        <v>2.918770576343377e-07</v>
+        <v>1.409289629439314e-10</v>
       </c>
       <c r="DV7" t="n">
-        <v>2.44867123910808e-07</v>
+        <v>3.023939779134288e-11</v>
       </c>
       <c r="DW7" t="n">
-        <v>1.08961820899367e-07</v>
+        <v>2.241092034171999e-11</v>
       </c>
       <c r="DX7" t="n">
-        <v>5.523406230167893e-07</v>
+        <v>1.403266391974967e-10</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.470908728151699e-08</v>
+        <v>1.653333719930927e-10</v>
       </c>
       <c r="DZ7" t="n">
-        <v>6.278755222410837e-07</v>
+        <v>1.344025724048237e-10</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.250477055236843e-07</v>
+        <v>3.792296338067658e-11</v>
       </c>
       <c r="EB7" t="n">
-        <v>2.001320211775237e-07</v>
+        <v>1.407496064143032e-10</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.956432230253995e-08</v>
+        <v>5.246361331479044e-11</v>
       </c>
       <c r="ED7" t="n">
-        <v>3.255499336773937e-07</v>
+        <v>3.194949582674411e-10</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.372430003561021e-07</v>
+        <v>1.187550613401811e-10</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.238531493503615e-07</v>
+        <v>1.478304111068862e-11</v>
       </c>
       <c r="EG7" t="n">
-        <v>9.782203136410317e-08</v>
+        <v>1.62578381313061e-10</v>
       </c>
       <c r="EH7" t="n">
-        <v>4.844251577651448e-08</v>
+        <v>6.984775258178644e-11</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.952801653715142e-08</v>
+        <v>2.242339508518043e-10</v>
       </c>
       <c r="EJ7" t="n">
-        <v>2.242771728333537e-07</v>
+        <v>2.393871906258838e-11</v>
       </c>
       <c r="EK7" t="n">
-        <v>3.971445607930946e-07</v>
+        <v>2.104777047096107e-10</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.025439573254516e-07</v>
+        <v>2.022201329998641e-11</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.917496644272433e-08</v>
+        <v>7.435130983113325e-11</v>
       </c>
       <c r="EN7" t="n">
-        <v>4.406983578064683e-08</v>
+        <v>4.201773651235641e-11</v>
       </c>
       <c r="EO7" t="n">
-        <v>7.177713996497914e-07</v>
+        <v>7.093228782117933e-11</v>
       </c>
       <c r="EP7" t="n">
-        <v>3.180199428243213e-07</v>
+        <v>7.026772913532042e-11</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.307769394998104e-07</v>
+        <v>7.978560173649285e-11</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.72321847458079e-07</v>
+        <v>2.831641587874856e-10</v>
       </c>
       <c r="ES7" t="n">
-        <v>3.485182844542578e-07</v>
+        <v>2.718365810228107e-11</v>
       </c>
       <c r="ET7" t="n">
-        <v>1.450847832984437e-07</v>
+        <v>4.269211373308934e-11</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.358953340968583e-07</v>
+        <v>3.931439548909843e-11</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.132701044070927e-07</v>
+        <v>9.989151172895561e-11</v>
       </c>
       <c r="EW7" t="n">
-        <v>5.800394120569763e-08</v>
+        <v>1.536235305632516e-10</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.67264033734682e-07</v>
+        <v>2.076958396934891e-11</v>
       </c>
       <c r="EY7" t="n">
-        <v>4.896086736039251e-08</v>
+        <v>1.795421797345931e-11</v>
       </c>
       <c r="EZ7" t="n">
-        <v>3.086040578637039e-08</v>
+        <v>2.632450507578099e-11</v>
       </c>
       <c r="FA7" t="n">
-        <v>2.945207029370067e-07</v>
+        <v>2.590733877427809e-11</v>
       </c>
       <c r="FB7" t="n">
-        <v>3.719082428688125e-07</v>
+        <v>3.223105810024052e-11</v>
       </c>
       <c r="FC7" t="n">
-        <v>9.945378565134888e-08</v>
+        <v>1.969197027662517e-10</v>
       </c>
       <c r="FD7" t="n">
-        <v>5.310945638825615e-08</v>
+        <v>1.705168645171895e-10</v>
       </c>
       <c r="FE7" t="n">
-        <v>2.326959602783063e-08</v>
+        <v>7.374875710119966e-11</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.583278788075404e-07</v>
+        <v>1.489142142929722e-11</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.782062923894046e-07</v>
+        <v>9.936109227060008e-12</v>
       </c>
       <c r="FH7" t="n">
-        <v>3.537111297191586e-07</v>
+        <v>1.584528758202808e-10</v>
       </c>
       <c r="FI7" t="n">
-        <v>3.17430362883897e-07</v>
+        <v>9.1728173667871e-11</v>
       </c>
       <c r="FJ7" t="n">
-        <v>3.761526841117302e-07</v>
+        <v>1.354108075668492e-10</v>
       </c>
       <c r="FK7" t="n">
-        <v>3.993433494997589e-07</v>
+        <v>2.710690005791605e-11</v>
       </c>
       <c r="FL7" t="n">
-        <v>5.139335712556203e-08</v>
+        <v>6.044348355160878e-11</v>
       </c>
       <c r="FM7" t="n">
-        <v>7.874618290770741e-08</v>
+        <v>1.428719087481767e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.327465639633374e-07</v>
+        <v>1.290668683040508e-10</v>
       </c>
       <c r="FO7" t="n">
-        <v>5.81415065425972e-07</v>
+        <v>2.802590937101002e-10</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.143723634162598e-07</v>
+        <v>2.544217614364186e-10</v>
       </c>
       <c r="FQ7" t="n">
-        <v>1.566167071587188e-07</v>
+        <v>5.565958804965021e-10</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.968410714425772e-07</v>
+        <v>1.891924117369825e-10</v>
       </c>
       <c r="FS7" t="n">
-        <v>7.396929504466243e-07</v>
+        <v>6.835385035763863e-11</v>
       </c>
       <c r="FT7" t="n">
-        <v>4.139344298437209e-07</v>
+        <v>1.664809540224965e-10</v>
       </c>
       <c r="FU7" t="n">
-        <v>9.235537845597719e-08</v>
+        <v>2.817075184236018e-10</v>
       </c>
       <c r="FV7" t="n">
-        <v>1.49083390965643e-07</v>
+        <v>1.207089983523701e-11</v>
       </c>
       <c r="FW7" t="n">
-        <v>4.858036959376477e-07</v>
+        <v>1.534434385108696e-10</v>
       </c>
       <c r="FX7" t="n">
-        <v>4.286080184101593e-07</v>
+        <v>2.889939676453679e-11</v>
       </c>
       <c r="FY7" t="n">
-        <v>3.349921939843625e-07</v>
+        <v>7.007880387099874e-12</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.991948010982014e-07</v>
+        <v>1.569811086676864e-10</v>
       </c>
       <c r="GA7" t="n">
-        <v>3.81019447104336e-08</v>
+        <v>4.213184523482738e-10</v>
       </c>
       <c r="GB7" t="n">
-        <v>7.76567048887955e-07</v>
+        <v>6.497949400774417e-11</v>
       </c>
       <c r="GC7" t="n">
-        <v>4.736469350063999e-07</v>
+        <v>3.391952274611754e-10</v>
       </c>
       <c r="GD7" t="n">
-        <v>3.744709147213143e-07</v>
+        <v>4.257967312071287e-10</v>
       </c>
       <c r="GE7" t="n">
-        <v>5.078325671092898e-08</v>
+        <v>1.549992079130647e-10</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.998766094857274e-07</v>
+        <v>5.127947372285391e-11</v>
       </c>
       <c r="GG7" t="n">
-        <v>4.194749294583744e-07</v>
+        <v>1.937400101459374e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.893141015647416e-08</v>
+        <v>0.0007912904256954789</v>
       </c>
       <c r="B9" t="n">
-        <v>8.099469823719119e-07</v>
+        <v>0.006963213440030813</v>
       </c>
       <c r="C9" t="n">
-        <v>2.747960365923063e-07</v>
+        <v>0.0008649448282085359</v>
       </c>
       <c r="D9" t="n">
-        <v>1.154227788902062e-06</v>
+        <v>0.003683819668367505</v>
       </c>
       <c r="E9" t="n">
-        <v>1.453177560506447e-07</v>
+        <v>0.001732517499476671</v>
       </c>
       <c r="F9" t="n">
-        <v>6.739354603269021e-07</v>
+        <v>0.00165660516358912</v>
       </c>
       <c r="G9" t="n">
-        <v>2.852677880582632e-07</v>
+        <v>0.0004042154178023338</v>
       </c>
       <c r="H9" t="n">
-        <v>1.22770273947026e-07</v>
+        <v>0.0007118902867659926</v>
       </c>
       <c r="I9" t="n">
-        <v>1.131665840148344e-06</v>
+        <v>0.001016485970467329</v>
       </c>
       <c r="J9" t="n">
-        <v>3.350576776028902e-07</v>
+        <v>0.00140765868127346</v>
       </c>
       <c r="K9" t="n">
-        <v>3.59677017058857e-07</v>
+        <v>0.005162277724593878</v>
       </c>
       <c r="L9" t="n">
-        <v>4.227068473028339e-07</v>
+        <v>0.0001560529053676873</v>
       </c>
       <c r="M9" t="n">
-        <v>1.277633373319986e-06</v>
+        <v>0.003368377918377519</v>
       </c>
       <c r="N9" t="n">
-        <v>5.030347551837622e-07</v>
+        <v>0.002069295383989811</v>
       </c>
       <c r="O9" t="n">
-        <v>4.956089583174617e-08</v>
+        <v>0.002773453248664737</v>
       </c>
       <c r="P9" t="n">
-        <v>2.058628183476685e-07</v>
+        <v>1.959878136403859e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.420464457169146e-07</v>
+        <v>0.000329194706864655</v>
       </c>
       <c r="R9" t="n">
-        <v>9.409238828084199e-07</v>
+        <v>0.001218141638673842</v>
       </c>
       <c r="S9" t="n">
-        <v>2.635387659211119e-07</v>
+        <v>9.199338092003018e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>3.983208429758633e-08</v>
+        <v>0.0004303591558709741</v>
       </c>
       <c r="U9" t="n">
-        <v>1.087639560637399e-07</v>
+        <v>0.0003888037463184446</v>
       </c>
       <c r="V9" t="n">
-        <v>2.076487248814374e-08</v>
+        <v>0.001216477015987039</v>
       </c>
       <c r="W9" t="n">
-        <v>9.997635288527817e-07</v>
+        <v>0.00159093807451427</v>
       </c>
       <c r="X9" t="n">
-        <v>2.712254740799835e-07</v>
+        <v>6.437234696932137e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.324845974679192e-07</v>
+        <v>0.0007017864845693111</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.733121438173839e-08</v>
+        <v>0.0004557601059786975</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.067912620555944e-07</v>
+        <v>0.0006773834466002882</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.393953136310301e-07</v>
+        <v>0.000133630441268906</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.208598519042425e-07</v>
+        <v>0.00130923290271312</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.320757689882157e-07</v>
+        <v>0.000287766830297187</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.339196558092226e-07</v>
+        <v>0.000229055032832548</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.455077835998964e-07</v>
+        <v>0.0008753067813813686</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.62184528310172e-07</v>
+        <v>0.0005692457780241966</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.959875058029866e-08</v>
+        <v>0.0001460396451875567</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.898093201674783e-08</v>
+        <v>1.057517147273757e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.65134736107575e-07</v>
+        <v>0.0003335698565933853</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.614308982629154e-07</v>
+        <v>0.0004808729281648993</v>
       </c>
       <c r="AL9" t="n">
-        <v>7.759825138009546e-08</v>
+        <v>0.0006541645270772278</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.44964559467553e-07</v>
+        <v>5.858032091055065e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.252535177329264e-07</v>
+        <v>0.0001763394539011642</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.728708447032659e-08</v>
+        <v>0.001073815277777612</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.395790256239707e-07</v>
+        <v>0.0009300487581640482</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.576822737410112e-07</v>
+        <v>0.0001462416548747569</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.240212506256285e-08</v>
+        <v>0.00011004030238837</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.735750174702844e-07</v>
+        <v>0.0006126280641183257</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.418483249921337e-08</v>
+        <v>6.220309296622872e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.248227192718332e-07</v>
+        <v>0.00438349274918437</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.10915031825698e-07</v>
+        <v>4.375637217890471e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.636190513134352e-07</v>
+        <v>0.001173520111478865</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.673475509278433e-07</v>
+        <v>0.0007980277296155691</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.230475833035598e-07</v>
+        <v>0.0008169611101038754</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.104113778183091e-07</v>
+        <v>0.0009379962575621903</v>
       </c>
       <c r="BA9" t="n">
-        <v>6.601855062626782e-08</v>
+        <v>0.0008246222278103232</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.810730563851394e-07</v>
+        <v>0.0003509781090542674</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.220107262473903e-07</v>
+        <v>0.0001690774952294305</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.891202939281357e-07</v>
+        <v>0.001774443895556033</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.973140453832457e-07</v>
+        <v>0.001548528671264648</v>
       </c>
       <c r="BF9" t="n">
-        <v>7.109638318070211e-07</v>
+        <v>0.0005057164817117155</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.832927634699445e-07</v>
+        <v>0.001550997723825276</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.766742911968322e-07</v>
+        <v>0.001221064245328307</v>
       </c>
       <c r="BI9" t="n">
-        <v>3.484602757453104e-07</v>
+        <v>0.0007560009253211319</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.840856438979245e-07</v>
+        <v>0.0003259979421272874</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.228384563655709e-07</v>
+        <v>0.0008405468543060124</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.217675157429767e-07</v>
+        <v>0.0004395539290271699</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.794187625137056e-07</v>
+        <v>0.0008786273538134992</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.97063227350236e-08</v>
+        <v>0.0006074109114706516</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.265963559011652e-07</v>
+        <v>6.034522084519267e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.321355776137352e-08</v>
+        <v>0.0007179794483818114</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.538700757919287e-07</v>
+        <v>0.0007068333216011524</v>
       </c>
       <c r="BR9" t="n">
-        <v>6.561783294500856e-08</v>
+        <v>0.0001245737366843969</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.417744641685204e-07</v>
+        <v>0.000138093950226903</v>
       </c>
       <c r="BT9" t="n">
-        <v>3.75817080566776e-07</v>
+        <v>0.0002907018351834267</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.026489767104067e-07</v>
+        <v>0.0001774240809027106</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.03389677217092e-08</v>
+        <v>0.002180635463446379</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.886160643811309e-09</v>
+        <v>0.0005234594573266804</v>
       </c>
       <c r="BX9" t="n">
-        <v>7.278379712261085e-07</v>
+        <v>0.001190810231491923</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.753638739250164e-07</v>
+        <v>0.0004161761025898159</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.052888478625391e-07</v>
+        <v>0.0004607433802448213</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.221012269070343e-07</v>
+        <v>0.0002122403238900006</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.801437173933664e-07</v>
+        <v>0.0005980860441923141</v>
       </c>
       <c r="CC9" t="n">
-        <v>7.251696274579444e-07</v>
+        <v>0.0008152886875905097</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.76797300355247e-07</v>
+        <v>0.0002489591133780777</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.678747736377773e-07</v>
+        <v>0.00116163631901145</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.778634484139729e-08</v>
+        <v>0.0004660101549234241</v>
       </c>
       <c r="CG9" t="n">
-        <v>3.089250242283015e-07</v>
+        <v>0.0004415094444993883</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.570803362938022e-07</v>
+        <v>4.166192229604349e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.301252806091725e-07</v>
+        <v>0.0003460060397628695</v>
       </c>
       <c r="CJ9" t="n">
-        <v>3.49381785724745e-08</v>
+        <v>0.0001468524424126372</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.233667177302777e-07</v>
+        <v>6.529634993057698e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>7.117590428151743e-08</v>
+        <v>0.0001195626828121021</v>
       </c>
       <c r="CM9" t="n">
-        <v>4.207913661957718e-08</v>
+        <v>0.0007414098945446312</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.50513372432215e-07</v>
+        <v>0.000378573196940124</v>
       </c>
       <c r="CO9" t="n">
-        <v>2.090813211452769e-08</v>
+        <v>0.0004788295191247016</v>
       </c>
       <c r="CP9" t="n">
-        <v>7.398963361993083e-07</v>
+        <v>0.0007155988132581115</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.24017150887812e-07</v>
+        <v>4.121757228858769e-05</v>
       </c>
       <c r="CR9" t="n">
-        <v>4.204447350275586e-07</v>
+        <v>0.0001349192461930215</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.285786765947705e-08</v>
+        <v>0.001025055418722332</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.129656794773837e-07</v>
+        <v>0.001110141747631133</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.265102748173376e-07</v>
+        <v>8.65693436935544e-07</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.84538379244259e-07</v>
+        <v>0.0002375656040385365</v>
       </c>
       <c r="CW9" t="n">
-        <v>2.246004271455604e-07</v>
+        <v>0.00094188580987975</v>
       </c>
       <c r="CX9" t="n">
-        <v>2.325010228787505e-08</v>
+        <v>0.0005911737098358572</v>
       </c>
       <c r="CY9" t="n">
-        <v>3.186420940437529e-07</v>
+        <v>0.0006227815174497664</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.576072321540778e-07</v>
+        <v>0.0001276016992051154</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.458886913496826e-07</v>
+        <v>0.0002786602708511055</v>
       </c>
       <c r="DB9" t="n">
-        <v>6.30408578672359e-08</v>
+        <v>0.0001787889195838943</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.291879207585225e-08</v>
+        <v>0.0001506995467934757</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.490678585014393e-07</v>
+        <v>0.0001454232988180593</v>
       </c>
       <c r="DE9" t="n">
-        <v>3.215779429410759e-07</v>
+        <v>0.00062999950023368</v>
       </c>
       <c r="DF9" t="n">
-        <v>4.250030372077163e-07</v>
+        <v>0.0005299545009620488</v>
       </c>
       <c r="DG9" t="n">
-        <v>4.043957630983641e-07</v>
+        <v>0.000605075154453516</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.739494675552123e-07</v>
+        <v>0.002537080319598317</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.761524910965818e-07</v>
+        <v>0.00167538842651993</v>
       </c>
       <c r="DJ9" t="n">
-        <v>6.242414087864745e-07</v>
+        <v>0.0005703526549041271</v>
       </c>
       <c r="DK9" t="n">
-        <v>5.001699605600152e-07</v>
+        <v>0.0007745783659629524</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.064484990820347e-06</v>
+        <v>0.0007518348284065723</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.919020746754541e-07</v>
+        <v>0.0002008741139434278</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.105554972014033e-07</v>
+        <v>0.0006092935218475759</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.280002485756995e-07</v>
+        <v>0.0005091142957098782</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.837108598579107e-08</v>
+        <v>0.0003804017324000597</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.893156564847231e-07</v>
+        <v>0.0004128241562284529</v>
       </c>
       <c r="DR9" t="n">
-        <v>4.41989584487601e-07</v>
+        <v>0.0004882831708528101</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.576783859036368e-07</v>
+        <v>0.000491100421641022</v>
       </c>
       <c r="DT9" t="n">
-        <v>8.679857899096532e-08</v>
+        <v>0.0003163405926898122</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.29107060995193e-09</v>
+        <v>7.974135951371863e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>9.83371819529566e-08</v>
+        <v>0.0004949257127009332</v>
       </c>
       <c r="DW9" t="n">
-        <v>1.295341718332566e-07</v>
+        <v>5.699809116777033e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.39696754281249e-07</v>
+        <v>0.0002490959304850549</v>
       </c>
       <c r="DY9" t="n">
-        <v>8.705585230472934e-08</v>
+        <v>0.0008013571496121585</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.201867002644576e-07</v>
+        <v>1.700551365502179e-06</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.239133951003168e-08</v>
+        <v>0.000281776039628312</v>
       </c>
       <c r="EB9" t="n">
-        <v>3.824550560693751e-07</v>
+        <v>0.0002533782972022891</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.957556605702848e-08</v>
+        <v>0.00016156212950591</v>
       </c>
       <c r="ED9" t="n">
-        <v>5.658437629563196e-08</v>
+        <v>0.0003093742416240275</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.921897023748897e-07</v>
+        <v>0.0001593028282513842</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.213023921309286e-07</v>
+        <v>5.106967000756413e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.655973989045378e-07</v>
+        <v>0.0008447696454823017</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.534930902380438e-07</v>
+        <v>0.0001951083249878138</v>
       </c>
       <c r="EI9" t="n">
-        <v>3.909054555606417e-07</v>
+        <v>0.0003508071531541646</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.006935832492672e-07</v>
+        <v>0.0006126294028945267</v>
       </c>
       <c r="EK9" t="n">
-        <v>2.4552318222959e-07</v>
+        <v>0.0001238839904544875</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.987084203847189e-07</v>
+        <v>0.0002022194094024599</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.580727596068755e-07</v>
+        <v>5.490868716151454e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.369267662061247e-07</v>
+        <v>4.381079997983761e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>2.927333753177663e-07</v>
+        <v>0.0003351586638018489</v>
       </c>
       <c r="EP9" t="n">
-        <v>2.013590290061984e-07</v>
+        <v>0.0008054833742789924</v>
       </c>
       <c r="EQ9" t="n">
-        <v>6.027318022461259e-08</v>
+        <v>0.000286302762106061</v>
       </c>
       <c r="ER9" t="n">
-        <v>8.553794828003447e-08</v>
+        <v>0.0005517832469195127</v>
       </c>
       <c r="ES9" t="n">
-        <v>8.927257511004427e-08</v>
+        <v>4.038011320517398e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.914766443178451e-07</v>
+        <v>0.001455732621252537</v>
       </c>
       <c r="EU9" t="n">
-        <v>8.336469647929334e-08</v>
+        <v>0.0007020377088338137</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.757635459398443e-07</v>
+        <v>0.0006936300196684897</v>
       </c>
       <c r="EW9" t="n">
-        <v>3.750645305444777e-08</v>
+        <v>9.392884385306388e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.738087149760759e-07</v>
+        <v>0.0001494041061960161</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.360913159942356e-07</v>
+        <v>0.0008606088231317699</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.48581031314643e-08</v>
+        <v>0.0003199341299477965</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.816683266042673e-07</v>
+        <v>0.0005897662485949695</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.536677925490949e-07</v>
+        <v>0.0001491055736551061</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.410002994362003e-07</v>
+        <v>0.0004453093861229718</v>
       </c>
       <c r="FD9" t="n">
-        <v>4.75139927402779e-09</v>
+        <v>0.0002974506351165473</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.720682346080139e-08</v>
+        <v>0.0001434595178579912</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.205246687481122e-07</v>
+        <v>0.000290204567136243</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.030925105283131e-07</v>
+        <v>9.993774438044056e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.295482405794246e-07</v>
+        <v>0.0002034336066571996</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.518196199867816e-07</v>
+        <v>0.0001454087614547461</v>
       </c>
       <c r="FJ9" t="n">
-        <v>5.397154012598548e-08</v>
+        <v>0.0003799024561885744</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.48821030165891e-07</v>
+        <v>0.0001173286364064552</v>
       </c>
       <c r="FL9" t="n">
-        <v>4.403718776302412e-07</v>
+        <v>0.0001357110886601731</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.688939500534616e-07</v>
+        <v>1.442196662537754e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>3.015969127773133e-07</v>
+        <v>0.0003640326322056353</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.231293111914056e-07</v>
+        <v>5.267962842481211e-05</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.936077467235009e-07</v>
+        <v>0.0007823668420314789</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.721707008073281e-07</v>
+        <v>0.0001828325039241463</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.468741288590536e-07</v>
+        <v>0.0004622621927410364</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.710029889385623e-08</v>
+        <v>0.0004167331499047577</v>
       </c>
       <c r="FT9" t="n">
-        <v>7.746217534077005e-07</v>
+        <v>0.000271379976766184</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.227746591643154e-07</v>
+        <v>5.161878652870655e-05</v>
       </c>
       <c r="FV9" t="n">
-        <v>9.116011057130891e-09</v>
+        <v>0.0006770299514755607</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.586072014310048e-07</v>
+        <v>6.617780309170485e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.399802442847431e-07</v>
+        <v>1.757531572366133e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.676554575169575e-07</v>
+        <v>0.0005224694032222033</v>
       </c>
       <c r="FZ9" t="n">
-        <v>8.792451211547814e-09</v>
+        <v>0.0003418028936721385</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.059409981962744e-08</v>
+        <v>0.000371541187632829</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.42309852183098e-08</v>
+        <v>8.37270199554041e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.400552207542205e-07</v>
+        <v>0.0005261267069727182</v>
       </c>
       <c r="GD9" t="n">
-        <v>9.726939254051103e-09</v>
+        <v>0.0006142852362245321</v>
       </c>
       <c r="GE9" t="n">
-        <v>9.652288213146676e-08</v>
+        <v>0.00182050745934248</v>
       </c>
       <c r="GF9" t="n">
-        <v>2.292942724579916e-07</v>
+        <v>0.0003856857365462929</v>
       </c>
       <c r="GG9" t="n">
-        <v>4.332962646458327e-07</v>
+        <v>0.0002760966308414936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.906120345069212e-07</v>
+        <v>0.01019407715648413</v>
       </c>
       <c r="B10" t="n">
-        <v>1.52737925418478e-06</v>
+        <v>0.1801637262105942</v>
       </c>
       <c r="C10" t="n">
-        <v>8.327615432790481e-07</v>
+        <v>0.0006336026126518846</v>
       </c>
       <c r="D10" t="n">
-        <v>2.447811311867554e-06</v>
+        <v>0.1062863320112228</v>
       </c>
       <c r="E10" t="n">
-        <v>9.77228523879603e-07</v>
+        <v>0.01544757932424545</v>
       </c>
       <c r="F10" t="n">
-        <v>3.478838834780618e-07</v>
+        <v>0.04674230515956879</v>
       </c>
       <c r="G10" t="n">
-        <v>1.16333978894545e-07</v>
+        <v>0.02505025640130043</v>
       </c>
       <c r="H10" t="n">
-        <v>2.308833870756644e-07</v>
+        <v>0.01818341761827469</v>
       </c>
       <c r="I10" t="n">
-        <v>7.738152589809033e-07</v>
+        <v>0.004241243004798889</v>
       </c>
       <c r="J10" t="n">
-        <v>2.011336874829794e-07</v>
+        <v>0.007854130119085312</v>
       </c>
       <c r="K10" t="n">
-        <v>9.618906915420666e-07</v>
+        <v>0.07733249664306641</v>
       </c>
       <c r="L10" t="n">
-        <v>8.531301318726037e-07</v>
+        <v>0.02063116990029812</v>
       </c>
       <c r="M10" t="n">
-        <v>2.850842520274455e-06</v>
+        <v>0.1468565464019775</v>
       </c>
       <c r="N10" t="n">
-        <v>1.640485379539314e-06</v>
+        <v>0.106792613863945</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33394212298299e-06</v>
+        <v>0.08210784941911697</v>
       </c>
       <c r="P10" t="n">
-        <v>1.270552445475914e-07</v>
+        <v>0.03123126737773418</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.221506616086117e-07</v>
+        <v>0.002932848175987601</v>
       </c>
       <c r="R10" t="n">
-        <v>1.237140622833977e-06</v>
+        <v>0.005218027625232935</v>
       </c>
       <c r="S10" t="n">
-        <v>1.098591496884183e-06</v>
+        <v>0.00140341988299042</v>
       </c>
       <c r="T10" t="n">
-        <v>1.001484761786742e-07</v>
+        <v>0.04772871360182762</v>
       </c>
       <c r="U10" t="n">
-        <v>7.965216752836568e-08</v>
+        <v>0.03315438330173492</v>
       </c>
       <c r="V10" t="n">
-        <v>1.148086994362529e-07</v>
+        <v>0.0292340163141489</v>
       </c>
       <c r="W10" t="n">
-        <v>1.637516561459051e-06</v>
+        <v>0.009650253690779209</v>
       </c>
       <c r="X10" t="n">
-        <v>1.737644765853474e-07</v>
+        <v>0.03090397454798222</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.971148660435574e-07</v>
+        <v>0.008141896687448025</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.165134986853445e-07</v>
+        <v>0.001441766507923603</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.428049583613756e-08</v>
+        <v>0.01228813827037811</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.250356937518518e-07</v>
+        <v>0.03364168107509613</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.046715934511667e-07</v>
+        <v>0.03275560587644577</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.160913355619414e-07</v>
+        <v>0.006387217901647091</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.439825822075363e-07</v>
+        <v>0.02958798408508301</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.217156507977052e-07</v>
+        <v>0.008786726742982864</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.019479100250464e-06</v>
+        <v>0.005633050110191107</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.135911808589299e-07</v>
+        <v>0.01376510504633188</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.683413444197868e-07</v>
+        <v>0.002543817274272442</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.964468990285241e-07</v>
+        <v>0.006050571799278259</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.829895606737409e-07</v>
+        <v>0.02241778559982777</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.377307962182385e-07</v>
+        <v>0.008348365314304829</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.460558050643158e-07</v>
+        <v>0.01936288923025131</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.552550987886207e-07</v>
+        <v>0.02748372033238411</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.519663328508614e-07</v>
+        <v>0.02720941975712776</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.172024551327922e-07</v>
+        <v>0.0303780697286129</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.339453051396049e-08</v>
+        <v>0.003923144191503525</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.80750717504452e-07</v>
+        <v>0.01755867712199688</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.781286750381696e-07</v>
+        <v>0.003653600811958313</v>
       </c>
       <c r="AT10" t="n">
-        <v>4.252356120559853e-07</v>
+        <v>0.01668516360223293</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.564949201338095e-07</v>
+        <v>0.2009805738925934</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.014004524790835e-07</v>
+        <v>0.04216155037283897</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.771480573457666e-07</v>
+        <v>0.003091036109253764</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.864840891765198e-08</v>
+        <v>0.07702149450778961</v>
       </c>
       <c r="AY10" t="n">
-        <v>4.265705513262219e-07</v>
+        <v>0.04171834141016006</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.857125984221057e-07</v>
+        <v>0.002853477373719215</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.35342838550423e-08</v>
+        <v>0.02557119354605675</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.109657941673504e-07</v>
+        <v>0.0175375584512949</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.380947622919848e-08</v>
+        <v>0.02830028906464577</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.039306643084274e-07</v>
+        <v>0.006032869219779968</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.760672365795472e-07</v>
+        <v>0.03336466103792191</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.549254875499173e-06</v>
+        <v>0.04160056263208389</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.57802969624754e-06</v>
+        <v>0.08334789425134659</v>
       </c>
       <c r="BH10" t="n">
-        <v>7.144325309127453e-08</v>
+        <v>0.05970383062958717</v>
       </c>
       <c r="BI10" t="n">
-        <v>7.533798225267674e-07</v>
+        <v>0.02529714442789555</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.024159471147868e-07</v>
+        <v>0.002700528129935265</v>
       </c>
       <c r="BK10" t="n">
-        <v>6.106811270001344e-07</v>
+        <v>0.007785032968968153</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.398720866381154e-08</v>
+        <v>0.07705506682395935</v>
       </c>
       <c r="BM10" t="n">
-        <v>6.27243196049676e-07</v>
+        <v>0.07349700480699539</v>
       </c>
       <c r="BN10" t="n">
-        <v>5.14559758357791e-07</v>
+        <v>0.003695690538734198</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.861734174075536e-07</v>
+        <v>0.03780749440193176</v>
       </c>
       <c r="BP10" t="n">
-        <v>8.983269594864396e-07</v>
+        <v>0.06976926326751709</v>
       </c>
       <c r="BQ10" t="n">
-        <v>6.68919568624915e-08</v>
+        <v>0.02539201453328133</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.081071587805127e-07</v>
+        <v>0.008808056823909283</v>
       </c>
       <c r="BS10" t="n">
-        <v>4.88748810312245e-08</v>
+        <v>0.00505965668708086</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.745856081925012e-08</v>
+        <v>0.01203387975692749</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.075124936913198e-07</v>
+        <v>0.01443396229296923</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.001267833089514e-07</v>
+        <v>0.09648457914590836</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.563540419942001e-07</v>
+        <v>0.006839264649897814</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.209969241244835e-06</v>
+        <v>0.01490160170942545</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.790374509231697e-08</v>
+        <v>0.006327751092612743</v>
       </c>
       <c r="BZ10" t="n">
-        <v>6.206808222941618e-08</v>
+        <v>0.07062406837940216</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.402627217179543e-07</v>
+        <v>0.00367334857583046</v>
       </c>
       <c r="CB10" t="n">
-        <v>4.810034681668185e-08</v>
+        <v>0.01085963193327188</v>
       </c>
       <c r="CC10" t="n">
-        <v>5.492364607562195e-07</v>
+        <v>0.02056526020169258</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.057984005432445e-07</v>
+        <v>0.01828906685113907</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.804321184157743e-07</v>
+        <v>0.03220487385988235</v>
       </c>
       <c r="CF10" t="n">
-        <v>9.04907437870861e-08</v>
+        <v>0.004293466452509165</v>
       </c>
       <c r="CG10" t="n">
-        <v>4.778630682267249e-07</v>
+        <v>0.005762208253145218</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.512742582894134e-07</v>
+        <v>0.006512303836643696</v>
       </c>
       <c r="CI10" t="n">
-        <v>8.392785844080208e-08</v>
+        <v>0.01313016004860401</v>
       </c>
       <c r="CJ10" t="n">
-        <v>8.434165588155906e-10</v>
+        <v>0.01073538884520531</v>
       </c>
       <c r="CK10" t="n">
-        <v>4.454750168747523e-08</v>
+        <v>0.002954226452857256</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.836619046320266e-07</v>
+        <v>0.005279817618429661</v>
       </c>
       <c r="CM10" t="n">
-        <v>5.231609634392953e-08</v>
+        <v>0.04010522738099098</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.390390818618471e-07</v>
+        <v>0.05685229599475861</v>
       </c>
       <c r="CO10" t="n">
-        <v>2.947436428257788e-07</v>
+        <v>0.03276374936103821</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.066701202034892e-06</v>
+        <v>0.05088399723172188</v>
       </c>
       <c r="CQ10" t="n">
-        <v>9.192492029796995e-07</v>
+        <v>0.01592567004263401</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.381038939347491e-07</v>
+        <v>0.05370001494884491</v>
       </c>
       <c r="CS10" t="n">
-        <v>9.809234313706838e-09</v>
+        <v>0.01181479636579752</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.43432617455619e-07</v>
+        <v>0.008689107373356819</v>
       </c>
       <c r="CU10" t="n">
-        <v>4.224701228849881e-07</v>
+        <v>0.003026096615940332</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.300086438504877e-07</v>
+        <v>0.02003634534776211</v>
       </c>
       <c r="CW10" t="n">
-        <v>5.614548967969313e-07</v>
+        <v>0.02379037998616695</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.781545932999506e-08</v>
+        <v>0.005501649808138609</v>
       </c>
       <c r="CY10" t="n">
-        <v>3.880757049046224e-07</v>
+        <v>0.01698100194334984</v>
       </c>
       <c r="CZ10" t="n">
-        <v>2.0002866563118e-07</v>
+        <v>0.007521156221628189</v>
       </c>
       <c r="DA10" t="n">
-        <v>2.152230962337853e-07</v>
+        <v>0.01831812225282192</v>
       </c>
       <c r="DB10" t="n">
-        <v>4.292222399726597e-08</v>
+        <v>0.005713724065572023</v>
       </c>
       <c r="DC10" t="n">
-        <v>8.624486014241484e-08</v>
+        <v>0.004666858352720737</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.949115582850936e-07</v>
+        <v>0.003539554076269269</v>
       </c>
       <c r="DE10" t="n">
-        <v>8.070284138739225e-07</v>
+        <v>0.003287930972874165</v>
       </c>
       <c r="DF10" t="n">
-        <v>3.890837092512811e-07</v>
+        <v>0.01216735318303108</v>
       </c>
       <c r="DG10" t="n">
-        <v>8.224739644902002e-08</v>
+        <v>0.002356939949095249</v>
       </c>
       <c r="DH10" t="n">
-        <v>6.629285849157895e-07</v>
+        <v>0.009165417402982712</v>
       </c>
       <c r="DI10" t="n">
-        <v>7.489575182262342e-07</v>
+        <v>0.008013855665922165</v>
       </c>
       <c r="DJ10" t="n">
-        <v>6.743292715327698e-07</v>
+        <v>0.01309492625296116</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.686375293909805e-07</v>
+        <v>0.005585821345448494</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.155681843556522e-06</v>
+        <v>0.001089228317141533</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.747724240885873e-07</v>
+        <v>0.005062876269221306</v>
       </c>
       <c r="DN10" t="n">
-        <v>3.833297057553864e-08</v>
+        <v>0.04493643343448639</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.449231715218048e-07</v>
+        <v>0.0201444961130619</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.30819671539939e-07</v>
+        <v>0.01821928657591343</v>
       </c>
       <c r="DQ10" t="n">
-        <v>5.62268098747154e-09</v>
+        <v>0.00120135210454464</v>
       </c>
       <c r="DR10" t="n">
-        <v>3.588715742353088e-07</v>
+        <v>0.001587365753948689</v>
       </c>
       <c r="DS10" t="n">
-        <v>4.199620207145927e-07</v>
+        <v>0.01508685573935509</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.35314536464648e-07</v>
+        <v>0.008359713479876518</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.128203391293937e-07</v>
+        <v>0.007604228332638741</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.170331316302509e-07</v>
+        <v>0.003419318934902549</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.009220310128512e-07</v>
+        <v>0.01943687349557877</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.441072576355509e-07</v>
+        <v>0.02192867361009121</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.843582791456356e-08</v>
+        <v>0.04281352087855339</v>
       </c>
       <c r="DZ10" t="n">
-        <v>5.441765438263246e-07</v>
+        <v>0.02043170481920242</v>
       </c>
       <c r="EA10" t="n">
-        <v>3.541837259035674e-07</v>
+        <v>0.03489942848682404</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.524694077190361e-07</v>
+        <v>0.007145260460674763</v>
       </c>
       <c r="EC10" t="n">
-        <v>7.346380925810081e-08</v>
+        <v>0.002295279409736395</v>
       </c>
       <c r="ED10" t="n">
-        <v>6.101160465732391e-08</v>
+        <v>0.009364751167595387</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.042733543954455e-08</v>
+        <v>0.02353363297879696</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.423200046701822e-08</v>
+        <v>0.02629201114177704</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.990541361214127e-07</v>
+        <v>0.01722072437405586</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.133511062789694e-08</v>
+        <v>0.01542518939822912</v>
       </c>
       <c r="EI10" t="n">
-        <v>7.380657507383148e-07</v>
+        <v>0.01308109052479267</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.022303308673145e-07</v>
+        <v>0.006004796829074621</v>
       </c>
       <c r="EK10" t="n">
-        <v>5.707924088937943e-08</v>
+        <v>0.001289004692807794</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.495737471188477e-08</v>
+        <v>0.008431935682892799</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.280245574112996e-08</v>
+        <v>0.0006442987360060215</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.987668838410173e-07</v>
+        <v>0.01244431547820568</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.816336059334844e-08</v>
+        <v>0.01941974647343159</v>
       </c>
       <c r="EP10" t="n">
-        <v>5.608346214103221e-07</v>
+        <v>0.0335121676325798</v>
       </c>
       <c r="EQ10" t="n">
-        <v>4.974576199856529e-07</v>
+        <v>0.02077095024287701</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.180486960578492e-08</v>
+        <v>0.02991493605077267</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.734105800707766e-07</v>
+        <v>0.02252344042062759</v>
       </c>
       <c r="ET10" t="n">
-        <v>3.261282586208836e-07</v>
+        <v>0.05452702566981316</v>
       </c>
       <c r="EU10" t="n">
-        <v>8.49865386953752e-08</v>
+        <v>0.007377774454653263</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.609197906622285e-07</v>
+        <v>0.0208749808371067</v>
       </c>
       <c r="EW10" t="n">
-        <v>6.963607468435384e-11</v>
+        <v>0.01253201346844435</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.067748627292531e-07</v>
+        <v>0.01553874649107456</v>
       </c>
       <c r="EY10" t="n">
-        <v>4.250103131653304e-07</v>
+        <v>0.02382362261414528</v>
       </c>
       <c r="EZ10" t="n">
-        <v>3.612905885574946e-08</v>
+        <v>0.00218039914034307</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.247888855639758e-07</v>
+        <v>0.008529524318873882</v>
       </c>
       <c r="FB10" t="n">
-        <v>3.861442507968604e-07</v>
+        <v>0.003620522562414408</v>
       </c>
       <c r="FC10" t="n">
-        <v>1.15906402697874e-07</v>
+        <v>0.02025839686393738</v>
       </c>
       <c r="FD10" t="n">
-        <v>8.243980431643649e-08</v>
+        <v>0.005565166473388672</v>
       </c>
       <c r="FE10" t="n">
-        <v>2.512582142344399e-08</v>
+        <v>0.007800912484526634</v>
       </c>
       <c r="FF10" t="n">
-        <v>8.114790261970484e-08</v>
+        <v>0.00794245395809412</v>
       </c>
       <c r="FG10" t="n">
-        <v>6.288352096817107e-07</v>
+        <v>0.01934076473116875</v>
       </c>
       <c r="FH10" t="n">
-        <v>3.403704340598779e-08</v>
+        <v>0.001301572076044977</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.287744050339825e-07</v>
+        <v>0.008023245260119438</v>
       </c>
       <c r="FJ10" t="n">
-        <v>4.417054526584252e-07</v>
+        <v>0.006324599031358957</v>
       </c>
       <c r="FK10" t="n">
-        <v>3.025885462193401e-07</v>
+        <v>0.01055467408150434</v>
       </c>
       <c r="FL10" t="n">
-        <v>5.34322566636547e-07</v>
+        <v>0.01233977917581797</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.731039276364754e-07</v>
+        <v>0.006559205241501331</v>
       </c>
       <c r="FN10" t="n">
-        <v>5.082783616217057e-08</v>
+        <v>0.004411999601870775</v>
       </c>
       <c r="FO10" t="n">
-        <v>7.219058488772134e-07</v>
+        <v>0.01003940869122744</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.171768246877036e-07</v>
+        <v>0.01200099475681782</v>
       </c>
       <c r="FQ10" t="n">
-        <v>4.607133519130002e-08</v>
+        <v>0.09283165633678436</v>
       </c>
       <c r="FR10" t="n">
-        <v>6.269061714192503e-09</v>
+        <v>0.04386388137936592</v>
       </c>
       <c r="FS10" t="n">
-        <v>6.483325023509678e-07</v>
+        <v>0.04694147780537605</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.413125971794216e-07</v>
+        <v>0.08355224132537842</v>
       </c>
       <c r="FU10" t="n">
-        <v>8.407683935729438e-07</v>
+        <v>0.007009169552475214</v>
       </c>
       <c r="FV10" t="n">
-        <v>2.593662031813437e-07</v>
+        <v>0.004707308486104012</v>
       </c>
       <c r="FW10" t="n">
-        <v>2.197094488565199e-07</v>
+        <v>0.006182551383972168</v>
       </c>
       <c r="FX10" t="n">
-        <v>8.362420658158953e-07</v>
+        <v>0.0009846037719398737</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.460986993606639e-07</v>
+        <v>0.02772267907857895</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2.695639693683916e-07</v>
+        <v>0.04324251040816307</v>
       </c>
       <c r="GA10" t="n">
-        <v>8.130932371841482e-08</v>
+        <v>0.009559833444654942</v>
       </c>
       <c r="GB10" t="n">
-        <v>5.754252470069332e-07</v>
+        <v>0.007417595013976097</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.547194187878631e-06</v>
+        <v>0.07330981642007828</v>
       </c>
       <c r="GD10" t="n">
-        <v>1.358778689564133e-08</v>
+        <v>0.005438587628304958</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.626639232199523e-07</v>
+        <v>0.01005552150309086</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.345209821896788e-07</v>
+        <v>0.00611924147233367</v>
       </c>
       <c r="GG10" t="n">
-        <v>2.148259454770596e-07</v>
+        <v>0.01975055783987045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.474722774452708e-11</v>
+        <v>0.0005372291198000312</v>
       </c>
       <c r="B11" t="n">
-        <v>5.692118998368301e-11</v>
+        <v>0.009378169663250446</v>
       </c>
       <c r="C11" t="n">
-        <v>1.19480779436909e-11</v>
+        <v>0.0004458883195184171</v>
       </c>
       <c r="D11" t="n">
-        <v>9.304876313898092e-12</v>
+        <v>0.005920079536736012</v>
       </c>
       <c r="E11" t="n">
-        <v>1.054847181825025e-11</v>
+        <v>0.008743374608457088</v>
       </c>
       <c r="F11" t="n">
-        <v>4.546185303211381e-11</v>
+        <v>0.004665074869990349</v>
       </c>
       <c r="G11" t="n">
-        <v>5.379750464551414e-12</v>
+        <v>0.002216716296970844</v>
       </c>
       <c r="H11" t="n">
-        <v>2.289806712296727e-11</v>
+        <v>0.0002942520950455219</v>
       </c>
       <c r="I11" t="n">
-        <v>2.796329140464238e-11</v>
+        <v>0.002215155167505145</v>
       </c>
       <c r="J11" t="n">
-        <v>3.244551762676684e-12</v>
+        <v>0.0004252875805832446</v>
       </c>
       <c r="K11" t="n">
-        <v>7.417886443983335e-11</v>
+        <v>0.006905394606292248</v>
       </c>
       <c r="L11" t="n">
-        <v>2.100590534848124e-12</v>
+        <v>0.0008162524318322539</v>
       </c>
       <c r="M11" t="n">
-        <v>3.692587902115463e-12</v>
+        <v>0.006052845157682896</v>
       </c>
       <c r="N11" t="n">
-        <v>3.199477488502467e-11</v>
+        <v>0.009504662826657295</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23451260065216e-12</v>
+        <v>0.006298146676272154</v>
       </c>
       <c r="P11" t="n">
-        <v>8.169438216187874e-12</v>
+        <v>0.002487380290403962</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.463397360043864e-11</v>
+        <v>0.001110595883801579</v>
       </c>
       <c r="R11" t="n">
-        <v>2.040129870595209e-11</v>
+        <v>0.001660001231357455</v>
       </c>
       <c r="S11" t="n">
-        <v>1.562077550643082e-11</v>
+        <v>0.0008985632448457181</v>
       </c>
       <c r="T11" t="n">
-        <v>2.274807078816998e-12</v>
+        <v>0.002475137589499354</v>
       </c>
       <c r="U11" t="n">
-        <v>1.39286386244275e-11</v>
+        <v>0.000275459373369813</v>
       </c>
       <c r="V11" t="n">
-        <v>2.607551674582709e-11</v>
+        <v>0.0003587850660551339</v>
       </c>
       <c r="W11" t="n">
-        <v>2.771655994993072e-11</v>
+        <v>0.0004832989070564508</v>
       </c>
       <c r="X11" t="n">
-        <v>9.966266527328127e-12</v>
+        <v>0.002832954749464989</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.779852133731996e-11</v>
+        <v>0.001467116526328027</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.170621412305284e-11</v>
+        <v>0.0004336054553277791</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.77859634343292e-12</v>
+        <v>8.413702016696334e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.302744977865755e-11</v>
+        <v>0.0005020112730562687</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.662020174264534e-11</v>
+        <v>0.001716303871944547</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.321914799845558e-11</v>
+        <v>0.0009163090726360679</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.499186885745019e-11</v>
+        <v>0.003892027074471116</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.192845640653807e-11</v>
+        <v>0.003368167905136943</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.469692332585094e-11</v>
+        <v>0.001587157021276653</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.047076744227105e-11</v>
+        <v>0.001326402998529375</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.609208946651286e-11</v>
+        <v>0.0004513754392974079</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.263125446933968e-12</v>
+        <v>0.000426470476668328</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.534303066541565e-11</v>
+        <v>0.0009435907704755664</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.255516086402398e-11</v>
+        <v>0.001706238719634712</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.908565146202523e-11</v>
+        <v>1.535417868581135e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.133424852392764e-11</v>
+        <v>0.0001849181135185063</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.447608955791214e-12</v>
+        <v>0.001470978138968349</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.315269074209091e-11</v>
+        <v>0.0001693968661129475</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.66113215333397e-12</v>
+        <v>0.001370264333672822</v>
       </c>
       <c r="AR11" t="n">
-        <v>6.690420353144821e-12</v>
+        <v>0.0001052386360242963</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.636269028257309e-12</v>
+        <v>0.001169383060187101</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.768979060456921e-11</v>
+        <v>0.002583720255643129</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.645610616309085e-11</v>
+        <v>0.00808323360979557</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.934897522712038e-12</v>
+        <v>0.0002731748390942812</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.004148748681935e-11</v>
+        <v>0.001186377368867397</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.585445383455735e-11</v>
+        <v>0.002057783305644989</v>
       </c>
       <c r="AY11" t="n">
-        <v>4.075922932500475e-11</v>
+        <v>0.003892394248396158</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9.401516891383022e-12</v>
+        <v>0.002573630772531033</v>
       </c>
       <c r="BA11" t="n">
-        <v>6.644273239236886e-12</v>
+        <v>0.0003768247552216053</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.515337326787105e-11</v>
+        <v>1.206947490572929e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>9.541770151777484e-12</v>
+        <v>0.0001630258047953248</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.835542998319562e-12</v>
+        <v>0.001231601927429438</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.509537286836782e-11</v>
+        <v>0.0019299800042063</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.909987792925172e-12</v>
+        <v>0.0009049731306731701</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.738836761551067e-11</v>
+        <v>0.008036083541810513</v>
       </c>
       <c r="BH11" t="n">
-        <v>2.588097444689019e-11</v>
+        <v>0.001800565049052238</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.308895262481681e-11</v>
+        <v>0.001498891040682793</v>
       </c>
       <c r="BJ11" t="n">
-        <v>8.275421146952677e-12</v>
+        <v>0.001314660534262657</v>
       </c>
       <c r="BK11" t="n">
-        <v>4.152535953982905e-12</v>
+        <v>0.002448203042149544</v>
       </c>
       <c r="BL11" t="n">
-        <v>7.24378543259796e-12</v>
+        <v>5.472631892189384e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.728865314798433e-11</v>
+        <v>0.002799496985971928</v>
       </c>
       <c r="BN11" t="n">
-        <v>2.029673477899063e-11</v>
+        <v>0.001223565544933081</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.077888208718015e-11</v>
+        <v>0.001421748893335462</v>
       </c>
       <c r="BP11" t="n">
-        <v>3.48000586680719e-11</v>
+        <v>0.000477480876725167</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.517327583022698e-11</v>
+        <v>0.001226326683536172</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.410015507130602e-11</v>
+        <v>0.00232549337670207</v>
       </c>
       <c r="BS11" t="n">
-        <v>2.477121459343312e-11</v>
+        <v>0.000291425792966038</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.655006852731901e-12</v>
+        <v>0.0005523611325770617</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.909894985219207e-12</v>
+        <v>0.00128963787574321</v>
       </c>
       <c r="BV11" t="n">
-        <v>8.183916218318377e-12</v>
+        <v>0.003582186764106154</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.959774356685706e-11</v>
+        <v>0.001627269084565341</v>
       </c>
       <c r="BX11" t="n">
-        <v>3.546716045854659e-11</v>
+        <v>0.002112893387675285</v>
       </c>
       <c r="BY11" t="n">
-        <v>7.378611610597829e-12</v>
+        <v>0.00154685543384403</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.54433644292229e-11</v>
+        <v>0.0002675786672625691</v>
       </c>
       <c r="CA11" t="n">
-        <v>2.000371396304601e-11</v>
+        <v>0.0004338654107414186</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.010138760831891e-11</v>
+        <v>0.0002858277584891766</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.856183518862299e-11</v>
+        <v>0.000158665410708636</v>
       </c>
       <c r="CD11" t="n">
-        <v>8.651231640788293e-12</v>
+        <v>0.0004282762238290161</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.464811431872715e-11</v>
+        <v>0.001953479833900928</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.070866477772327e-12</v>
+        <v>0.0009060734300874174</v>
       </c>
       <c r="CG11" t="n">
-        <v>7.501005025445373e-12</v>
+        <v>0.001192742027342319</v>
       </c>
       <c r="CH11" t="n">
-        <v>2.888868831651958e-12</v>
+        <v>0.0005309697589837015</v>
       </c>
       <c r="CI11" t="n">
-        <v>3.073103620535034e-12</v>
+        <v>0.0008210553205572069</v>
       </c>
       <c r="CJ11" t="n">
-        <v>3.831810736765195e-12</v>
+        <v>0.001137165818363428</v>
       </c>
       <c r="CK11" t="n">
-        <v>3.288179190735763e-12</v>
+        <v>0.0003405089664738625</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.023463974160477e-12</v>
+        <v>0.000104092905530706</v>
       </c>
       <c r="CM11" t="n">
-        <v>2.154986952773719e-11</v>
+        <v>0.002798569388687611</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.942184781056344e-11</v>
+        <v>0.001226628664880991</v>
       </c>
       <c r="CO11" t="n">
-        <v>7.117916499266297e-12</v>
+        <v>4.309867654228583e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.898011955936418e-11</v>
+        <v>0.001289253472350538</v>
       </c>
       <c r="CQ11" t="n">
-        <v>8.998446952845907e-12</v>
+        <v>0.0007353773107752204</v>
       </c>
       <c r="CR11" t="n">
-        <v>1.226404394705227e-11</v>
+        <v>0.0005887844599783421</v>
       </c>
       <c r="CS11" t="n">
-        <v>9.907637210648801e-12</v>
+        <v>0.0003215722390450537</v>
       </c>
       <c r="CT11" t="n">
-        <v>2.944664304060929e-11</v>
+        <v>0.001594147644937038</v>
       </c>
       <c r="CU11" t="n">
-        <v>2.331748509554199e-11</v>
+        <v>0.0008334286976605654</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.136140227037119e-11</v>
+        <v>0.0003962882037740201</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.082673013741431e-11</v>
+        <v>0.001370395999401808</v>
       </c>
       <c r="CX11" t="n">
-        <v>4.598670836492014e-12</v>
+        <v>0.001082648173905909</v>
       </c>
       <c r="CY11" t="n">
-        <v>5.999045878113396e-12</v>
+        <v>0.001731563243083656</v>
       </c>
       <c r="CZ11" t="n">
-        <v>9.262371685608839e-13</v>
+        <v>0.0007122065289877355</v>
       </c>
       <c r="DA11" t="n">
-        <v>3.908174565220301e-12</v>
+        <v>0.0006509086233563721</v>
       </c>
       <c r="DB11" t="n">
-        <v>3.813652410360191e-13</v>
+        <v>0.001137288636527956</v>
       </c>
       <c r="DC11" t="n">
-        <v>2.404135918121497e-12</v>
+        <v>0.0002256844600196928</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.303785204798125e-12</v>
+        <v>7.819884922355413e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>4.564478135737904e-12</v>
+        <v>2.271146513521671e-06</v>
       </c>
       <c r="DF11" t="n">
-        <v>3.58308903380955e-11</v>
+        <v>0.003096144879236817</v>
       </c>
       <c r="DG11" t="n">
-        <v>7.477832589253275e-12</v>
+        <v>0.000249486678512767</v>
       </c>
       <c r="DH11" t="n">
-        <v>5.312886589003973e-11</v>
+        <v>0.003758771810680628</v>
       </c>
       <c r="DI11" t="n">
-        <v>4.325283881057018e-11</v>
+        <v>0.001733872108161449</v>
       </c>
       <c r="DJ11" t="n">
-        <v>2.449159104689347e-11</v>
+        <v>0.0003080602618865669</v>
       </c>
       <c r="DK11" t="n">
-        <v>9.945867913974116e-12</v>
+        <v>0.002449400490149856</v>
       </c>
       <c r="DL11" t="n">
-        <v>6.578844673893469e-12</v>
+        <v>0.001154822297394276</v>
       </c>
       <c r="DM11" t="n">
-        <v>1.726820422764952e-11</v>
+        <v>2.359203062951565e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.618112067947042e-11</v>
+        <v>8.833225001581013e-05</v>
       </c>
       <c r="DO11" t="n">
-        <v>3.301336851460612e-12</v>
+        <v>0.0005960797425359488</v>
       </c>
       <c r="DP11" t="n">
-        <v>2.258675017852152e-13</v>
+        <v>0.001771008362993598</v>
       </c>
       <c r="DQ11" t="n">
-        <v>5.840521642708207e-12</v>
+        <v>0.001151284785009921</v>
       </c>
       <c r="DR11" t="n">
-        <v>4.177675913541457e-11</v>
+        <v>0.0001354897685814649</v>
       </c>
       <c r="DS11" t="n">
-        <v>2.748688429643487e-11</v>
+        <v>0.0006092680850997567</v>
       </c>
       <c r="DT11" t="n">
-        <v>5.029155043800859e-12</v>
+        <v>0.0001603098644409329</v>
       </c>
       <c r="DU11" t="n">
-        <v>9.28284359102971e-12</v>
+        <v>0.0001793521078070626</v>
       </c>
       <c r="DV11" t="n">
-        <v>3.606346991869014e-13</v>
+        <v>0.0001249229826498777</v>
       </c>
       <c r="DW11" t="n">
-        <v>5.276761232825278e-12</v>
+        <v>0.000523378315847367</v>
       </c>
       <c r="DX11" t="n">
-        <v>3.835700854160073e-12</v>
+        <v>0.001066152821294963</v>
       </c>
       <c r="DY11" t="n">
-        <v>5.985222734095075e-12</v>
+        <v>0.0008841590024530888</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.100454276314888e-11</v>
+        <v>0.0004146377323195338</v>
       </c>
       <c r="EA11" t="n">
-        <v>3.467273343438215e-12</v>
+        <v>8.452520705759525e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>2.064271930474204e-12</v>
+        <v>0.0005118890549056232</v>
       </c>
       <c r="EC11" t="n">
-        <v>2.007957385433135e-12</v>
+        <v>0.0002360439975745976</v>
       </c>
       <c r="ED11" t="n">
-        <v>1.740091360932783e-12</v>
+        <v>0.0007404807838611305</v>
       </c>
       <c r="EE11" t="n">
-        <v>3.084120632490528e-12</v>
+        <v>0.0009055790142156184</v>
       </c>
       <c r="EF11" t="n">
-        <v>6.026219887683704e-12</v>
+        <v>0.0009839673293754458</v>
       </c>
       <c r="EG11" t="n">
-        <v>4.064708205436807e-12</v>
+        <v>0.0001853236462920904</v>
       </c>
       <c r="EH11" t="n">
-        <v>2.04819928378841e-12</v>
+        <v>0.0002831912133842707</v>
       </c>
       <c r="EI11" t="n">
-        <v>1.07826317319315e-11</v>
+        <v>0.00103259552270174</v>
       </c>
       <c r="EJ11" t="n">
-        <v>2.195113708858276e-11</v>
+        <v>0.00156449805945158</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.883081017506338e-11</v>
+        <v>0.0001664188894210383</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.565872431719129e-12</v>
+        <v>0.001576965674757957</v>
       </c>
       <c r="EM11" t="n">
-        <v>2.690473711874919e-12</v>
+        <v>0.0006390259368345141</v>
       </c>
       <c r="EN11" t="n">
-        <v>1.785678722943107e-11</v>
+        <v>0.0001973181642824784</v>
       </c>
       <c r="EO11" t="n">
-        <v>1.49150795880626e-11</v>
+        <v>0.001244559767656028</v>
       </c>
       <c r="EP11" t="n">
-        <v>2.328865225664778e-11</v>
+        <v>3.807892062468454e-05</v>
       </c>
       <c r="EQ11" t="n">
-        <v>2.779879625103288e-12</v>
+        <v>0.00121990661136806</v>
       </c>
       <c r="ER11" t="n">
-        <v>5.189677680650373e-12</v>
+        <v>0.001621320727281272</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.852341544039682e-11</v>
+        <v>8.029106538742781e-06</v>
       </c>
       <c r="ET11" t="n">
-        <v>2.418533602555062e-11</v>
+        <v>0.001713814563117921</v>
       </c>
       <c r="EU11" t="n">
-        <v>1.646861813586753e-11</v>
+        <v>0.00200862274505198</v>
       </c>
       <c r="EV11" t="n">
-        <v>2.416103081492871e-11</v>
+        <v>0.0007498586783185601</v>
       </c>
       <c r="EW11" t="n">
-        <v>7.5056931156392e-13</v>
+        <v>0.0006301311077550054</v>
       </c>
       <c r="EX11" t="n">
-        <v>8.657206028439557e-12</v>
+        <v>0.0005736853927373886</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.325471069707485e-11</v>
+        <v>0.001262053614482284</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.135649296297615e-12</v>
+        <v>0.0006705005653202534</v>
       </c>
       <c r="FA11" t="n">
-        <v>4.598873799138703e-12</v>
+        <v>0.001422646455466747</v>
       </c>
       <c r="FB11" t="n">
-        <v>3.919945965047411e-13</v>
+        <v>0.0005065292934887111</v>
       </c>
       <c r="FC11" t="n">
-        <v>1.009762911306777e-12</v>
+        <v>0.001329211983829737</v>
       </c>
       <c r="FD11" t="n">
-        <v>8.818174055541528e-14</v>
+        <v>0.001438570790924132</v>
       </c>
       <c r="FE11" t="n">
-        <v>4.876428687933254e-12</v>
+        <v>8.576997788622975e-05</v>
       </c>
       <c r="FF11" t="n">
-        <v>3.974973128428871e-12</v>
+        <v>0.0005308157997205853</v>
       </c>
       <c r="FG11" t="n">
-        <v>2.597714404695139e-11</v>
+        <v>0.001042570336721838</v>
       </c>
       <c r="FH11" t="n">
-        <v>1.947519923106711e-11</v>
+        <v>0.0008262265473604202</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.262568695425959e-11</v>
+        <v>0.001258705044165254</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.751882840184127e-11</v>
+        <v>0.001293038250878453</v>
       </c>
       <c r="FK11" t="n">
-        <v>5.13902375515185e-12</v>
+        <v>1.999113374040462e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>1.333399536618263e-11</v>
+        <v>4.097429336979985e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>3.893760314177541e-12</v>
+        <v>0.000398348638555035</v>
       </c>
       <c r="FN11" t="n">
-        <v>3.386904992574991e-11</v>
+        <v>0.0007938744965940714</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.066794569348772e-11</v>
+        <v>0.001319132279604673</v>
       </c>
       <c r="FP11" t="n">
-        <v>6.971411729145283e-12</v>
+        <v>0.001899370225146413</v>
       </c>
       <c r="FQ11" t="n">
-        <v>8.84065910755627e-12</v>
+        <v>0.001220829668454826</v>
       </c>
       <c r="FR11" t="n">
-        <v>2.322676426191883e-11</v>
+        <v>0.0001671269274083897</v>
       </c>
       <c r="FS11" t="n">
-        <v>1.661803680774732e-11</v>
+        <v>0.00291860569268465</v>
       </c>
       <c r="FT11" t="n">
-        <v>4.909449929924037e-11</v>
+        <v>0.0007616856601089239</v>
       </c>
       <c r="FU11" t="n">
-        <v>2.67939871678724e-11</v>
+        <v>0.00147081445902586</v>
       </c>
       <c r="FV11" t="n">
-        <v>7.083907245519772e-12</v>
+        <v>5.44659560546279e-05</v>
       </c>
       <c r="FW11" t="n">
-        <v>4.055096102656419e-12</v>
+        <v>5.344286910258234e-05</v>
       </c>
       <c r="FX11" t="n">
-        <v>4.473958096357089e-13</v>
+        <v>0.0002655450953170657</v>
       </c>
       <c r="FY11" t="n">
-        <v>1.106984989784898e-11</v>
+        <v>0.001900271279737353</v>
       </c>
       <c r="FZ11" t="n">
-        <v>1.597370846706525e-11</v>
+        <v>0.001259549986571074</v>
       </c>
       <c r="GA11" t="n">
-        <v>4.948725890879802e-12</v>
+        <v>0.0001726717018755153</v>
       </c>
       <c r="GB11" t="n">
-        <v>3.12549847114596e-11</v>
+        <v>0.001068589510396123</v>
       </c>
       <c r="GC11" t="n">
-        <v>2.208518090629497e-11</v>
+        <v>0.001263096695765853</v>
       </c>
       <c r="GD11" t="n">
-        <v>1.448958140970458e-12</v>
+        <v>0.0001206852030009031</v>
       </c>
       <c r="GE11" t="n">
-        <v>7.896018040798314e-12</v>
+        <v>0.001315810601226985</v>
       </c>
       <c r="GF11" t="n">
-        <v>6.300667019371042e-12</v>
+        <v>0.0007039072224870324</v>
       </c>
       <c r="GG11" t="n">
-        <v>4.240242705566555e-12</v>
+        <v>0.001498022116720676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.103631852572562e-08</v>
+        <v>0.0001331705279881135</v>
       </c>
       <c r="B12" t="n">
-        <v>1.943283223226899e-08</v>
+        <v>0.001309155020862818</v>
       </c>
       <c r="C12" t="n">
-        <v>1.455821063700569e-08</v>
+        <v>0.0001268876803806052</v>
       </c>
       <c r="D12" t="n">
-        <v>2.84454735322015e-08</v>
+        <v>0.0009172582649625838</v>
       </c>
       <c r="E12" t="n">
-        <v>1.126009863128274e-08</v>
+        <v>0.0004311410593800247</v>
       </c>
       <c r="F12" t="n">
-        <v>1.673453731143582e-08</v>
+        <v>0.0002406470448477194</v>
       </c>
       <c r="G12" t="n">
-        <v>6.0501337273422e-10</v>
+        <v>8.815903856884688e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.113837993533707e-08</v>
+        <v>9.006276377476752e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>5.178045991982572e-09</v>
+        <v>7.581739919260144e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>5.179156659096407e-09</v>
+        <v>0.0002248894888907671</v>
       </c>
       <c r="K12" t="n">
-        <v>1.400648663718584e-08</v>
+        <v>0.0008965419256128371</v>
       </c>
       <c r="L12" t="n">
-        <v>1.795233472989821e-08</v>
+        <v>1.582644836162217e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>2.890496730856285e-08</v>
+        <v>0.0009299691300839186</v>
       </c>
       <c r="N12" t="n">
-        <v>2.253705844168508e-08</v>
+        <v>0.0006225486285984516</v>
       </c>
       <c r="O12" t="n">
-        <v>2.721572300856678e-09</v>
+        <v>0.0004432248824741691</v>
       </c>
       <c r="P12" t="n">
-        <v>4.103191120208294e-10</v>
+        <v>1.878997136373073e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76746652869042e-08</v>
+        <v>0.0001134970807470381</v>
       </c>
       <c r="R12" t="n">
-        <v>8.371068282997385e-09</v>
+        <v>0.0001544146507512778</v>
       </c>
       <c r="S12" t="n">
-        <v>3.115141922194198e-09</v>
+        <v>4.357539728516713e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>2.407116506120133e-09</v>
+        <v>0.0002459254756104201</v>
       </c>
       <c r="U12" t="n">
-        <v>1.139122907112267e-09</v>
+        <v>6.626059985137545e-07</v>
       </c>
       <c r="V12" t="n">
-        <v>6.67883925942192e-09</v>
+        <v>6.232029409147799e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>2.111571717478e-08</v>
+        <v>0.0001007237005978823</v>
       </c>
       <c r="X12" t="n">
-        <v>8.993742639518132e-09</v>
+        <v>0.0001979981025215238</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.816462784162923e-09</v>
+        <v>0.0001811674301279709</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.318816998998386e-09</v>
+        <v>0.0001108503784053028</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.260144237377972e-09</v>
+        <v>3.759521496249363e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.232680713059153e-08</v>
+        <v>0.0001469352282583714</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.908328771728975e-09</v>
+        <v>0.0002870710450224578</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.997452591164574e-09</v>
+        <v>4.897536564385518e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.755183327797567e-09</v>
+        <v>0.0001263035810552537</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.260552272621453e-09</v>
+        <v>0.0001977303036255762</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.854082996137322e-09</v>
+        <v>8.061715197982267e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.7947221486736e-09</v>
+        <v>0.0001391584955854341</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.947788845299783e-10</v>
+        <v>5.89523115195334e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.845672586460068e-09</v>
+        <v>7.878007636463735e-06</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.183260291616534e-09</v>
+        <v>7.307079067686573e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.980323543511076e-09</v>
+        <v>0.000126984145026654</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.126848196506216e-09</v>
+        <v>3.169108094880357e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.04031821940498e-09</v>
+        <v>3.907622522092424e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.814676409139793e-09</v>
+        <v>0.0001787161018000916</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.197534871266726e-08</v>
+        <v>8.397000783588737e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.520590847154836e-09</v>
+        <v>1.959938163054176e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.21388063437189e-09</v>
+        <v>3.918892252841033e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>7.613633057346192e-10</v>
+        <v>4.219792754156515e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.657704729041143e-08</v>
+        <v>0.0001438245526514947</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.597226706451238e-08</v>
+        <v>0.0009740805253386497</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.389095682924335e-08</v>
+        <v>2.43249132836354e-06</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.54116833026319e-09</v>
+        <v>6.273308827076107e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.118347802200105e-10</v>
+        <v>2.604023029562086e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.105403235612812e-08</v>
+        <v>4.88283512822818e-06</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.340480254048316e-09</v>
+        <v>7.646711310371757e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.789459957990402e-08</v>
+        <v>1.048619014909491e-05</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.859196517908003e-09</v>
+        <v>3.085452044615522e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>6.839544486325622e-10</v>
+        <v>1.004800651571713e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.600280683637493e-09</v>
+        <v>0.0001891506253741682</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.942619481416386e-09</v>
+        <v>0.0002440452371956781</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.557760676007547e-08</v>
+        <v>0.0002735243469942361</v>
       </c>
       <c r="BG12" t="n">
-        <v>6.142085506866124e-09</v>
+        <v>0.0005883642588742077</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.169446761650761e-10</v>
+        <v>0.0001415311417076737</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.814872585548244e-09</v>
+        <v>0.0002475779911037534</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.343449406223442e-10</v>
+        <v>8.736123709240928e-05</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.415444095265173e-09</v>
+        <v>0.0001383643102599308</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.159062845701442e-09</v>
+        <v>0.0001775436830939725</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.081179235029595e-08</v>
+        <v>0.0001872254651971161</v>
       </c>
       <c r="BN12" t="n">
-        <v>6.987573186734153e-09</v>
+        <v>0.0001087020864360966</v>
       </c>
       <c r="BO12" t="n">
-        <v>8.599888801086308e-09</v>
+        <v>2.945619053207338e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.27294272900258e-08</v>
+        <v>0.0001479211496189237</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.429663137348825e-09</v>
+        <v>8.572853403165936e-05</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.273713661793408e-09</v>
+        <v>0.0002610807423479855</v>
       </c>
       <c r="BS12" t="n">
-        <v>7.528603518380805e-09</v>
+        <v>0.0001725725596770644</v>
       </c>
       <c r="BT12" t="n">
-        <v>4.390684260613398e-09</v>
+        <v>5.27794509252999e-06</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.531050131120537e-08</v>
+        <v>8.204879122786224e-05</v>
       </c>
       <c r="BV12" t="n">
-        <v>3.299075679308316e-09</v>
+        <v>0.0004710731736849993</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.943827321326808e-10</v>
+        <v>0.0001436459278920665</v>
       </c>
       <c r="BX12" t="n">
-        <v>2.121949904676512e-08</v>
+        <v>0.0001339618611382321</v>
       </c>
       <c r="BY12" t="n">
-        <v>4.533749375923435e-09</v>
+        <v>1.168983999377815e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.760091805635966e-08</v>
+        <v>0.0001537362113595009</v>
       </c>
       <c r="CA12" t="n">
-        <v>6.440786570749424e-09</v>
+        <v>1.18556126835756e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>6.529466745064383e-09</v>
+        <v>1.556123970658518e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>3.722006702844283e-09</v>
+        <v>2.865456553990953e-05</v>
       </c>
       <c r="CD12" t="n">
-        <v>3.611544840964598e-09</v>
+        <v>4.929780698148534e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.345665578966759e-09</v>
+        <v>0.0002398816141067073</v>
       </c>
       <c r="CF12" t="n">
-        <v>5.613888021116509e-09</v>
+        <v>7.001832273090258e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>5.739293928996858e-09</v>
+        <v>4.639116741600446e-05</v>
       </c>
       <c r="CH12" t="n">
-        <v>5.50841372515265e-09</v>
+        <v>4.461724165594205e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>3.221086730675893e-09</v>
+        <v>6.933067925274372e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.591982101700751e-09</v>
+        <v>0.0001009207917377353</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.647723178014985e-09</v>
+        <v>1.394323771819472e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>3.08406633564573e-09</v>
+        <v>2.672692789928988e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>9.597311834141919e-11</v>
+        <v>0.0002495863300282508</v>
       </c>
       <c r="CN12" t="n">
-        <v>4.825114974238431e-09</v>
+        <v>8.741091005504131e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>4.418054810884087e-09</v>
+        <v>5.33943748450838e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.408659766610754e-08</v>
+        <v>0.0003315983340144157</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.623225497406679e-09</v>
+        <v>9.023935126606375e-05</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.225963774942329e-08</v>
+        <v>0.0001685701718088239</v>
       </c>
       <c r="CS12" t="n">
-        <v>9.505327636105676e-10</v>
+        <v>0.0001186503723147325</v>
       </c>
       <c r="CT12" t="n">
-        <v>3.914861324005869e-09</v>
+        <v>0.0001853329013101757</v>
       </c>
       <c r="CU12" t="n">
-        <v>3.459548203466056e-10</v>
+        <v>2.684629725990817e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>4.010367149476224e-09</v>
+        <v>4.708896085503511e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>4.186937019312609e-09</v>
+        <v>0.0001814593124436215</v>
       </c>
       <c r="CX12" t="n">
-        <v>3.519356583936428e-09</v>
+        <v>9.424507879884914e-05</v>
       </c>
       <c r="CY12" t="n">
-        <v>4.032366884842986e-09</v>
+        <v>9.93884532363154e-05</v>
       </c>
       <c r="CZ12" t="n">
-        <v>3.619407440424993e-09</v>
+        <v>3.505940549075603e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>2.032494839099286e-09</v>
+        <v>6.081300307414494e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.84613119130961e-10</v>
+        <v>0.0001056606852216646</v>
       </c>
       <c r="DC12" t="n">
-        <v>4.704922673681722e-09</v>
+        <v>2.540668356232345e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>3.78667053269055e-09</v>
+        <v>9.964714990928769e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>1.407736149872107e-08</v>
+        <v>0.0001310277584707364</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.135036420407687e-08</v>
+        <v>0.0001674273662501946</v>
       </c>
       <c r="DG12" t="n">
-        <v>9.611940132714381e-10</v>
+        <v>1.266907565877773e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.96480906492036e-09</v>
+        <v>0.0003254255279898643</v>
       </c>
       <c r="DI12" t="n">
-        <v>4.467323178047877e-10</v>
+        <v>6.230618600966409e-05</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.082010037123382e-08</v>
+        <v>5.730968769057654e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>3.336878551252198e-09</v>
+        <v>9.910375956678763e-05</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.179513020588274e-08</v>
+        <v>7.027578249108046e-06</v>
       </c>
       <c r="DM12" t="n">
-        <v>2.447058555787862e-09</v>
+        <v>1.80857241502963e-05</v>
       </c>
       <c r="DN12" t="n">
-        <v>2.247517727482773e-10</v>
+        <v>0.0001006901147775352</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.337503746119296e-09</v>
+        <v>5.456960934679955e-05</v>
       </c>
       <c r="DP12" t="n">
-        <v>2.710673019379328e-09</v>
+        <v>0.0001507487904746085</v>
       </c>
       <c r="DQ12" t="n">
-        <v>9.597115102621956e-09</v>
+        <v>0.0001325097837252542</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.463222099040706e-09</v>
+        <v>0.0001988692383747548</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.033727237143012e-08</v>
+        <v>5.9983525716234e-05</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.122639924413306e-09</v>
+        <v>3.9301099604927e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.99453456370702e-09</v>
+        <v>6.732516339980066e-07</v>
       </c>
       <c r="DV12" t="n">
-        <v>5.905922861870749e-09</v>
+        <v>4.040711792185903e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.3389736814039e-09</v>
+        <v>7.168322554207407e-06</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.463205833220684e-10</v>
+        <v>7.854327122913674e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.691150857714319e-09</v>
+        <v>0.0001134834965341724</v>
       </c>
       <c r="DZ12" t="n">
-        <v>5.59066259953056e-09</v>
+        <v>0.0001690649223746732</v>
       </c>
       <c r="EA12" t="n">
-        <v>2.806119336895563e-09</v>
+        <v>0.0001504169631516561</v>
       </c>
       <c r="EB12" t="n">
-        <v>2.746377125717459e-09</v>
+        <v>1.706401963019744e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>3.321232622255366e-09</v>
+        <v>8.409369911532849e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>6.703671839858316e-09</v>
+        <v>6.352931086439639e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>5.892161425435916e-09</v>
+        <v>5.364214302971959e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>8.074986013184571e-09</v>
+        <v>1.106700801756233e-05</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.391514237170099e-09</v>
+        <v>0.000125414808280766</v>
       </c>
       <c r="EH12" t="n">
-        <v>3.758738209569401e-09</v>
+        <v>1.491057628300041e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>8.663003647768619e-09</v>
+        <v>6.594032311113551e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>4.513183604615278e-09</v>
+        <v>0.000176887697307393</v>
       </c>
       <c r="EK12" t="n">
-        <v>5.23050491807453e-09</v>
+        <v>3.66684325854294e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.60811031157948e-09</v>
+        <v>0.0001988561998587102</v>
       </c>
       <c r="EM12" t="n">
-        <v>4.411774945367597e-09</v>
+        <v>9.039492579177022e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>3.191037656335993e-09</v>
+        <v>4.557834472507238e-06</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.85937754082488e-09</v>
+        <v>9.209415293298662e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>5.831818361556884e-10</v>
+        <v>0.0001548899308545515</v>
       </c>
       <c r="EQ12" t="n">
-        <v>2.596530990217616e-09</v>
+        <v>5.160000728210434e-05</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.883925015988552e-09</v>
+        <v>0.0001124555710703135</v>
       </c>
       <c r="ES12" t="n">
-        <v>8.922540928324452e-09</v>
+        <v>1.229869667440653e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.97189864437064e-09</v>
+        <v>0.0002798116765916348</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.352768563833706e-09</v>
+        <v>0.0001905796234495938</v>
       </c>
       <c r="EV12" t="n">
-        <v>9.024543334845703e-10</v>
+        <v>3.180438943672925e-05</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.559032014597506e-09</v>
+        <v>4.967980203218758e-06</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.248113333853553e-09</v>
+        <v>2.73429395747371e-06</v>
       </c>
       <c r="EY12" t="n">
-        <v>2.653376629524473e-09</v>
+        <v>0.0001893652806757018</v>
       </c>
       <c r="EZ12" t="n">
-        <v>4.095153105510008e-09</v>
+        <v>4.197650196147151e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.396561698565392e-09</v>
+        <v>0.0001010125706670806</v>
       </c>
       <c r="FB12" t="n">
-        <v>4.878465187374559e-09</v>
+        <v>3.837325834865624e-07</v>
       </c>
       <c r="FC12" t="n">
-        <v>2.383207187151015e-09</v>
+        <v>0.0001032480940921232</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.214602973753642e-09</v>
+        <v>0.000115158487460576</v>
       </c>
       <c r="FE12" t="n">
-        <v>3.807071990991062e-09</v>
+        <v>7.91608908912167e-06</v>
       </c>
       <c r="FF12" t="n">
-        <v>1.928378123849939e-09</v>
+        <v>2.97171591228107e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>5.852470064127147e-09</v>
+        <v>2.209882950410247e-06</v>
       </c>
       <c r="FH12" t="n">
-        <v>3.110496971103771e-09</v>
+        <v>3.991441553807817e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>4.34562918982806e-09</v>
+        <v>6.638422928517684e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>4.712355838876192e-09</v>
+        <v>0.0002181882155127823</v>
       </c>
       <c r="FK12" t="n">
-        <v>7.191891970848019e-09</v>
+        <v>9.113239502767101e-05</v>
       </c>
       <c r="FL12" t="n">
-        <v>1.395202975373877e-08</v>
+        <v>2.339834463782609e-05</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.085106893228271e-09</v>
+        <v>0.000119228134281002</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.371431768149023e-08</v>
+        <v>3.423721136641689e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>9.463895445094295e-09</v>
+        <v>9.055656846612692e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>6.730706658686358e-09</v>
+        <v>7.528275455115363e-05</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.541734295784636e-09</v>
+        <v>5.156892439117655e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.491718082391458e-09</v>
+        <v>1.432594217476435e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.19637552589802e-09</v>
+        <v>8.94199256435968e-05</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.071837990058611e-08</v>
+        <v>0.0002018777740886435</v>
       </c>
       <c r="FU12" t="n">
-        <v>9.378302578966213e-09</v>
+        <v>8.128501212922856e-05</v>
       </c>
       <c r="FV12" t="n">
-        <v>5.53192958108184e-09</v>
+        <v>0.000198200621525757</v>
       </c>
       <c r="FW12" t="n">
-        <v>7.908250942989525e-09</v>
+        <v>0.0001367505610687658</v>
       </c>
       <c r="FX12" t="n">
-        <v>5.127595681386765e-09</v>
+        <v>9.613155270926654e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.324197279079954e-09</v>
+        <v>0.0001944297400768846</v>
       </c>
       <c r="FZ12" t="n">
-        <v>1.178177644334255e-08</v>
+        <v>4.859735781792551e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>3.537626191985055e-09</v>
+        <v>2.089311783493031e-05</v>
       </c>
       <c r="GB12" t="n">
-        <v>4.331219272124542e-10</v>
+        <v>2.042797677859198e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>6.285357123658741e-09</v>
+        <v>0.0002173972607124597</v>
       </c>
       <c r="GD12" t="n">
-        <v>8.840614462712892e-09</v>
+        <v>0.0001018244656734169</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.638783191954985e-09</v>
+        <v>0.0002532336511649191</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.219316736467135e-08</v>
+        <v>8.08239565230906e-05</v>
       </c>
       <c r="GG12" t="n">
-        <v>6.382007811112089e-09</v>
+        <v>2.381339254498016e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.063214196823537e-06</v>
+        <v>0.00952279195189476</v>
       </c>
       <c r="B13" t="n">
-        <v>3.391668724361807e-05</v>
+        <v>0.1173035055398941</v>
       </c>
       <c r="C13" t="n">
-        <v>3.36204243467364e-06</v>
+        <v>0.01845115050673485</v>
       </c>
       <c r="D13" t="n">
-        <v>2.892659540520981e-05</v>
+        <v>0.05063094571232796</v>
       </c>
       <c r="E13" t="n">
-        <v>9.062901881407015e-06</v>
+        <v>0.04209469258785248</v>
       </c>
       <c r="F13" t="n">
-        <v>1.684997414486133e-06</v>
+        <v>0.07873766124248505</v>
       </c>
       <c r="G13" t="n">
-        <v>6.54192717775004e-07</v>
+        <v>0.003016657195985317</v>
       </c>
       <c r="H13" t="n">
-        <v>2.223982846771833e-06</v>
+        <v>0.01889844611287117</v>
       </c>
       <c r="I13" t="n">
-        <v>5.69980386444513e-07</v>
+        <v>0.006217098329216242</v>
       </c>
       <c r="J13" t="n">
-        <v>3.868057092404342e-07</v>
+        <v>0.02089240029454231</v>
       </c>
       <c r="K13" t="n">
-        <v>3.419386484893039e-05</v>
+        <v>0.1025754287838936</v>
       </c>
       <c r="L13" t="n">
-        <v>3.349293251631025e-07</v>
+        <v>0.003453886369243264</v>
       </c>
       <c r="M13" t="n">
-        <v>2.440449679852463e-05</v>
+        <v>0.06099475175142288</v>
       </c>
       <c r="N13" t="n">
-        <v>2.575814050942427e-06</v>
+        <v>0.0371982529759407</v>
       </c>
       <c r="O13" t="n">
-        <v>6.394965339495684e-07</v>
+        <v>0.08661787956953049</v>
       </c>
       <c r="P13" t="n">
-        <v>1.347322040601284e-06</v>
+        <v>0.01314426399767399</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.640006070781965e-06</v>
+        <v>0.01912647113204002</v>
       </c>
       <c r="R13" t="n">
-        <v>7.268872650456615e-06</v>
+        <v>0.008660534396767616</v>
       </c>
       <c r="S13" t="n">
-        <v>1.840974164224463e-06</v>
+        <v>0.004471738822758198</v>
       </c>
       <c r="T13" t="n">
-        <v>3.390065558050992e-06</v>
+        <v>0.01671222411096096</v>
       </c>
       <c r="U13" t="n">
-        <v>8.795372536951618e-07</v>
+        <v>0.002367703709751368</v>
       </c>
       <c r="V13" t="n">
-        <v>3.920682047464652e-06</v>
+        <v>0.007801709696650505</v>
       </c>
       <c r="W13" t="n">
-        <v>1.453776621929137e-05</v>
+        <v>0.003218080382794142</v>
       </c>
       <c r="X13" t="n">
-        <v>5.00732369346224e-07</v>
+        <v>0.01007227413356304</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.501285275182454e-06</v>
+        <v>0.01377659384161234</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.66562915637769e-06</v>
+        <v>0.001668404787778854</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.134201170316373e-06</v>
+        <v>0.009693356230854988</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.06488743465161e-06</v>
+        <v>0.005092751700431108</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.838702019085758e-06</v>
+        <v>0.003467065282166004</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.145280278564314e-07</v>
+        <v>0.01007261499762535</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.108929609472398e-05</v>
+        <v>0.01716174185276031</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.174577730329474e-06</v>
+        <v>0.003007993102073669</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.836321179231163e-06</v>
+        <v>0.007533814758062363</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.278622107747651e-06</v>
+        <v>0.01178762037307024</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.508925606685807e-06</v>
+        <v>0.0007054097950458527</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.595839305286063e-06</v>
+        <v>0.006762797012925148</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.188679213257274e-06</v>
+        <v>0.01872967928647995</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.633038199448492e-06</v>
+        <v>0.01176429353654385</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.151785560679855e-06</v>
+        <v>0.0007229710463434458</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.561789981176844e-06</v>
+        <v>3.393320366740227e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.458382030250505e-06</v>
+        <v>0.002368950750678778</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.14489398583828e-06</v>
+        <v>0.01837439276278019</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.091469409355341e-07</v>
+        <v>0.003915336448699236</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.969117420230759e-06</v>
+        <v>0.01397239603102207</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.091271537414286e-06</v>
+        <v>0.006415027193725109</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.57962187283556e-06</v>
+        <v>0.01808792352676392</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.173159555241e-05</v>
+        <v>0.09418904781341553</v>
       </c>
       <c r="AV13" t="n">
-        <v>9.011962447402766e-07</v>
+        <v>0.002502634190022945</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.593406967818737e-06</v>
+        <v>0.003535816445946693</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.059187297869357e-06</v>
+        <v>0.004029207397252321</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.215215656382497e-06</v>
+        <v>0.0236094556748867</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.181029791856417e-06</v>
+        <v>0.002411207184195518</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.473842530685943e-06</v>
+        <v>0.0110502727329731</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.844444452421158e-06</v>
+        <v>0.001657956978306174</v>
       </c>
       <c r="BC13" t="n">
-        <v>2.124544380421867e-06</v>
+        <v>0.005668201483786106</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.953585969109554e-06</v>
+        <v>0.04432246834039688</v>
       </c>
       <c r="BE13" t="n">
-        <v>6.019483862473862e-07</v>
+        <v>0.0407196506857872</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.448547027393943e-05</v>
+        <v>0.004824317526072264</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.067610014615639e-06</v>
+        <v>0.03049779124557972</v>
       </c>
       <c r="BH13" t="n">
-        <v>6.626908088946948e-06</v>
+        <v>0.03576338663697243</v>
       </c>
       <c r="BI13" t="n">
-        <v>5.576358489634003e-06</v>
+        <v>0.004472848027944565</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.662463884917088e-07</v>
+        <v>0.02758168429136276</v>
       </c>
       <c r="BK13" t="n">
-        <v>8.926120244723279e-06</v>
+        <v>0.01585804671049118</v>
       </c>
       <c r="BL13" t="n">
-        <v>3.396219881324214e-06</v>
+        <v>0.006630958057940006</v>
       </c>
       <c r="BM13" t="n">
-        <v>6.188533006934449e-06</v>
+        <v>0.03504707664251328</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.890644054787117e-06</v>
+        <v>0.01633560284972191</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.012951315715327e-06</v>
+        <v>0.02316585555672646</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.751492729657912e-06</v>
+        <v>0.03255705535411835</v>
       </c>
       <c r="BQ13" t="n">
-        <v>5.585091912507778e-06</v>
+        <v>0.01314207818359137</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.560833763709525e-06</v>
+        <v>0.0009181257337331772</v>
       </c>
       <c r="BS13" t="n">
-        <v>2.234182261418027e-07</v>
+        <v>0.006739247124642134</v>
       </c>
       <c r="BT13" t="n">
-        <v>8.743094213059521e-07</v>
+        <v>0.00760864932090044</v>
       </c>
       <c r="BU13" t="n">
-        <v>4.861539764533518e-06</v>
+        <v>0.01062916219234467</v>
       </c>
       <c r="BV13" t="n">
-        <v>8.124788109853398e-06</v>
+        <v>0.04281285032629967</v>
       </c>
       <c r="BW13" t="n">
-        <v>4.090670245204819e-06</v>
+        <v>0.0123054925352335</v>
       </c>
       <c r="BX13" t="n">
-        <v>8.436544703727122e-06</v>
+        <v>0.02049556002020836</v>
       </c>
       <c r="BY13" t="n">
-        <v>2.505106522221467e-08</v>
+        <v>0.0005980136338621378</v>
       </c>
       <c r="BZ13" t="n">
-        <v>4.20552396462881e-07</v>
+        <v>0.005285041872411966</v>
       </c>
       <c r="CA13" t="n">
-        <v>3.461991582298651e-06</v>
+        <v>0.007442552130669355</v>
       </c>
       <c r="CB13" t="n">
-        <v>7.770590855216142e-07</v>
+        <v>0.01382571272552013</v>
       </c>
       <c r="CC13" t="n">
-        <v>4.622876986104529e-06</v>
+        <v>0.005783268250524998</v>
       </c>
       <c r="CD13" t="n">
-        <v>3.865225608024048e-06</v>
+        <v>0.0008796337060630322</v>
       </c>
       <c r="CE13" t="n">
-        <v>7.783090040902607e-06</v>
+        <v>0.01890171319246292</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.661805183379329e-06</v>
+        <v>0.01215391512960196</v>
       </c>
       <c r="CG13" t="n">
-        <v>4.611588792613475e-06</v>
+        <v>0.01211087126284838</v>
       </c>
       <c r="CH13" t="n">
-        <v>1.048863168762182e-06</v>
+        <v>0.003605774603784084</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.068043841063627e-06</v>
+        <v>0.01350799761712551</v>
       </c>
       <c r="CJ13" t="n">
-        <v>4.267150188752566e-09</v>
+        <v>0.004707156680524349</v>
       </c>
       <c r="CK13" t="n">
-        <v>2.124971558714606e-07</v>
+        <v>0.00315414578653872</v>
       </c>
       <c r="CL13" t="n">
-        <v>3.60873571025877e-07</v>
+        <v>0.006048705894500017</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.388384589517955e-07</v>
+        <v>0.02942556887865067</v>
       </c>
       <c r="CN13" t="n">
-        <v>2.723346369748469e-06</v>
+        <v>0.03567132726311684</v>
       </c>
       <c r="CO13" t="n">
-        <v>1.977451120183105e-06</v>
+        <v>0.001306868274696171</v>
       </c>
       <c r="CP13" t="n">
-        <v>3.128406888208701e-06</v>
+        <v>0.006726229097694159</v>
       </c>
       <c r="CQ13" t="n">
-        <v>6.896553259139182e-06</v>
+        <v>0.03123705089092255</v>
       </c>
       <c r="CR13" t="n">
-        <v>7.686031494813506e-06</v>
+        <v>0.009364104829728603</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.130350142375391e-06</v>
+        <v>0.002157948445528746</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.621698513394222e-06</v>
+        <v>0.02332540228962898</v>
       </c>
       <c r="CU13" t="n">
-        <v>1.739256617838691e-06</v>
+        <v>0.01688654720783234</v>
       </c>
       <c r="CV13" t="n">
-        <v>3.774795914068818e-06</v>
+        <v>0.001261347904801369</v>
       </c>
       <c r="CW13" t="n">
-        <v>7.258245659613749e-06</v>
+        <v>0.013482965528965</v>
       </c>
       <c r="CX13" t="n">
-        <v>2.463292048560106e-06</v>
+        <v>0.01114262267947197</v>
       </c>
       <c r="CY13" t="n">
-        <v>5.543239240068942e-06</v>
+        <v>0.01691212132573128</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1.290485215577064e-06</v>
+        <v>0.00133485859259963</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.850880835263524e-07</v>
+        <v>0.01415535807609558</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.153302543523751e-07</v>
+        <v>0.00504703726619482</v>
       </c>
       <c r="DC13" t="n">
-        <v>9.153647511084273e-07</v>
+        <v>0.006615600548684597</v>
       </c>
       <c r="DD13" t="n">
-        <v>8.798598969406157e-07</v>
+        <v>0.002193843945860863</v>
       </c>
       <c r="DE13" t="n">
-        <v>6.308999218163081e-06</v>
+        <v>0.01406339649111032</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.938601018191548e-06</v>
+        <v>0.02815834805369377</v>
       </c>
       <c r="DG13" t="n">
-        <v>5.878336196474265e-06</v>
+        <v>0.009195119142532349</v>
       </c>
       <c r="DH13" t="n">
-        <v>1.470039478590479e-06</v>
+        <v>0.04039281979203224</v>
       </c>
       <c r="DI13" t="n">
-        <v>5.721632078348193e-06</v>
+        <v>0.001029463717713952</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.261898091797775e-06</v>
+        <v>0.01280537061393261</v>
       </c>
       <c r="DK13" t="n">
-        <v>4.542870101431618e-06</v>
+        <v>0.02618958055973053</v>
       </c>
       <c r="DL13" t="n">
-        <v>6.063613909645937e-06</v>
+        <v>0.01383077539503574</v>
       </c>
       <c r="DM13" t="n">
-        <v>1.768348965924815e-06</v>
+        <v>0.01433319691568613</v>
       </c>
       <c r="DN13" t="n">
-        <v>3.848788310278906e-06</v>
+        <v>0.007688334677368402</v>
       </c>
       <c r="DO13" t="n">
-        <v>8.414998546868446e-07</v>
+        <v>0.01834256388247013</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.454943344469939e-06</v>
+        <v>0.007551479153335094</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.088925500880578e-07</v>
+        <v>0.002086384687572718</v>
       </c>
       <c r="DR13" t="n">
-        <v>3.017698190888041e-06</v>
+        <v>0.007567388471215963</v>
       </c>
       <c r="DS13" t="n">
-        <v>2.653237743288628e-06</v>
+        <v>0.007674754597246647</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.501457743164792e-07</v>
+        <v>0.006025590933859348</v>
       </c>
       <c r="DU13" t="n">
-        <v>1.351981495645305e-07</v>
+        <v>0.01062637381255627</v>
       </c>
       <c r="DV13" t="n">
-        <v>3.263019152655033e-06</v>
+        <v>0.003704957431182265</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.334585590484494e-06</v>
+        <v>0.00126610416918993</v>
       </c>
       <c r="DX13" t="n">
-        <v>3.502819936329615e-06</v>
+        <v>0.001279412535950541</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.427318579771963e-06</v>
+        <v>0.00908871553838253</v>
       </c>
       <c r="DZ13" t="n">
-        <v>2.990974735439522e-06</v>
+        <v>0.009471580386161804</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.289625288336538e-06</v>
+        <v>0.003094519954174757</v>
       </c>
       <c r="EB13" t="n">
-        <v>3.49820015799196e-06</v>
+        <v>0.008623962290585041</v>
       </c>
       <c r="EC13" t="n">
-        <v>3.820026961420808e-07</v>
+        <v>0.00830517802387476</v>
       </c>
       <c r="ED13" t="n">
-        <v>2.472994310664944e-06</v>
+        <v>0.002781431190669537</v>
       </c>
       <c r="EE13" t="n">
-        <v>9.65002413977345e-07</v>
+        <v>0.01132130343466997</v>
       </c>
       <c r="EF13" t="n">
-        <v>2.331099949515192e-06</v>
+        <v>0.006124591454863548</v>
       </c>
       <c r="EG13" t="n">
-        <v>9.910171684168745e-06</v>
+        <v>0.008247140794992447</v>
       </c>
       <c r="EH13" t="n">
-        <v>2.59610692410206e-06</v>
+        <v>0.004139411728829145</v>
       </c>
       <c r="EI13" t="n">
-        <v>9.403993317391723e-06</v>
+        <v>0.01689843088388443</v>
       </c>
       <c r="EJ13" t="n">
-        <v>7.428929166053422e-06</v>
+        <v>0.009258629754185677</v>
       </c>
       <c r="EK13" t="n">
-        <v>2.995727300003637e-06</v>
+        <v>0.02467920258641243</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.743420625643921e-07</v>
+        <v>0.005586586892604828</v>
       </c>
       <c r="EM13" t="n">
-        <v>1.731328097775986e-06</v>
+        <v>0.003323745215311646</v>
       </c>
       <c r="EN13" t="n">
-        <v>4.593198354996275e-06</v>
+        <v>0.003609974635764956</v>
       </c>
       <c r="EO13" t="n">
-        <v>4.424393409863114e-06</v>
+        <v>0.009100445546209812</v>
       </c>
       <c r="EP13" t="n">
-        <v>4.73679210699629e-06</v>
+        <v>0.003311777021735907</v>
       </c>
       <c r="EQ13" t="n">
-        <v>2.177841906814137e-07</v>
+        <v>0.01464041136205196</v>
       </c>
       <c r="ER13" t="n">
-        <v>8.615899105279823e-07</v>
+        <v>0.01104843243956566</v>
       </c>
       <c r="ES13" t="n">
-        <v>4.176714810455451e-06</v>
+        <v>0.005266956984996796</v>
       </c>
       <c r="ET13" t="n">
-        <v>5.75328954255383e-07</v>
+        <v>0.02368021942675114</v>
       </c>
       <c r="EU13" t="n">
-        <v>1.94168796951999e-06</v>
+        <v>0.007363246753811836</v>
       </c>
       <c r="EV13" t="n">
-        <v>1.119352305067878e-06</v>
+        <v>0.02162777818739414</v>
       </c>
       <c r="EW13" t="n">
-        <v>2.963151246149209e-06</v>
+        <v>0.007312201894819736</v>
       </c>
       <c r="EX13" t="n">
-        <v>3.259067170802155e-06</v>
+        <v>6.725895218551159e-06</v>
       </c>
       <c r="EY13" t="n">
-        <v>6.726728770445334e-06</v>
+        <v>0.01067202165722847</v>
       </c>
       <c r="EZ13" t="n">
-        <v>2.020094598265132e-06</v>
+        <v>0.007616600953042507</v>
       </c>
       <c r="FA13" t="n">
-        <v>5.543072802538518e-06</v>
+        <v>0.01543204393237829</v>
       </c>
       <c r="FB13" t="n">
-        <v>6.462732926593162e-07</v>
+        <v>0.0004906177055090666</v>
       </c>
       <c r="FC13" t="n">
-        <v>7.617200594722817e-07</v>
+        <v>0.0141181256622076</v>
       </c>
       <c r="FD13" t="n">
-        <v>7.312792149605229e-09</v>
+        <v>0.007462276145815849</v>
       </c>
       <c r="FE13" t="n">
-        <v>5.506558409251738e-08</v>
+        <v>0.002147475956007838</v>
       </c>
       <c r="FF13" t="n">
-        <v>8.807465405880066e-07</v>
+        <v>0.004191119689494371</v>
       </c>
       <c r="FG13" t="n">
-        <v>6.591420742552145e-07</v>
+        <v>0.0049867769703269</v>
       </c>
       <c r="FH13" t="n">
-        <v>4.213960892229807e-06</v>
+        <v>0.009410449303686619</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.568561401654733e-06</v>
+        <v>0.006676018238067627</v>
       </c>
       <c r="FJ13" t="n">
-        <v>5.099949703435414e-06</v>
+        <v>0.009266789071261883</v>
       </c>
       <c r="FK13" t="n">
-        <v>1.742989525155281e-06</v>
+        <v>0.004707095213234425</v>
       </c>
       <c r="FL13" t="n">
-        <v>5.429396878753323e-07</v>
+        <v>0.011130690574646</v>
       </c>
       <c r="FM13" t="n">
-        <v>4.645417561732756e-07</v>
+        <v>0.003824451472610235</v>
       </c>
       <c r="FN13" t="n">
-        <v>3.514156787787215e-07</v>
+        <v>0.000258467742241919</v>
       </c>
       <c r="FO13" t="n">
-        <v>5.849009539815597e-06</v>
+        <v>0.007327593863010406</v>
       </c>
       <c r="FP13" t="n">
-        <v>4.450293090485502e-06</v>
+        <v>0.008672646246850491</v>
       </c>
       <c r="FQ13" t="n">
-        <v>2.848942585842451e-06</v>
+        <v>0.02538637258112431</v>
       </c>
       <c r="FR13" t="n">
-        <v>2.867629973479779e-07</v>
+        <v>0.01500134728848934</v>
       </c>
       <c r="FS13" t="n">
-        <v>3.931973424187163e-06</v>
+        <v>0.04232219979166985</v>
       </c>
       <c r="FT13" t="n">
-        <v>4.805106527783209e-06</v>
+        <v>0.009490863420069218</v>
       </c>
       <c r="FU13" t="n">
-        <v>2.231835196653265e-06</v>
+        <v>0.007723568938672543</v>
       </c>
       <c r="FV13" t="n">
-        <v>2.597404090920463e-06</v>
+        <v>0.005876758135855198</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.020465785790293e-07</v>
+        <v>0.0008037179941311479</v>
       </c>
       <c r="FX13" t="n">
-        <v>4.11794098909013e-06</v>
+        <v>0.003508075373247266</v>
       </c>
       <c r="FY13" t="n">
-        <v>3.122829184576403e-06</v>
+        <v>0.01534845307469368</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.396166226186324e-06</v>
+        <v>0.01254548877477646</v>
       </c>
       <c r="GA13" t="n">
-        <v>1.614305915609293e-06</v>
+        <v>0.007483052089810371</v>
       </c>
       <c r="GB13" t="n">
-        <v>5.48604475625325e-06</v>
+        <v>0.01295770611613989</v>
       </c>
       <c r="GC13" t="n">
-        <v>2.317419330211123e-06</v>
+        <v>0.0008133142255246639</v>
       </c>
       <c r="GD13" t="n">
-        <v>2.07492462322989e-06</v>
+        <v>0.004628051538020372</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.830932205848512e-06</v>
+        <v>0.03829739987850189</v>
       </c>
       <c r="GF13" t="n">
-        <v>3.173910499754129e-06</v>
+        <v>0.02968338690698147</v>
       </c>
       <c r="GG13" t="n">
-        <v>2.42535588768078e-06</v>
+        <v>0.0005091205239295959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.54466733742953e-10</v>
+        <v>5.840260200784542e-06</v>
       </c>
       <c r="B14" t="n">
-        <v>9.303511294689315e-10</v>
+        <v>0.001611776300705969</v>
       </c>
       <c r="C14" t="n">
-        <v>4.781124385289104e-10</v>
+        <v>0.0001754413533490151</v>
       </c>
       <c r="D14" t="n">
-        <v>2.055270176271051e-09</v>
+        <v>0.0007946148980408907</v>
       </c>
       <c r="E14" t="n">
-        <v>2.269707310986746e-09</v>
+        <v>0.0003493639815133065</v>
       </c>
       <c r="F14" t="n">
-        <v>2.10482589690919e-10</v>
+        <v>0.0001524163235444576</v>
       </c>
       <c r="G14" t="n">
-        <v>3.072911369805809e-11</v>
+        <v>8.120201528072357e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>7.74411229587102e-11</v>
+        <v>5.243229315965436e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>9.595798461381477e-11</v>
+        <v>0.0001522275124443695</v>
       </c>
       <c r="J14" t="n">
-        <v>5.756648283061772e-11</v>
+        <v>1.917568442877382e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.007323668922311e-09</v>
+        <v>0.001232072827406228</v>
       </c>
       <c r="L14" t="n">
-        <v>3.112048119202626e-10</v>
+        <v>2.094503906846512e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>2.097384932397972e-09</v>
+        <v>0.0006701067322865129</v>
       </c>
       <c r="N14" t="n">
-        <v>2.11870010424775e-09</v>
+        <v>0.0004480703792069107</v>
       </c>
       <c r="O14" t="n">
-        <v>5.110005751873814e-10</v>
+        <v>8.582487498642877e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>2.336250637391402e-11</v>
+        <v>3.932471008738503e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.044840117203627e-10</v>
+        <v>0.000287225644569844</v>
       </c>
       <c r="R14" t="n">
-        <v>6.094397764222492e-10</v>
+        <v>1.292407432629261e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>2.948449262518693e-10</v>
+        <v>8.668786176713184e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>2.54505277963446e-10</v>
+        <v>0.0002497217792551965</v>
       </c>
       <c r="U14" t="n">
-        <v>8.390441119665581e-12</v>
+        <v>0.0001413448480889201</v>
       </c>
       <c r="V14" t="n">
-        <v>4.196134550937813e-10</v>
+        <v>0.0002143246674677357</v>
       </c>
       <c r="W14" t="n">
-        <v>1.362701729235027e-09</v>
+        <v>9.567733650328591e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>6.512601569141907e-11</v>
+        <v>0.0001774172706063837</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.668678888984033e-10</v>
+        <v>7.677708344999701e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.659237357567235e-10</v>
+        <v>7.24165583960712e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.726534276131787e-13</v>
+        <v>4.626001464203e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.559602305777901e-10</v>
+        <v>9.826601308304816e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.17289122858466e-10</v>
+        <v>8.854186307871714e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.169235429645312e-10</v>
+        <v>4.157683360972442e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.263920741631182e-10</v>
+        <v>6.88380459905602e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.559679495612755e-10</v>
+        <v>7.388762605842203e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>4.450439322623012e-11</v>
+        <v>0.0001307128404732794</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.215575359431625e-11</v>
+        <v>3.942110924981534e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.586060865976791e-10</v>
+        <v>0.0001450746203772724</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.773455159450378e-11</v>
+        <v>1.015578163787723e-06</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.739976909919676e-10</v>
+        <v>0.0001858196046669036</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.975431845353427e-10</v>
+        <v>3.178495899192058e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>4.685606416754418e-11</v>
+        <v>4.709134736913256e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.086608911852863e-11</v>
+        <v>0.0001546261773910373</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.076202431146925e-10</v>
+        <v>0.0001962497626664117</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.585251817650459e-10</v>
+        <v>0.0002476362860761583</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6.171740202232101e-11</v>
+        <v>4.634011565940455e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.2098513857417e-10</v>
+        <v>0.0001327445352217183</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.887875966666286e-11</v>
+        <v>5.644969860441051e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.015840744855723e-09</v>
+        <v>4.998432996217161e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.65470806132862e-10</v>
+        <v>0.001040688715875149</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.218378589828433e-11</v>
+        <v>2.089436020469293e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.905973405300301e-10</v>
+        <v>6.004462920827791e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.243800507033654e-09</v>
+        <v>0.0001513866154709831</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.558257243880703e-11</v>
+        <v>6.976398435654119e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.827461099113137e-11</v>
+        <v>0.0001130458549596369</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.500084471725785e-10</v>
+        <v>0.0002597544225864112</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.158951142861021e-11</v>
+        <v>0.0001130311284214258</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.641314688327622e-11</v>
+        <v>1.99018613784574e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.766802065234941e-10</v>
+        <v>0.0002524264273233712</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.449229526470866e-11</v>
+        <v>0.0003415217215660959</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.215248568442462e-09</v>
+        <v>0.0002707615494728088</v>
       </c>
       <c r="BG14" t="n">
-        <v>6.609590652573161e-10</v>
+        <v>0.0006132024573162198</v>
       </c>
       <c r="BH14" t="n">
-        <v>7.362450094028361e-10</v>
+        <v>0.000112440378870815</v>
       </c>
       <c r="BI14" t="n">
-        <v>2.51848514265518e-10</v>
+        <v>0.0001155557401943952</v>
       </c>
       <c r="BJ14" t="n">
-        <v>3.313037899577154e-10</v>
+        <v>0.0002499907277524471</v>
       </c>
       <c r="BK14" t="n">
-        <v>6.696704996089764e-11</v>
+        <v>3.104874122072943e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.154290205085395e-12</v>
+        <v>0.0001537741045467556</v>
       </c>
       <c r="BM14" t="n">
-        <v>7.291667269981872e-10</v>
+        <v>0.0002867828297894448</v>
       </c>
       <c r="BN14" t="n">
-        <v>6.823773490705065e-11</v>
+        <v>0.0001231195492437109</v>
       </c>
       <c r="BO14" t="n">
-        <v>5.145772696835138e-10</v>
+        <v>1.029658142215339e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>4.507262618691499e-10</v>
+        <v>0.0003041635791305453</v>
       </c>
       <c r="BQ14" t="n">
-        <v>2.80692587228959e-11</v>
+        <v>0.0001917651534313336</v>
       </c>
       <c r="BR14" t="n">
-        <v>9.19249329434102e-11</v>
+        <v>7.914294837974012e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.25605303935572e-10</v>
+        <v>0.0001489057904109359</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.002624537895571e-11</v>
+        <v>9.489324293099344e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>9.424170333005577e-10</v>
+        <v>0.0001089590659830719</v>
       </c>
       <c r="BV14" t="n">
-        <v>9.027682768003586e-11</v>
+        <v>0.0005506206653080881</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.694862471537164e-10</v>
+        <v>0.0001161650216090493</v>
       </c>
       <c r="BX14" t="n">
-        <v>7.886519215460908e-10</v>
+        <v>5.340867573977448e-06</v>
       </c>
       <c r="BY14" t="n">
-        <v>8.667736528522596e-10</v>
+        <v>0.0001166442307294346</v>
       </c>
       <c r="BZ14" t="n">
-        <v>2.630917983470482e-10</v>
+        <v>0.0002596518024802208</v>
       </c>
       <c r="CA14" t="n">
-        <v>2.254967046422252e-11</v>
+        <v>6.701932579744607e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.656117465387297e-10</v>
+        <v>5.970118763798382e-06</v>
       </c>
       <c r="CC14" t="n">
-        <v>2.037639501573096e-10</v>
+        <v>4.189393803244457e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>3.94095922562343e-10</v>
+        <v>4.534220715868287e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.15896364622148e-10</v>
+        <v>0.0002876692451536655</v>
       </c>
       <c r="CF14" t="n">
-        <v>6.409681813090984e-12</v>
+        <v>6.899289292050526e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>3.842037243906304e-10</v>
+        <v>0.0001009512561722659</v>
       </c>
       <c r="CH14" t="n">
-        <v>7.210939623192303e-10</v>
+        <v>7.313749665627256e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.105306887683177e-10</v>
+        <v>2.516585118428338e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.97930499715271e-11</v>
+        <v>0.0001091029189410619</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.401333354911216e-10</v>
+        <v>5.386168777476996e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>7.949457064837517e-11</v>
+        <v>2.13829698623158e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>2.200739937507912e-11</v>
+        <v>0.0003885402693413198</v>
       </c>
       <c r="CN14" t="n">
-        <v>4.170488399068972e-10</v>
+        <v>0.0001476966426707804</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.848475622041491e-10</v>
+        <v>3.98790325562004e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>8.248823291090446e-10</v>
+        <v>0.0001854877482401207</v>
       </c>
       <c r="CQ14" t="n">
-        <v>6.887617698403403e-10</v>
+        <v>0.0002317958715138957</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.040892261272575e-09</v>
+        <v>0.0004661147249862552</v>
       </c>
       <c r="CS14" t="n">
-        <v>8.942881157825155e-11</v>
+        <v>9.901042358251289e-05</v>
       </c>
       <c r="CT14" t="n">
-        <v>3.132617221179856e-10</v>
+        <v>9.785094152903184e-05</v>
       </c>
       <c r="CU14" t="n">
-        <v>3.269867709931873e-11</v>
+        <v>0.0001629652251722291</v>
       </c>
       <c r="CV14" t="n">
-        <v>3.987931096460784e-10</v>
+        <v>2.100866549881175e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>3.673347459542953e-10</v>
+        <v>0.0002624926855787635</v>
       </c>
       <c r="CX14" t="n">
-        <v>6.481757491849649e-11</v>
+        <v>0.000107135834696237</v>
       </c>
       <c r="CY14" t="n">
-        <v>2.939038457050458e-10</v>
+        <v>0.000139376541483216</v>
       </c>
       <c r="CZ14" t="n">
-        <v>6.144654784989712e-10</v>
+        <v>6.3276820583269e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>4.62490115649139e-11</v>
+        <v>1.197098936245311e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.903947138837125e-11</v>
+        <v>0.0001120261731557548</v>
       </c>
       <c r="DC14" t="n">
-        <v>1.313267272706753e-10</v>
+        <v>8.111746865324676e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>5.461423327468573e-11</v>
+        <v>1.684827657300048e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.059821119753224e-09</v>
+        <v>0.0001342394098173827</v>
       </c>
       <c r="DF14" t="n">
-        <v>7.743274355043184e-10</v>
+        <v>0.0004595046339090914</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.850757602728237e-10</v>
+        <v>7.173861376941204e-05</v>
       </c>
       <c r="DH14" t="n">
-        <v>5.295035243602086e-11</v>
+        <v>0.0004412890993990004</v>
       </c>
       <c r="DI14" t="n">
-        <v>6.499423221839606e-11</v>
+        <v>9.070959640666842e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>3.444223239945643e-10</v>
+        <v>9.093373591895215e-07</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.749993205901745e-10</v>
+        <v>6.49531721137464e-05</v>
       </c>
       <c r="DL14" t="n">
-        <v>5.923552204301075e-10</v>
+        <v>9.666496771387756e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>2.924195607878488e-10</v>
+        <v>0.0001020778508973308</v>
       </c>
       <c r="DN14" t="n">
-        <v>2.031084606057831e-10</v>
+        <v>0.0001997000799747184</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.08110395635741e-11</v>
+        <v>9.873247472569346e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>4.397372396769406e-11</v>
+        <v>1.253701429959619e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>3.804194737000444e-10</v>
+        <v>0.0001295764523092657</v>
       </c>
       <c r="DR14" t="n">
-        <v>7.640273969045097e-10</v>
+        <v>0.0001358698355033994</v>
       </c>
       <c r="DS14" t="n">
-        <v>7.487314240828269e-11</v>
+        <v>4.817799344891682e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>5.824356275052622e-11</v>
+        <v>6.63617393001914e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.585281460078861e-11</v>
+        <v>0.000169649749295786</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.996779408486304e-10</v>
+        <v>3.262624159106053e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>5.560863922116077e-11</v>
+        <v>6.155388109618798e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>3.100656953414216e-10</v>
+        <v>0.0001223982544615865</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.614748057487958e-10</v>
+        <v>6.025315087754279e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>2.560388012717851e-10</v>
+        <v>3.540636680554599e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.449455139246325e-10</v>
+        <v>0.0002504037402104586</v>
       </c>
       <c r="EB14" t="n">
-        <v>4.589946478450457e-10</v>
+        <v>0.00018369234749116</v>
       </c>
       <c r="EC14" t="n">
-        <v>7.991345085667234e-11</v>
+        <v>9.22181861824356e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>1.558162071590985e-10</v>
+        <v>2.88032169919461e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>2.943313093251021e-10</v>
+        <v>0.0001285430771531537</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.956733994949559e-10</v>
+        <v>0.0002027324226219207</v>
       </c>
       <c r="EG14" t="n">
-        <v>5.90680698797641e-11</v>
+        <v>0.0002860151580534875</v>
       </c>
       <c r="EH14" t="n">
-        <v>3.200101295064428e-11</v>
+        <v>0.0001664316805545241</v>
       </c>
       <c r="EI14" t="n">
-        <v>4.524737529099099e-10</v>
+        <v>0.0001211349808727391</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.213052922000024e-11</v>
+        <v>0.0001538748474558815</v>
       </c>
       <c r="EK14" t="n">
-        <v>2.638719104330889e-12</v>
+        <v>1.950781370396726e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.227011547921819e-11</v>
+        <v>0.0001420683111064136</v>
       </c>
       <c r="EM14" t="n">
-        <v>5.403804834158699e-11</v>
+        <v>6.617565668420866e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.465135790468253e-10</v>
+        <v>6.655273864453193e-06</v>
       </c>
       <c r="EO14" t="n">
-        <v>2.455446401761208e-10</v>
+        <v>6.501965981442481e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>3.096368994537357e-10</v>
+        <v>0.0002460824907757342</v>
       </c>
       <c r="EQ14" t="n">
-        <v>2.162685308615409e-10</v>
+        <v>6.920748273842037e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>1.440567665156323e-10</v>
+        <v>0.0001428242394467816</v>
       </c>
       <c r="ES14" t="n">
-        <v>6.323405687957973e-10</v>
+        <v>6.347874295897782e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>1.42942074843333e-10</v>
+        <v>6.265864794841036e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>3.786593434640384e-12</v>
+        <v>0.0001648672041483223</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.131209709237524e-11</v>
+        <v>0.0001089964134735055</v>
       </c>
       <c r="EW14" t="n">
-        <v>6.813678787853661e-11</v>
+        <v>2.686264087969903e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>3.2409108730036e-10</v>
+        <v>7.300124707398936e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>3.089619948770661e-10</v>
+        <v>0.0002747240068856627</v>
       </c>
       <c r="EZ14" t="n">
-        <v>6.738678365314499e-11</v>
+        <v>7.342754543060437e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>2.64701094376818e-10</v>
+        <v>0.0001324973127339035</v>
       </c>
       <c r="FB14" t="n">
-        <v>6.970208854539806e-10</v>
+        <v>2.64191967289662e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>9.980842541335022e-11</v>
+        <v>3.316194852232002e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>1.444038638664935e-11</v>
+        <v>0.000104663246020209</v>
       </c>
       <c r="FE14" t="n">
-        <v>3.446749829993934e-11</v>
+        <v>7.638049282832071e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.18103677479542e-11</v>
+        <v>4.558328510029241e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>3.348920862844551e-10</v>
+        <v>7.205719884950668e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>2.71049321876049e-10</v>
+        <v>2.09110148716718e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>2.133886123356632e-11</v>
+        <v>9.939823939930648e-06</v>
       </c>
       <c r="FJ14" t="n">
-        <v>3.333290865548122e-10</v>
+        <v>0.0002068496687570587</v>
       </c>
       <c r="FK14" t="n">
-        <v>6.515223915926072e-10</v>
+        <v>0.0002316066675120965</v>
       </c>
       <c r="FL14" t="n">
-        <v>6.210179592791576e-10</v>
+        <v>0.000166366487974301</v>
       </c>
       <c r="FM14" t="n">
-        <v>5.204832398408854e-11</v>
+        <v>6.402537110261619e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>4.17593321033749e-10</v>
+        <v>3.616604590206407e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.558339290941291e-10</v>
+        <v>4.421700941747986e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.947048355877001e-10</v>
+        <v>0.0001693347003310919</v>
       </c>
       <c r="FQ14" t="n">
-        <v>5.502995281680967e-10</v>
+        <v>9.633083664084552e-07</v>
       </c>
       <c r="FR14" t="n">
-        <v>7.149598690858738e-10</v>
+        <v>0.0003774623037315905</v>
       </c>
       <c r="FS14" t="n">
-        <v>6.100899785366209e-10</v>
+        <v>8.188743959181011e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>8.898789483069436e-10</v>
+        <v>0.0001846301165642217</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.702479546228375e-10</v>
+        <v>5.93784570810385e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>2.95033997232963e-11</v>
+        <v>0.0001273428206332028</v>
       </c>
       <c r="FW14" t="n">
-        <v>3.110985358212304e-10</v>
+        <v>0.0001311355881625786</v>
       </c>
       <c r="FX14" t="n">
-        <v>1.249555181548345e-10</v>
+        <v>0.0002005021960940212</v>
       </c>
       <c r="FY14" t="n">
-        <v>4.610478665512119e-10</v>
+        <v>0.0001252066867891699</v>
       </c>
       <c r="FZ14" t="n">
-        <v>6.17447704076568e-10</v>
+        <v>4.665816595661454e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.492475310005403e-10</v>
+        <v>2.345942448300775e-06</v>
       </c>
       <c r="GB14" t="n">
-        <v>1.071546462672046e-10</v>
+        <v>3.651975930551998e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>6.44625519630182e-10</v>
+        <v>0.0001493508170824498</v>
       </c>
       <c r="GD14" t="n">
-        <v>1.242713432159093e-10</v>
+        <v>0.000133145964355208</v>
       </c>
       <c r="GE14" t="n">
-        <v>2.92493418374562e-10</v>
+        <v>0.0001674088562140241</v>
       </c>
       <c r="GF14" t="n">
-        <v>2.15048021057207e-10</v>
+        <v>1.925840660987888e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>2.19734327955301e-10</v>
+        <v>0.0001467221445636824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.001016288646496832</v>
+        <v>8.688907837495208e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004128921777009964</v>
+        <v>0.02330350875854492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005262285703793168</v>
+        <v>0.004421301186084747</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01424671430140734</v>
+        <v>0.01216900069266558</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003285130253061652</v>
+        <v>0.009954709559679031</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002659287303686142</v>
+        <v>0.00528914388269186</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001285889884456992</v>
+        <v>0.005678180605173111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002757406095042825</v>
+        <v>0.002746412297710776</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004573111888021231</v>
+        <v>0.001950877835042775</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001859119394794106</v>
+        <v>0.001712961471639574</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00309790950268507</v>
+        <v>0.01783694140613079</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001679942477494478</v>
+        <v>0.001271940185688436</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01435738056898117</v>
+        <v>0.01074516773223877</v>
       </c>
       <c r="N15" t="n">
-        <v>0.007869872264564037</v>
+        <v>0.009928870014846325</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001549897715449333</v>
+        <v>0.006941618863493204</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001909803366288543</v>
+        <v>0.005444900132715702</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.006331921089440584</v>
+        <v>0.0009814765071496367</v>
       </c>
       <c r="R15" t="n">
-        <v>0.003752771532163024</v>
+        <v>0.002021793508902192</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0009851396316662431</v>
+        <v>0.0007326342747546732</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0004033295845147222</v>
+        <v>0.004328353796154261</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0004043542430736125</v>
+        <v>0.0003185325185768306</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0005434820195659995</v>
+        <v>0.003282707650214434</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01016862224787474</v>
+        <v>0.000781940936576575</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002021634485572577</v>
+        <v>0.002892100252211094</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001561894547194242</v>
+        <v>0.002695279195904732</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.003065190510824323</v>
+        <v>0.003058093134313822</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0004991901805624366</v>
+        <v>0.002945141401141882</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001408333308063447</v>
+        <v>0.0001288009807467461</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001969377044588327</v>
+        <v>0.003311949549242854</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001563218887895346</v>
+        <v>0.0001071903316187672</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.003350186161696911</v>
+        <v>0.0007436651503667235</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001279804157093167</v>
+        <v>0.002518802881240845</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.00297438632696867</v>
+        <v>0.001782765262760222</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0007631250191479921</v>
+        <v>0.002272121142596006</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.001195573015138507</v>
+        <v>0.001439796993508935</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0005754489684477448</v>
+        <v>0.001893740729428828</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.002512442879378796</v>
+        <v>0.0008400705992244184</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.003157844766974449</v>
+        <v>0.004671132657676935</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.000122099241707474</v>
+        <v>9.973479609470814e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003109183395281434</v>
+        <v>7.805885979905725e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.001005221740342677</v>
+        <v>0.001231417059898376</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.002910372568294406</v>
+        <v>0.002077470067888498</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.718727384693921e-06</v>
+        <v>0.001532997819595039</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.002360304351896048</v>
+        <v>0.001429874915629625</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0001275863178307191</v>
+        <v>0.001580546027980745</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0008306496310979128</v>
+        <v>0.002297412604093552</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.253656465560198e-05</v>
+        <v>0.01632418669760227</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.001657139277085662</v>
+        <v>0.001901729614473879</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.005595412570983171</v>
+        <v>0.003717947052791715</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.001781473984010518</v>
+        <v>0.004561092238873243</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.003582685487344861</v>
+        <v>0.001123810186982155</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.001874402281828225</v>
+        <v>0.001173813478089869</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.00054909911705181</v>
+        <v>0.0003039761504624039</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.001590526662766933</v>
+        <v>0.0008981006685644388</v>
       </c>
       <c r="BC15" t="n">
-        <v>8.271779370261356e-05</v>
+        <v>0.0005988160846754909</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.002309855306521058</v>
+        <v>0.003201056271791458</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.003142397617921233</v>
+        <v>0.003915607463568449</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.007742689922451973</v>
+        <v>0.00402331817895174</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.003826801665127277</v>
+        <v>0.007838740944862366</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.001140363165177405</v>
+        <v>0.001463191001676023</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001667964505031705</v>
+        <v>0.003792308503761888</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.001419223728589714</v>
+        <v>0.00108698639087379</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.003259825287386775</v>
+        <v>0.003181543666869402</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.001034957123920321</v>
+        <v>0.001560897100716829</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.00274112238548696</v>
+        <v>0.002367273438721895</v>
       </c>
       <c r="BN15" t="n">
-        <v>3.488059155642986e-05</v>
+        <v>0.002215291373431683</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.000722671567928046</v>
+        <v>0.0009016427793540061</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.001165560563094914</v>
+        <v>0.0003890680382028222</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.001380562782287598</v>
+        <v>0.002607080154120922</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.0006430574576370418</v>
+        <v>0.0001427465758752078</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003348973812535405</v>
+        <v>0.001273130066692829</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0001215604934259318</v>
+        <v>0.000699087860994041</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.002982872305437922</v>
+        <v>0.002224058378487825</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.002626310102641582</v>
+        <v>0.009866781532764435</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.001628713682293892</v>
+        <v>0.00470731919631362</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.00449070893228054</v>
+        <v>0.003825054038316011</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.002147079212591052</v>
+        <v>0.001573713263496757</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.002189908642321825</v>
+        <v>0.002302495529875159</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.001178146456368268</v>
+        <v>0.001417222549207509</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0004159914678893983</v>
+        <v>0.001309844781644642</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.003280261531472206</v>
+        <v>0.002235280117020011</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.001702929148450494</v>
+        <v>0.0001531103625893593</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0009445460746064782</v>
+        <v>0.003570882370695472</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0003458923893049359</v>
+        <v>0.001479489612393081</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.003149131080135703</v>
+        <v>0.001802493818104267</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001053640502505004</v>
+        <v>0.0003768401802517474</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001135903410613537</v>
+        <v>0.001969018252566457</v>
       </c>
       <c r="CJ15" t="n">
-        <v>5.790867726318538e-05</v>
+        <v>0.0004765506891999394</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.001064991811290383</v>
+        <v>0.0006131354602985084</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0001310337538598105</v>
+        <v>0.001473666052334011</v>
       </c>
       <c r="CM15" t="n">
-        <v>7.288724009413272e-05</v>
+        <v>0.003250881563872099</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0011749331606552</v>
+        <v>0.0006762659759260714</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0002395139308646321</v>
+        <v>1.049225193128223e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.004619142971932888</v>
+        <v>0.001546477084048092</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.003125580493360758</v>
+        <v>0.001024697674438357</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.005120671819895506</v>
+        <v>0.0001777719298843294</v>
       </c>
       <c r="CS15" t="n">
-        <v>6.54765754006803e-05</v>
+        <v>0.003444449044764042</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0014913200866431</v>
+        <v>0.003863171441480517</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.001979249762371182</v>
+        <v>0.0008992627263069153</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.001772437710314989</v>
+        <v>9.59712197072804e-05</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.001794532290659845</v>
+        <v>0.002790275495499372</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0001218633406097069</v>
+        <v>0.001631415216252208</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.002669244538992643</v>
+        <v>0.002303565852344036</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.001178512000478804</v>
+        <v>0.0003019393770955503</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0004309466166887432</v>
+        <v>0.002708815969526768</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0002660855534486473</v>
+        <v>0.0002889665775001049</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0008091243798844516</v>
+        <v>0.000585174304433167</v>
       </c>
       <c r="DD15" t="n">
-        <v>2.648657573445234e-05</v>
+        <v>0.0005657839355990291</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.003670460544526577</v>
+        <v>0.001480416394770145</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.001608870225027204</v>
+        <v>0.003362609539180994</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.003589201252907515</v>
+        <v>0.0007210253970697522</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.002080012112855911</v>
+        <v>0.007637785281985998</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.003441315842792392</v>
+        <v>4.100793739780784e-05</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.001021046191453934</v>
+        <v>0.003279248485341668</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.002055458724498749</v>
+        <v>0.002381532918661833</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.002243387047201395</v>
+        <v>0.001608547871001065</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001199608552269638</v>
+        <v>0.0005351657164283097</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0006420782301574945</v>
+        <v>0.001290869200602174</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0009732539183460176</v>
+        <v>0.001040036324411631</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.001078697270713747</v>
+        <v>0.00144451588857919</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.001302364864386618</v>
+        <v>0.0009110490209423006</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.001744950655847788</v>
+        <v>0.002376485383138061</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.002603946253657341</v>
+        <v>1.913149026222527e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0008912315825000405</v>
+        <v>0.002733499277383089</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0004220592381898314</v>
+        <v>0.001745010958984494</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.001253510825335979</v>
+        <v>0.002748001366853714</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0005988820339553058</v>
+        <v>0.0006882736925035715</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.002365616150200367</v>
+        <v>0.0002921770792454481</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0004135495400987566</v>
+        <v>0.003638271475210786</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.002410666784271598</v>
+        <v>0.002634477103129029</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.892475847853348e-05</v>
+        <v>0.002575881313532591</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.001144820940680802</v>
+        <v>0.0006254918407648802</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0004595636273734272</v>
+        <v>0.0007806052453815937</v>
       </c>
       <c r="ED15" t="n">
-        <v>2.509236583136953e-05</v>
+        <v>0.001589431660249829</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.003032416105270386</v>
+        <v>0.0008433000766672194</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.001995161874219775</v>
+        <v>0.0009215408936142921</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001310691004619002</v>
+        <v>0.003061752300709486</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0001709121424937621</v>
+        <v>0.00158797309268266</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.002500157803297043</v>
+        <v>0.001528120599687099</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0001161932450486347</v>
+        <v>0.001942378468811512</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.001347721321508288</v>
+        <v>0.003131240606307983</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0005063043790869415</v>
+        <v>0.0004666747117880732</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.002039680723100901</v>
+        <v>0.0003823384176939726</v>
       </c>
       <c r="EN15" t="n">
-        <v>4.746318882098421e-05</v>
+        <v>0.0004465500242076814</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.003513825591653585</v>
+        <v>0.0002142945304512978</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.001475560944527388</v>
+        <v>0.0009304818813689053</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.002549016382545233</v>
+        <v>0.00354575808160007</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0008955514640547335</v>
+        <v>0.001564952777698636</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.002150354208424687</v>
+        <v>0.0001332212414126843</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0009093940025195479</v>
+        <v>0.004135077819228172</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.001331113511696458</v>
+        <v>0.0007040382479317486</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.001049112877808511</v>
+        <v>0.002205654978752136</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.001331316656433046</v>
+        <v>0.000260670785792172</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001379216904751956</v>
+        <v>0.0004357374564278871</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.001468174043111503</v>
+        <v>0.003009943291544914</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0002055193763226271</v>
+        <v>0.001173617085441947</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.002235645428299904</v>
+        <v>0.00287058437243104</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.001647852477617562</v>
+        <v>8.313386933878064e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0008789171115495265</v>
+        <v>0.00229626870714128</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0001591666514286771</v>
+        <v>0.0007617789087817073</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001509954920038581</v>
+        <v>0.0004478669143281877</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0002999702410306782</v>
+        <v>0.001338567351922393</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.0003598362090997398</v>
+        <v>0.0005602504825219512</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0002938065736088902</v>
+        <v>0.002479432383552194</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.001809032168239355</v>
+        <v>0.002155710477381945</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.002418552059680223</v>
+        <v>0.0009893428068608046</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0001561891258461401</v>
+        <v>0.0006253025494515896</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.001258109346963465</v>
+        <v>0.00110330549068749</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0007421247428283095</v>
+        <v>0.001683054608292878</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0006204353412613273</v>
+        <v>0.000863581255543977</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.002009595045819879</v>
+        <v>0.0005438961670733988</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0003844221355393529</v>
+        <v>0.0001028827391564846</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.004565720912069082</v>
+        <v>0.004188145510852337</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0002699702163226902</v>
+        <v>0.00271155359223485</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.001602486707270145</v>
+        <v>0.006481397431343794</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.001934037311002612</v>
+        <v>0.0005268908571451902</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.002538916422054172</v>
+        <v>0.001106582349166274</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0009479804430156946</v>
+        <v>6.105659122113138e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.002459278795868158</v>
+        <v>0.001767536392435431</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0029428421985358</v>
+        <v>0.0004698327684309334</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.001285406295210123</v>
+        <v>0.003353621112182736</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.001454718061722815</v>
+        <v>0.0006680687074549496</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0009918652940541506</v>
+        <v>0.0001133180630858988</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.001233504503034055</v>
+        <v>0.001706343144178391</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.002867596223950386</v>
+        <v>0.001044055097736418</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0002245352952741086</v>
+        <v>0.001462967251427472</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0007567248539999127</v>
+        <v>0.008237233385443687</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.000449710467364639</v>
+        <v>0.0007818093290552497</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.002147904364392161</v>
+        <v>0.00121690786909312</v>
       </c>
     </row>
     <row r="16">
@@ -9539,1140 +9539,1140 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00242531904950738</v>
+        <v>0.003137419931590557</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0002203203330282122</v>
+        <v>0.1300564706325531</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002764285076409578</v>
+        <v>0.01567395403981209</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0009096337016671896</v>
+        <v>0.06979529559612274</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001548668253235519</v>
+        <v>0.05861083418130875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004707890038844198</v>
+        <v>0.07867868989706039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003284150443505496</v>
+        <v>0.01225674897432327</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002662790648173541</v>
+        <v>0.04491782933473587</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0009914005640894175</v>
+        <v>0.01140199322253466</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002440266776829958</v>
+        <v>0.01407503709197044</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003185202658642083</v>
+        <v>0.1010492071509361</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00292060524225235</v>
+        <v>0.005205283407121897</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003222392406314611</v>
+        <v>0.04438605532050133</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0006653083837591112</v>
+        <v>0.04619637131690979</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0007412086706608534</v>
+        <v>0.08194314688444138</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0003082127659581602</v>
+        <v>0.009079907089471817</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0003134335274808109</v>
+        <v>0.01044611539691687</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001120366738177836</v>
+        <v>0.008981306105852127</v>
       </c>
       <c r="S17" t="n">
-        <v>7.048808765830472e-05</v>
+        <v>0.00601818785071373</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0006611102726310492</v>
+        <v>0.02111065573990345</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001548701839055866</v>
+        <v>0.005207631271332502</v>
       </c>
       <c r="V17" t="n">
-        <v>5.508437607204542e-05</v>
+        <v>0.02143525704741478</v>
       </c>
       <c r="W17" t="n">
-        <v>7.287900371011347e-05</v>
+        <v>0.008035946637392044</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0001495096075814217</v>
+        <v>0.01356285810470581</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0002121514844475314</v>
+        <v>0.01027451641857624</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0004196751397103071</v>
+        <v>0.005993585102260113</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0001330951636191458</v>
+        <v>0.008935686200857162</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.872453842428513e-05</v>
+        <v>0.002221084199845791</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0001398768508806825</v>
+        <v>0.01812519319355488</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0001035749301081523</v>
+        <v>0.0009064630139619112</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0004194192588329315</v>
+        <v>0.0003315721987746656</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.000416194146964699</v>
+        <v>0.003570022527128458</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0001342504692729563</v>
+        <v>0.01073605939745903</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0001485683606006205</v>
+        <v>0.02170915156602859</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0006153929862193763</v>
+        <v>0.01331711560487747</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0005799381760880351</v>
+        <v>0.005820499267429113</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0004866171802859753</v>
+        <v>0.01241196226328611</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0008737466996535659</v>
+        <v>0.0229900237172842</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0003624545934144408</v>
+        <v>0.001622215146198869</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0004721076693385839</v>
+        <v>0.009949144907295704</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.800404273439199e-05</v>
+        <v>0.002511815866455436</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0001333326217718422</v>
+        <v>0.02000842988491058</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0001070085563696921</v>
+        <v>0.004339692182838917</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.000315397308440879</v>
+        <v>0.01091425213962793</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.264216866227798e-05</v>
+        <v>0.0172989834100008</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0009319242089986801</v>
+        <v>0.008701186627149582</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.0006312329205684364</v>
+        <v>0.08718340843915939</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.001566522754728794</v>
+        <v>0.01070909574627876</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0005086874589323997</v>
+        <v>0.008975835517048836</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0001911643921630457</v>
+        <v>0.01426627673208714</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0006928725633770227</v>
+        <v>0.04718929529190063</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.0004109521978534758</v>
+        <v>0.00401981407776475</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0006443327874876559</v>
+        <v>0.03066841512918472</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0001292659871978685</v>
+        <v>0.01213336177170277</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0003914976259693503</v>
+        <v>0.0001477794721722603</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001052164807333611</v>
+        <v>0.02449808083474636</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.0007362056639976799</v>
+        <v>0.02259453572332859</v>
       </c>
       <c r="BF17" t="n">
-        <v>9.773186320671812e-05</v>
+        <v>0.02386933192610741</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0005459925741888583</v>
+        <v>0.0491013303399086</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.000437818729551509</v>
+        <v>0.01501399464905262</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0006157765164971352</v>
+        <v>0.01985669322311878</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.000444510136730969</v>
+        <v>0.02283438295125961</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0002766508841887116</v>
+        <v>0.006498557981103659</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0002652810362633318</v>
+        <v>0.01249305251985788</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.000285217072814703</v>
+        <v>0.0299812275916338</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.0004515969194471836</v>
+        <v>0.01414077542722225</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.000192146937479265</v>
+        <v>0.002807697514072061</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0005860741366632283</v>
+        <v>0.01115695387125015</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.0001173242635559291</v>
+        <v>0.01047352515161037</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0001577104703756049</v>
+        <v>0.03159266710281372</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.0004639785620383918</v>
+        <v>0.001354830805212259</v>
       </c>
       <c r="BT17" t="n">
-        <v>4.214997170493007e-05</v>
+        <v>0.01423946116119623</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0009210439748130739</v>
+        <v>0.007796918042004108</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.0001684766029939055</v>
+        <v>0.04947545751929283</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0005967519828118384</v>
+        <v>0.02839655429124832</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.000412106717703864</v>
+        <v>0.01047027390450239</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.0006943527841940522</v>
+        <v>0.0137154059484601</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.0002495255321264267</v>
+        <v>0.008051357232034206</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.0002011121687246487</v>
+        <v>0.007831617258489132</v>
       </c>
       <c r="CB17" t="n">
-        <v>5.117714317748323e-05</v>
+        <v>0.01017947588115931</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0004323499160818756</v>
+        <v>0.009085055440664291</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.0005337928887456656</v>
+        <v>0.0006633966695517302</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0006148432148620486</v>
+        <v>0.02159130945801735</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.0005793250165879726</v>
+        <v>0.009947633370757103</v>
       </c>
       <c r="CG17" t="n">
-        <v>7.878625910962e-05</v>
+        <v>0.006417828146368265</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0001708748168312013</v>
+        <v>0.0009292055619880557</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0002965073799714446</v>
+        <v>0.01228813640773296</v>
       </c>
       <c r="CJ17" t="n">
-        <v>8.2196100265719e-05</v>
+        <v>0.01293466053903103</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.0001028011829475872</v>
+        <v>0.009342482313513756</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.0001082287999452092</v>
+        <v>0.005700182635337114</v>
       </c>
       <c r="CM17" t="n">
-        <v>1.573439476487692e-05</v>
+        <v>0.02051871083676815</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0005756031023338437</v>
+        <v>0.01013607159256935</v>
       </c>
       <c r="CO17" t="n">
-        <v>8.151958172675222e-05</v>
+        <v>0.003402518341317773</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.0003401642316021025</v>
+        <v>0.02307109534740448</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0003743382985703647</v>
+        <v>0.006394322030246258</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.000144356323289685</v>
+        <v>0.01491891779005527</v>
       </c>
       <c r="CS17" t="n">
-        <v>3.841880970867351e-05</v>
+        <v>0.02197131142020226</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0002575356629677117</v>
+        <v>0.01202864106744528</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.0002094781229970977</v>
+        <v>0.005094924941658974</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0005148511845618486</v>
+        <v>0.0009791525080800056</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.0005620684241876006</v>
+        <v>0.01728007942438126</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0006198774790391326</v>
+        <v>0.01192019414156675</v>
       </c>
       <c r="CY17" t="n">
-        <v>3.857464616885409e-05</v>
+        <v>0.01239949744194746</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.000520699773915112</v>
+        <v>0.00227192067541182</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0002845960552804172</v>
+        <v>0.01592830754816532</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.0001238512777490541</v>
+        <v>0.01261595916002989</v>
       </c>
       <c r="DC17" t="n">
-        <v>4.686324245994911e-05</v>
+        <v>0.01310401782393456</v>
       </c>
       <c r="DD17" t="n">
-        <v>7.234590884763747e-05</v>
+        <v>0.001294655725359917</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.0001316227717325091</v>
+        <v>0.01420615706592798</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.001073419116437435</v>
+        <v>0.0166386179625988</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.0006678921636193991</v>
+        <v>0.0008580015273764729</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.0001013724686345086</v>
+        <v>0.05776381492614746</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0003645500401034951</v>
+        <v>0.005356795620173216</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0001282276934944093</v>
+        <v>0.005463351495563984</v>
       </c>
       <c r="DK17" t="n">
-        <v>8.982372673926875e-05</v>
+        <v>0.01432533841580153</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0004136560892220587</v>
+        <v>0.01642552018165588</v>
       </c>
       <c r="DM17" t="n">
-        <v>3.918472793884575e-05</v>
+        <v>0.01557164546102285</v>
       </c>
       <c r="DN17" t="n">
-        <v>4.547491334960796e-05</v>
+        <v>0.002139574149623513</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0006977611337788403</v>
+        <v>0.006987478584051132</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.0002238633314846084</v>
+        <v>0.005467667244374752</v>
       </c>
       <c r="DQ17" t="n">
-        <v>4.325593181420118e-05</v>
+        <v>0.01362436451017857</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.000304603367112577</v>
+        <v>0.005807723384350538</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0001876917958725244</v>
+        <v>0.01723337545990944</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.0002326426620129496</v>
+        <v>0.004640231840312481</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0001287464838242158</v>
+        <v>0.005265176296234131</v>
       </c>
       <c r="DV17" t="n">
-        <v>8.597465057391673e-05</v>
+        <v>0.004311026073992252</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.0003471087547950447</v>
+        <v>0.006610015407204628</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0002326841349713504</v>
+        <v>0.004845982883125544</v>
       </c>
       <c r="DY17" t="n">
-        <v>2.071431299555115e-05</v>
+        <v>0.0174206867814064</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.0002443990088067949</v>
+        <v>0.009001497179269791</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0003527359513100237</v>
+        <v>0.008738088421523571</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.0001621284754946828</v>
+        <v>0.002893803408369422</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.0001665778836468235</v>
+        <v>0.009019685909152031</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0004667704924941063</v>
+        <v>0.001687305979430676</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0001256369723705575</v>
+        <v>0.0009270915761590004</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0007795854471623898</v>
+        <v>0.005770767107605934</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.000433902139775455</v>
+        <v>0.01779798232018948</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.000578176521230489</v>
+        <v>0.009254125878214836</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0001581213291501626</v>
+        <v>0.01303812488913536</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0001717814011499286</v>
+        <v>0.01496103964745998</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0007527529960498214</v>
+        <v>0.005573242902755737</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.135120202088729e-05</v>
+        <v>0.02080381475389004</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.0005681361071765423</v>
+        <v>0.001685941591858864</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.0003178430779371411</v>
+        <v>0.0004034994635730982</v>
       </c>
       <c r="EO17" t="n">
-        <v>1.466001685912488e-05</v>
+        <v>0.002227042801678181</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.0005921800620853901</v>
+        <v>0.006484291050583124</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.0001268402702407911</v>
+        <v>0.02034709230065346</v>
       </c>
       <c r="ER17" t="n">
-        <v>3.587163519114256e-06</v>
+        <v>0.009479411877691746</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0002140828437404707</v>
+        <v>0.005177534651011229</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0001955626648850739</v>
+        <v>0.01009145844727755</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.000180984236067161</v>
+        <v>0.0136304059997201</v>
       </c>
       <c r="EV17" t="n">
-        <v>4.333664764999412e-05</v>
+        <v>0.02734759449958801</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.0002476962399668992</v>
+        <v>0.002649733796715736</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.0004983366234228015</v>
+        <v>0.001476698904298246</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0004640767874661833</v>
+        <v>0.01659040898084641</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.0006127877277322114</v>
+        <v>0.008437030948698521</v>
       </c>
       <c r="FA17" t="n">
-        <v>1.663448074396001e-06</v>
+        <v>0.009800482541322708</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.0003717975050676614</v>
+        <v>0.001025364967063069</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0001078899222193286</v>
+        <v>0.0137717816978693</v>
       </c>
       <c r="FD17" t="n">
-        <v>9.257189958589152e-05</v>
+        <v>0.0156711358577013</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0001672859652899206</v>
+        <v>0.01298864372074604</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.0001625327568035573</v>
+        <v>0.00642082653939724</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.0003456932900007814</v>
+        <v>0.005497205536812544</v>
       </c>
       <c r="FH17" t="n">
-        <v>7.707950862823054e-05</v>
+        <v>0.008177455514669418</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.0005355729954317212</v>
+        <v>0.01861674524843693</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0005583327147178352</v>
+        <v>0.02599779516458511</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.0004881117783952504</v>
+        <v>0.005219506099820137</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0001510777074145153</v>
+        <v>0.01249163225293159</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.0002813895116560161</v>
+        <v>0.007874947041273117</v>
       </c>
       <c r="FN17" t="n">
-        <v>7.895701855886728e-06</v>
+        <v>0.00664625084027648</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0002034755598288029</v>
+        <v>0.01058685779571533</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0003378857509233057</v>
+        <v>0.007488060742616653</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.001264129183255136</v>
+        <v>0.00812898576259613</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.0003676037886179984</v>
+        <v>0.007874621078372002</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0004305038601160049</v>
+        <v>0.006472690962255001</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0004069149727001786</v>
+        <v>0.01515611540526152</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0005641683819703758</v>
+        <v>0.01394194178283215</v>
       </c>
       <c r="FV17" t="n">
-        <v>2.409328590147197e-05</v>
+        <v>0.02380857244133949</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.0001447217655368149</v>
+        <v>0.007434505969285965</v>
       </c>
       <c r="FX17" t="n">
-        <v>8.423432882409543e-05</v>
+        <v>0.0007224921137094498</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.0003331338230054826</v>
+        <v>0.02364425919950008</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.0003045218181796372</v>
+        <v>0.003790559247136116</v>
       </c>
       <c r="GA17" t="n">
-        <v>2.743468940025195e-05</v>
+        <v>0.00186461373232305</v>
       </c>
       <c r="GB17" t="n">
-        <v>4.74334301543422e-05</v>
+        <v>0.009597918018698692</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.0005728228134103119</v>
+        <v>0.01067049335688353</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0002788230776786804</v>
+        <v>0.01752031967043877</v>
       </c>
       <c r="GE17" t="n">
-        <v>2.996668627019972e-06</v>
+        <v>0.05667661875486374</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0001690675999270752</v>
+        <v>0.002910698764026165</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.0001927820267155766</v>
+        <v>0.0009276373311877251</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0002776536857709289</v>
+        <v>0.0003989346150774509</v>
       </c>
       <c r="B18" t="n">
-        <v>3.714299236889929e-05</v>
+        <v>0.01311828847974539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002382881939411163</v>
+        <v>0.001862356904894114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001122990070143715</v>
+        <v>0.004214293323457241</v>
       </c>
       <c r="E18" t="n">
-        <v>4.957293640472926e-05</v>
+        <v>0.008136413060128689</v>
       </c>
       <c r="F18" t="n">
-        <v>1.979257831408177e-05</v>
+        <v>0.003640771145001054</v>
       </c>
       <c r="G18" t="n">
-        <v>4.23568781116046e-05</v>
+        <v>0.0007318351417779922</v>
       </c>
       <c r="H18" t="n">
-        <v>3.158606705255806e-05</v>
+        <v>0.001384300063364208</v>
       </c>
       <c r="I18" t="n">
-        <v>8.328289550263435e-05</v>
+        <v>0.0003423074376769364</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002752598957158625</v>
+        <v>0.0006129470421001315</v>
       </c>
       <c r="K18" t="n">
-        <v>3.610630665207282e-05</v>
+        <v>0.009762544184923172</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000260598084423691</v>
+        <v>0.0007845446234568954</v>
       </c>
       <c r="M18" t="n">
-        <v>3.86276442441158e-05</v>
+        <v>0.002887876704335213</v>
       </c>
       <c r="N18" t="n">
-        <v>3.948107405449264e-05</v>
+        <v>0.00751650333404541</v>
       </c>
       <c r="O18" t="n">
-        <v>3.511530667310581e-05</v>
+        <v>0.003598944284021854</v>
       </c>
       <c r="P18" t="n">
-        <v>7.187726441770792e-05</v>
+        <v>0.0008830545702949166</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.468702925601974e-05</v>
+        <v>0.001484623760916293</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0001317517162533477</v>
+        <v>0.0004619098326656967</v>
       </c>
       <c r="S18" t="n">
-        <v>1.683093978499528e-05</v>
+        <v>0.000432682951213792</v>
       </c>
       <c r="T18" t="n">
-        <v>7.809841918060556e-05</v>
+        <v>0.003065336961299181</v>
       </c>
       <c r="U18" t="n">
-        <v>1.593037814018317e-05</v>
+        <v>0.0008944887667894363</v>
       </c>
       <c r="V18" t="n">
-        <v>1.010568939818768e-05</v>
+        <v>0.001022580312564969</v>
       </c>
       <c r="W18" t="n">
-        <v>4.158391311648302e-05</v>
+        <v>0.0001497634802944958</v>
       </c>
       <c r="X18" t="n">
-        <v>1.529842666059267e-05</v>
+        <v>0.002157851587980986</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.682185822777683e-06</v>
+        <v>0.000315193145070225</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.873320333193988e-05</v>
+        <v>0.0004353400436230004</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.355869426333811e-05</v>
+        <v>1.370081008644775e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.916617520691943e-06</v>
+        <v>0.001173353521153331</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.3205180746736e-06</v>
+        <v>0.002947400324046612</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.151999069610611e-05</v>
+        <v>0.0006698307697661221</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.435746500850655e-05</v>
+        <v>0.0004048311675433069</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.744592347880825e-05</v>
+        <v>0.0003678253851830959</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.190285274788039e-05</v>
+        <v>0.002075050491839647</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.330709983449196e-05</v>
+        <v>0.002033735159784555</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.600435830885544e-05</v>
+        <v>0.0006476557464338839</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.156340532470495e-05</v>
+        <v>0.0001066690892912447</v>
       </c>
       <c r="AK18" t="n">
-        <v>5.124497329234146e-05</v>
+        <v>0.0012153364950791</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.454167982563376e-05</v>
+        <v>0.002302048495039344</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.563171437941492e-05</v>
+        <v>0.0006295618368312716</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.590620276052505e-05</v>
+        <v>0.0001798754674382508</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.515155574656092e-05</v>
+        <v>0.001076487824320793</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.903832708194386e-05</v>
+        <v>0.002028871327638626</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.942739779944532e-06</v>
+        <v>0.001277786563150585</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.895580786978826e-06</v>
+        <v>0.0004615198995452374</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.187294169038069e-06</v>
+        <v>0.0006151511333882809</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0001033347070915624</v>
+        <v>0.001699312357231975</v>
       </c>
       <c r="AU18" t="n">
-        <v>5.147747287992388e-05</v>
+        <v>0.01016157306730747</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.000126892642583698</v>
+        <v>0.0009342236444354057</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.640015686163679e-05</v>
+        <v>0.0002996698603965342</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.018557542120107e-06</v>
+        <v>0.001741603715345263</v>
       </c>
       <c r="AY18" t="n">
-        <v>6.797188689233735e-05</v>
+        <v>0.002988332649692893</v>
       </c>
       <c r="AZ18" t="n">
-        <v>3.225904583814554e-05</v>
+        <v>0.001750692958012223</v>
       </c>
       <c r="BA18" t="n">
-        <v>6.460277654696256e-05</v>
+        <v>0.002003740519285202</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.926038748933934e-05</v>
+        <v>0.001390754943713546</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.966237949905917e-05</v>
+        <v>0.001263046870008111</v>
       </c>
       <c r="BD18" t="n">
-        <v>3.072319486818742e-06</v>
+        <v>0.002877392806112766</v>
       </c>
       <c r="BE18" t="n">
-        <v>6.498594302684069e-05</v>
+        <v>0.001226669293828309</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.198829704662785e-05</v>
+        <v>0.001580569078214467</v>
       </c>
       <c r="BG18" t="n">
-        <v>2.554879392846487e-05</v>
+        <v>0.006617562845349312</v>
       </c>
       <c r="BH18" t="n">
-        <v>4.858852480538189e-05</v>
+        <v>0.001009060768410563</v>
       </c>
       <c r="BI18" t="n">
-        <v>4.160641037742607e-05</v>
+        <v>0.0002342055668123066</v>
       </c>
       <c r="BJ18" t="n">
-        <v>5.497227175510488e-05</v>
+        <v>0.002690514549612999</v>
       </c>
       <c r="BK18" t="n">
-        <v>2.687164851522539e-05</v>
+        <v>0.001164587796665728</v>
       </c>
       <c r="BL18" t="n">
-        <v>2.695623334147967e-05</v>
+        <v>0.00167576246894896</v>
       </c>
       <c r="BM18" t="n">
-        <v>2.634397424117196e-05</v>
+        <v>0.004691668786108494</v>
       </c>
       <c r="BN18" t="n">
-        <v>4.775137495016679e-05</v>
+        <v>0.001248026848770678</v>
       </c>
       <c r="BO18" t="n">
-        <v>2.248840064567048e-05</v>
+        <v>0.0008554441155865788</v>
       </c>
       <c r="BP18" t="n">
-        <v>7.826401269994676e-05</v>
+        <v>0.002503863070160151</v>
       </c>
       <c r="BQ18" t="n">
-        <v>2.95402296615066e-05</v>
+        <v>0.00177878316026181</v>
       </c>
       <c r="BR18" t="n">
-        <v>5.548905392060988e-06</v>
+        <v>0.001943471841514111</v>
       </c>
       <c r="BS18" t="n">
-        <v>3.417992775212042e-05</v>
+        <v>0.0001202828934765421</v>
       </c>
       <c r="BT18" t="n">
-        <v>1.80221140908543e-05</v>
+        <v>0.0006580410990864038</v>
       </c>
       <c r="BU18" t="n">
-        <v>9.923231846187264e-05</v>
+        <v>0.001094235572963953</v>
       </c>
       <c r="BV18" t="n">
-        <v>2.289137228217442e-05</v>
+        <v>0.005601409822702408</v>
       </c>
       <c r="BW18" t="n">
-        <v>5.240901373326778e-05</v>
+        <v>0.003001623786985874</v>
       </c>
       <c r="BX18" t="n">
-        <v>6.649165152339265e-05</v>
+        <v>4.397193697514012e-05</v>
       </c>
       <c r="BY18" t="n">
-        <v>1.717428131087217e-05</v>
+        <v>0.001295273075811565</v>
       </c>
       <c r="BZ18" t="n">
-        <v>2.308641342096962e-05</v>
+        <v>0.0008969554328359663</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.152310869656503e-05</v>
+        <v>0.0009093824774026871</v>
       </c>
       <c r="CB18" t="n">
-        <v>2.666575892362744e-05</v>
+        <v>0.0008358529303222895</v>
       </c>
       <c r="CC18" t="n">
-        <v>2.919797043432482e-05</v>
+        <v>0.0003896781418006867</v>
       </c>
       <c r="CD18" t="n">
-        <v>5.395803236751817e-05</v>
+        <v>0.0002918815880548209</v>
       </c>
       <c r="CE18" t="n">
-        <v>6.357407983159646e-05</v>
+        <v>0.002504711970686913</v>
       </c>
       <c r="CF18" t="n">
-        <v>4.732199158752337e-05</v>
+        <v>6.093362026149407e-05</v>
       </c>
       <c r="CG18" t="n">
-        <v>1.23355130199343e-05</v>
+        <v>0.0008340605418197811</v>
       </c>
       <c r="CH18" t="n">
-        <v>3.616562025854364e-06</v>
+        <v>0.0004273569502402097</v>
       </c>
       <c r="CI18" t="n">
-        <v>1.544981387269218e-05</v>
+        <v>0.0005406179116107523</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1.624226752028335e-05</v>
+        <v>0.0008612973615527153</v>
       </c>
       <c r="CK18" t="n">
-        <v>1.774009797372855e-05</v>
+        <v>0.0001692404184723273</v>
       </c>
       <c r="CL18" t="n">
-        <v>9.230121577274986e-06</v>
+        <v>0.0002485023578628898</v>
       </c>
       <c r="CM18" t="n">
-        <v>1.429372696293285e-05</v>
+        <v>0.003441284410655499</v>
       </c>
       <c r="CN18" t="n">
-        <v>4.648557296604849e-05</v>
+        <v>0.002757104346528649</v>
       </c>
       <c r="CO18" t="n">
-        <v>6.462897999881534e-06</v>
+        <v>0.000151832660776563</v>
       </c>
       <c r="CP18" t="n">
-        <v>1.690089811745565e-05</v>
+        <v>0.001405001385137439</v>
       </c>
       <c r="CQ18" t="n">
-        <v>5.767518086940981e-05</v>
+        <v>0.0007442885544151068</v>
       </c>
       <c r="CR18" t="n">
-        <v>7.748512871330604e-07</v>
+        <v>0.001322290860116482</v>
       </c>
       <c r="CS18" t="n">
-        <v>3.605267238526721e-06</v>
+        <v>0.0007855653529986739</v>
       </c>
       <c r="CT18" t="n">
-        <v>2.059503458440304e-05</v>
+        <v>0.001313596381805837</v>
       </c>
       <c r="CU18" t="n">
-        <v>4.663560685003176e-05</v>
+        <v>5.415478517534211e-05</v>
       </c>
       <c r="CV18" t="n">
-        <v>4.595981590682641e-05</v>
+        <v>0.0002321984648006037</v>
       </c>
       <c r="CW18" t="n">
-        <v>5.996815161779523e-05</v>
+        <v>0.00190496735740453</v>
       </c>
       <c r="CX18" t="n">
-        <v>5.24800707353279e-05</v>
+        <v>0.0005686738877557218</v>
       </c>
       <c r="CY18" t="n">
-        <v>2.157515154976863e-06</v>
+        <v>0.0015002895379439</v>
       </c>
       <c r="CZ18" t="n">
-        <v>4.042690125061199e-05</v>
+        <v>0.0002670521789696068</v>
       </c>
       <c r="DA18" t="n">
-        <v>1.456365862395614e-05</v>
+        <v>0.0009903896134346724</v>
       </c>
       <c r="DB18" t="n">
-        <v>1.887842518044636e-05</v>
+        <v>0.0006464826292358339</v>
       </c>
       <c r="DC18" t="n">
-        <v>9.074423360289074e-06</v>
+        <v>0.0003590632986743003</v>
       </c>
       <c r="DD18" t="n">
-        <v>4.136441020818893e-06</v>
+        <v>0.0003894047695212066</v>
       </c>
       <c r="DE18" t="n">
-        <v>1.581535798322875e-06</v>
+        <v>2.059072721749544e-05</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0001241108257090673</v>
+        <v>0.004651850089430809</v>
       </c>
       <c r="DG18" t="n">
-        <v>5.356211840989999e-05</v>
+        <v>0.0009825638262555003</v>
       </c>
       <c r="DH18" t="n">
-        <v>2.315982783329673e-06</v>
+        <v>0.003522638464346528</v>
       </c>
       <c r="DI18" t="n">
-        <v>2.098793629556894e-06</v>
+        <v>0.000816927058622241</v>
       </c>
       <c r="DJ18" t="n">
-        <v>4.837089363718405e-06</v>
+        <v>9.883810707833618e-05</v>
       </c>
       <c r="DK18" t="n">
-        <v>2.248580312880222e-05</v>
+        <v>0.002810106379911304</v>
       </c>
       <c r="DL18" t="n">
-        <v>2.887795017159078e-05</v>
+        <v>0.001000962685793638</v>
       </c>
       <c r="DM18" t="n">
-        <v>2.849576594599057e-05</v>
+        <v>0.001805837266147137</v>
       </c>
       <c r="DN18" t="n">
-        <v>7.345896847255062e-06</v>
+        <v>0.000796817010268569</v>
       </c>
       <c r="DO18" t="n">
-        <v>5.574332317337394e-05</v>
+        <v>0.002175745088607073</v>
       </c>
       <c r="DP18" t="n">
-        <v>1.700722532405052e-05</v>
+        <v>0.0006339072715491056</v>
       </c>
       <c r="DQ18" t="n">
-        <v>3.698200089274906e-06</v>
+        <v>0.0003275419003330171</v>
       </c>
       <c r="DR18" t="n">
-        <v>8.708653695066459e-06</v>
+        <v>0.0005163581809028983</v>
       </c>
       <c r="DS18" t="n">
-        <v>9.193907317239791e-06</v>
+        <v>0.002848947886377573</v>
       </c>
       <c r="DT18" t="n">
-        <v>2.76619139185641e-05</v>
+        <v>0.0003127810196019709</v>
       </c>
       <c r="DU18" t="n">
-        <v>1.550281467643799e-06</v>
+        <v>5.498501195688732e-06</v>
       </c>
       <c r="DV18" t="n">
-        <v>1.169519418908749e-05</v>
+        <v>0.001015286659821868</v>
       </c>
       <c r="DW18" t="n">
-        <v>2.824890543706715e-05</v>
+        <v>0.00022822932805866</v>
       </c>
       <c r="DX18" t="n">
-        <v>1.734386023599654e-05</v>
+        <v>9.792573837330565e-05</v>
       </c>
       <c r="DY18" t="n">
-        <v>6.407163255062187e-06</v>
+        <v>0.0003019040741492063</v>
       </c>
       <c r="DZ18" t="n">
-        <v>5.623805009236094e-06</v>
+        <v>0.0003592930152080953</v>
       </c>
       <c r="EA18" t="n">
-        <v>4.019132029497996e-05</v>
+        <v>0.001747512724250555</v>
       </c>
       <c r="EB18" t="n">
-        <v>1.335799879598198e-05</v>
+        <v>0.001319456030614674</v>
       </c>
       <c r="EC18" t="n">
-        <v>2.502052666386589e-05</v>
+        <v>0.0002076134260278195</v>
       </c>
       <c r="ED18" t="n">
-        <v>5.669524034601636e-05</v>
+        <v>0.0004089793947059661</v>
       </c>
       <c r="EE18" t="n">
-        <v>4.524304131336976e-06</v>
+        <v>0.000271331547992304</v>
       </c>
       <c r="EF18" t="n">
-        <v>9.301815589424223e-05</v>
+        <v>0.0007362181786447763</v>
       </c>
       <c r="EG18" t="n">
-        <v>5.11663020006381e-05</v>
+        <v>0.001087584416382015</v>
       </c>
       <c r="EH18" t="n">
-        <v>4.448829349712469e-05</v>
+        <v>0.0002890962932724506</v>
       </c>
       <c r="EI18" t="n">
-        <v>5.807299203297589e-06</v>
+        <v>0.0002523866714909673</v>
       </c>
       <c r="EJ18" t="n">
-        <v>1.530099325464107e-06</v>
+        <v>0.0009509776718914509</v>
       </c>
       <c r="EK18" t="n">
-        <v>4.07462430302985e-05</v>
+        <v>0.0007004751823842525</v>
       </c>
       <c r="EL18" t="n">
-        <v>8.34892489365302e-06</v>
+        <v>0.001340852468274534</v>
       </c>
       <c r="EM18" t="n">
-        <v>5.715264705941081e-05</v>
+        <v>7.972334424266592e-05</v>
       </c>
       <c r="EN18" t="n">
-        <v>3.125245711999014e-05</v>
+        <v>0.0005870854947715998</v>
       </c>
       <c r="EO18" t="n">
-        <v>2.786004415611387e-06</v>
+        <v>0.001643777824938297</v>
       </c>
       <c r="EP18" t="n">
-        <v>7.660305709578097e-05</v>
+        <v>8.788547711446881e-05</v>
       </c>
       <c r="EQ18" t="n">
-        <v>2.07422926905565e-05</v>
+        <v>0.001416048849932849</v>
       </c>
       <c r="ER18" t="n">
-        <v>2.009045419981703e-05</v>
+        <v>0.001837005373090506</v>
       </c>
       <c r="ES18" t="n">
-        <v>7.801696483511478e-06</v>
+        <v>0.0003401536087039858</v>
       </c>
       <c r="ET18" t="n">
-        <v>3.574684888008051e-05</v>
+        <v>3.853182715829462e-05</v>
       </c>
       <c r="EU18" t="n">
-        <v>2.015853533521295e-05</v>
+        <v>0.0004211629275232553</v>
       </c>
       <c r="EV18" t="n">
-        <v>1.111928122554673e-05</v>
+        <v>0.0009801588021218777</v>
       </c>
       <c r="EW18" t="n">
-        <v>2.027722803177312e-05</v>
+        <v>0.0006562088383361697</v>
       </c>
       <c r="EX18" t="n">
-        <v>4.90289821755141e-05</v>
+        <v>0.0003675704647321254</v>
       </c>
       <c r="EY18" t="n">
-        <v>4.925153916701674e-05</v>
+        <v>0.001655303873121738</v>
       </c>
       <c r="EZ18" t="n">
-        <v>5.423451875685714e-05</v>
+        <v>0.0001225298037752509</v>
       </c>
       <c r="FA18" t="n">
-        <v>6.579128694284009e-06</v>
+        <v>0.0008327101822942495</v>
       </c>
       <c r="FB18" t="n">
-        <v>2.613575816212688e-05</v>
+        <v>0.0002434558555250987</v>
       </c>
       <c r="FC18" t="n">
-        <v>5.701554073311854e-07</v>
+        <v>0.001102872658520937</v>
       </c>
       <c r="FD18" t="n">
-        <v>1.276589500776026e-05</v>
+        <v>0.000980085926130414</v>
       </c>
       <c r="FE18" t="n">
-        <v>1.682051879470237e-05</v>
+        <v>0.0003355113440193236</v>
       </c>
       <c r="FF18" t="n">
-        <v>8.715624062460847e-06</v>
+        <v>5.443445115815848e-05</v>
       </c>
       <c r="FG18" t="n">
-        <v>3.355868102516979e-05</v>
+        <v>0.0005135565879754722</v>
       </c>
       <c r="FH18" t="n">
-        <v>1.14099275378976e-05</v>
+        <v>0.00111302500590682</v>
       </c>
       <c r="FI18" t="n">
-        <v>4.189242463326082e-05</v>
+        <v>0.0008865450508892536</v>
       </c>
       <c r="FJ18" t="n">
-        <v>5.438834705273621e-05</v>
+        <v>0.00114555936306715</v>
       </c>
       <c r="FK18" t="n">
-        <v>2.328283699171152e-05</v>
+        <v>0.001266017090529203</v>
       </c>
       <c r="FL18" t="n">
-        <v>2.200505696237087e-05</v>
+        <v>0.001337180030532181</v>
       </c>
       <c r="FM18" t="n">
-        <v>3.687376738525927e-05</v>
+        <v>0.0002620020241010934</v>
       </c>
       <c r="FN18" t="n">
-        <v>3.897481292369775e-05</v>
+        <v>0.0004555796040222049</v>
       </c>
       <c r="FO18" t="n">
-        <v>3.679547444335185e-05</v>
+        <v>0.0007945887045934796</v>
       </c>
       <c r="FP18" t="n">
-        <v>2.907513771788217e-05</v>
+        <v>0.002079748781397939</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0001305352634517476</v>
+        <v>0.0006572204292751849</v>
       </c>
       <c r="FR18" t="n">
-        <v>3.434852624195628e-05</v>
+        <v>0.0003920175950042903</v>
       </c>
       <c r="FS18" t="n">
-        <v>2.173649045289494e-05</v>
+        <v>0.00193249131552875</v>
       </c>
       <c r="FT18" t="n">
-        <v>2.523744115023874e-05</v>
+        <v>0.002351499628275633</v>
       </c>
       <c r="FU18" t="n">
-        <v>2.41320303757675e-05</v>
+        <v>0.001097009517252445</v>
       </c>
       <c r="FV18" t="n">
-        <v>3.158152367177536e-06</v>
+        <v>0.0007783902110531926</v>
       </c>
       <c r="FW18" t="n">
-        <v>3.339467730256729e-05</v>
+        <v>0.0001865677768364549</v>
       </c>
       <c r="FX18" t="n">
-        <v>4.214678483549505e-06</v>
+        <v>0.0008046197472140193</v>
       </c>
       <c r="FY18" t="n">
-        <v>5.219774902798235e-05</v>
+        <v>0.001738254562951624</v>
       </c>
       <c r="FZ18" t="n">
-        <v>5.84075178267085e-06</v>
+        <v>0.001529795117676258</v>
       </c>
       <c r="GA18" t="n">
-        <v>4.070850081916433e-06</v>
+        <v>0.001328108250163496</v>
       </c>
       <c r="GB18" t="n">
-        <v>4.838834684051108e-06</v>
+        <v>5.753863661084324e-05</v>
       </c>
       <c r="GC18" t="n">
-        <v>7.344284540522494e-07</v>
+        <v>5.135079845786095e-06</v>
       </c>
       <c r="GD18" t="n">
-        <v>3.572947025531903e-05</v>
+        <v>0.002007258590310812</v>
       </c>
       <c r="GE18" t="n">
-        <v>2.593081444501877e-05</v>
+        <v>0.001771380542777479</v>
       </c>
       <c r="GF18" t="n">
-        <v>1.150102161773248e-05</v>
+        <v>0.001483196625486016</v>
       </c>
       <c r="GG18" t="n">
-        <v>2.757368974926067e-06</v>
+        <v>0.0006132113630883396</v>
       </c>
     </row>
   </sheetData>
